--- a/result/BO_TransformerCNN_CS2_38_predictions.xlsx
+++ b/result/BO_TransformerCNN_CS2_38_predictions.xlsx
@@ -557,7 +557,7 @@
         <v>1.08975310223443</v>
       </c>
       <c r="C11" t="n">
-        <v>1.08975310223443</v>
+        <v>1.084640860557556</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>1.097954467503372</v>
       </c>
       <c r="C12" t="n">
-        <v>1.097954467503372</v>
+        <v>1.084576606750488</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>1.099156711560885</v>
       </c>
       <c r="C13" t="n">
-        <v>1.099156711560885</v>
+        <v>1.083887696266174</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>1.103143629273064</v>
       </c>
       <c r="C14" t="n">
-        <v>1.105090618133545</v>
+        <v>1.083712697029114</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>1.102865805472237</v>
       </c>
       <c r="C15" t="n">
-        <v>1.107566475868225</v>
+        <v>1.08342969417572</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>1.098800663568903</v>
       </c>
       <c r="C16" t="n">
-        <v>1.107953548431396</v>
+        <v>1.082679629325867</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>1.098606010960777</v>
       </c>
       <c r="C17" t="n">
-        <v>1.106659293174744</v>
+        <v>1.082693696022034</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>1.098172780811427</v>
       </c>
       <c r="C18" t="n">
-        <v>1.106038808822632</v>
+        <v>1.082691311836243</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>1.097866682593694</v>
       </c>
       <c r="C19" t="n">
-        <v>1.105557084083557</v>
+        <v>1.082805037498474</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>1.097370897649291</v>
       </c>
       <c r="C20" t="n">
-        <v>1.105355858802795</v>
+        <v>1.08319079875946</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>1.09691628692272</v>
       </c>
       <c r="C21" t="n">
-        <v>1.105153441429138</v>
+        <v>1.082951545715332</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>1.096518391578997</v>
       </c>
       <c r="C22" t="n">
-        <v>1.104730844497681</v>
+        <v>1.082448601722717</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>1.096165026768173</v>
       </c>
       <c r="C23" t="n">
-        <v>1.104323506355286</v>
+        <v>1.082300424575806</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>1.095845957864241</v>
       </c>
       <c r="C24" t="n">
-        <v>1.103899836540222</v>
+        <v>1.082055449485779</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>1.095522139124247</v>
       </c>
       <c r="C25" t="n">
-        <v>1.103572726249695</v>
+        <v>1.081603527069092</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>1.095099555221921</v>
       </c>
       <c r="C26" t="n">
-        <v>1.103370070457458</v>
+        <v>1.081292152404785</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>1.0947547221663</v>
       </c>
       <c r="C27" t="n">
-        <v>1.103015661239624</v>
+        <v>1.081259608268738</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>1.078664856710707</v>
       </c>
       <c r="C28" t="n">
-        <v>1.102253198623657</v>
+        <v>1.077775359153748</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>1.071431907003506</v>
       </c>
       <c r="C29" t="n">
-        <v>1.092226386070251</v>
+        <v>1.074262261390686</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>1.069830266737054</v>
       </c>
       <c r="C30" t="n">
-        <v>1.081812500953674</v>
+        <v>1.071401238441467</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>1.06862470357056</v>
       </c>
       <c r="C31" t="n">
-        <v>1.077365636825562</v>
+        <v>1.068954110145569</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>1.067316466460071</v>
       </c>
       <c r="C32" t="n">
-        <v>1.075286746025085</v>
+        <v>1.066105484962463</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>1.077831762607149</v>
       </c>
       <c r="C33" t="n">
-        <v>1.073485970497131</v>
+        <v>1.065917134284973</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>1.07899952290172</v>
       </c>
       <c r="C34" t="n">
-        <v>1.078123331069946</v>
+        <v>1.064253926277161</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>1.067662083096686</v>
       </c>
       <c r="C35" t="n">
-        <v>1.078743934631348</v>
+        <v>1.059481382369995</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>1.060050871841768</v>
       </c>
       <c r="C36" t="n">
-        <v>1.06999146938324</v>
+        <v>1.054617047309875</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>1.059969398576011</v>
       </c>
       <c r="C37" t="n">
-        <v>1.063960075378418</v>
+        <v>1.053104043006897</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>1.059221592707229</v>
       </c>
       <c r="C38" t="n">
-        <v>1.061804413795471</v>
+        <v>1.052401542663574</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>1.058934010099877</v>
       </c>
       <c r="C39" t="n">
-        <v>1.061466217041016</v>
+        <v>1.051819324493408</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>1.06896977617528</v>
       </c>
       <c r="C40" t="n">
-        <v>1.061405539512634</v>
+        <v>1.053341865539551</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>1.070109621942969</v>
       </c>
       <c r="C41" t="n">
-        <v>1.066252827644348</v>
+        <v>1.053029775619507</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>1.058865050235124</v>
       </c>
       <c r="C42" t="n">
-        <v>1.067007422447205</v>
+        <v>1.049918532371521</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>1.052498293070255</v>
       </c>
       <c r="C43" t="n">
-        <v>1.060901880264282</v>
+        <v>1.047556400299072</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>1.0523217446555</v>
       </c>
       <c r="C44" t="n">
-        <v>1.054986715316772</v>
+        <v>1.046321749687195</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>1.052371017369145</v>
       </c>
       <c r="C45" t="n">
-        <v>1.053260087966919</v>
+        <v>1.046170234680176</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>1.050602364240788</v>
       </c>
       <c r="C46" t="n">
-        <v>1.053115010261536</v>
+        <v>1.045168280601501</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>1.060942484165383</v>
       </c>
       <c r="C47" t="n">
-        <v>1.052698016166687</v>
+        <v>1.046280384063721</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>1.066182577805434</v>
       </c>
       <c r="C48" t="n">
-        <v>1.057852387428284</v>
+        <v>1.047035217285156</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>1.052288943798655</v>
       </c>
       <c r="C49" t="n">
-        <v>1.061790466308594</v>
+        <v>1.044107556343079</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>1.05049905260281</v>
       </c>
       <c r="C50" t="n">
-        <v>1.054509878158569</v>
+        <v>1.042613387107849</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>1.049905803633351</v>
       </c>
       <c r="C51" t="n">
-        <v>1.050470352172852</v>
+        <v>1.04181432723999</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>1.049781951182566</v>
       </c>
       <c r="C52" t="n">
-        <v>1.049505829811096</v>
+        <v>1.041960120201111</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>1.049759911915659</v>
       </c>
       <c r="C53" t="n">
-        <v>1.049505829811096</v>
+        <v>1.042016267776489</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>1.090293911074705</v>
       </c>
       <c r="C54" t="n">
-        <v>1.051064610481262</v>
+        <v>1.051604032516479</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>1.09089115338152</v>
       </c>
       <c r="C55" t="n">
-        <v>1.089295387268066</v>
+        <v>1.056025862693787</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>1.096290424838215</v>
       </c>
       <c r="C56" t="n">
-        <v>1.096238970756531</v>
+        <v>1.060754060745239</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>1.096884768879322</v>
       </c>
       <c r="C57" t="n">
-        <v>1.101963758468628</v>
+        <v>1.064801573753357</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>1.087829352928646</v>
       </c>
       <c r="C58" t="n">
-        <v>1.103208422660828</v>
+        <v>1.067485809326172</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>1.080736243981894</v>
       </c>
       <c r="C59" t="n">
-        <v>1.096516966819763</v>
+        <v>1.069028615951538</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>1.080509910707601</v>
       </c>
       <c r="C60" t="n">
-        <v>1.087159276008606</v>
+        <v>1.071084856987</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>1.078512263829186</v>
       </c>
       <c r="C61" t="n">
-        <v>1.084795951843262</v>
+        <v>1.072226166725159</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>1.078537709322427</v>
       </c>
       <c r="C62" t="n">
-        <v>1.083407878875732</v>
+        <v>1.072747826576233</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>1.078105306607754</v>
       </c>
       <c r="C63" t="n">
-        <v>1.083266377449036</v>
+        <v>1.071301221847534</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>1.070979638719453</v>
       </c>
       <c r="C64" t="n">
-        <v>1.081802368164062</v>
+        <v>1.067936778068542</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>1.063345392426226</v>
       </c>
       <c r="C65" t="n">
-        <v>1.074642539024353</v>
+        <v>1.062488079071045</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>1.062939994228154</v>
       </c>
       <c r="C66" t="n">
-        <v>1.068610548973083</v>
+        <v>1.059111595153809</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>1.060987285838736</v>
       </c>
       <c r="C67" t="n">
-        <v>1.066324710845947</v>
+        <v>1.056276440620422</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>1.052339335011166</v>
       </c>
       <c r="C68" t="n">
-        <v>1.064386248588562</v>
+        <v>1.05242931842804</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>1.060415193868099</v>
       </c>
       <c r="C69" t="n">
-        <v>1.059944629669189</v>
+        <v>1.05180549621582</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>1.059328592104205</v>
       </c>
       <c r="C70" t="n">
-        <v>1.061044335365295</v>
+        <v>1.050018191337585</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>1.051423649685999</v>
       </c>
       <c r="C71" t="n">
-        <v>1.059577226638794</v>
+        <v>1.04738974571228</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>1.051311345263023</v>
       </c>
       <c r="C72" t="n">
-        <v>1.054512858390808</v>
+        <v>1.045029163360596</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>1.051066850975126</v>
       </c>
       <c r="C73" t="n">
-        <v>1.052284836769104</v>
+        <v>1.043672204017639</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>1.044696539943017</v>
       </c>
       <c r="C74" t="n">
-        <v>1.051020741462708</v>
+        <v>1.041492104530334</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>1.052103283656953</v>
       </c>
       <c r="C75" t="n">
-        <v>1.047840356826782</v>
+        <v>1.041657090187073</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>1.052129154366727</v>
       </c>
       <c r="C76" t="n">
-        <v>1.050136804580688</v>
+        <v>1.041497945785522</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>1.051529420455798</v>
       </c>
       <c r="C77" t="n">
-        <v>1.050466060638428</v>
+        <v>1.040842294692993</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>1.051060213189763</v>
       </c>
       <c r="C78" t="n">
-        <v>1.04984176158905</v>
+        <v>1.039931058883667</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>1.050591469771165</v>
       </c>
       <c r="C79" t="n">
-        <v>1.049299955368042</v>
+        <v>1.039580702781677</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>1.050669561798522</v>
       </c>
       <c r="C80" t="n">
-        <v>1.048735022544861</v>
+        <v>1.039583921432495</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>1.050220845526547</v>
       </c>
       <c r="C81" t="n">
-        <v>1.048671245574951</v>
+        <v>1.039722800254822</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>1.04493349440496</v>
       </c>
       <c r="C82" t="n">
-        <v>1.048314213752747</v>
+        <v>1.038628578186035</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>1.044681054515646</v>
       </c>
       <c r="C83" t="n">
-        <v>1.045679926872253</v>
+        <v>1.038091659545898</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>1.044241616628059</v>
       </c>
       <c r="C84" t="n">
-        <v>1.044788241386414</v>
+        <v>1.037392735481262</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>1.043684098363581</v>
       </c>
       <c r="C85" t="n">
-        <v>1.044094562530518</v>
+        <v>1.036794543266296</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>1.043221523803175</v>
       </c>
       <c r="C86" t="n">
-        <v>1.043674230575562</v>
+        <v>1.036210179328918</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0.8866047086593583</v>
       </c>
       <c r="C87" t="n">
-        <v>1.039602041244507</v>
+        <v>0.9916161298751831</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>1.042930276172339</v>
       </c>
       <c r="C88" t="n">
-        <v>1.036393523216248</v>
+        <v>1.024020195007324</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>1.042103244618926</v>
       </c>
       <c r="C89" t="n">
-        <v>1.040501236915588</v>
+        <v>1.026654839515686</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>1.041626767863378</v>
       </c>
       <c r="C90" t="n">
-        <v>1.041600584983826</v>
+        <v>1.027686238288879</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>1.041282166847365</v>
       </c>
       <c r="C91" t="n">
-        <v>1.04110324382782</v>
+        <v>1.026828289031982</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>1.025924385861468</v>
       </c>
       <c r="C92" t="n">
-        <v>1.04033088684082</v>
+        <v>1.022966146469116</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>1.025211777000244</v>
       </c>
       <c r="C93" t="n">
-        <v>1.033690214157104</v>
+        <v>1.021565079689026</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>1.02459888549506</v>
       </c>
       <c r="C94" t="n">
-        <v>1.030288219451904</v>
+        <v>1.021433353424072</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>1.041033203098975</v>
       </c>
       <c r="C95" t="n">
-        <v>1.030174851417542</v>
+        <v>1.02562952041626</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>1.034910331958401</v>
       </c>
       <c r="C96" t="n">
-        <v>1.037294983863831</v>
+        <v>1.026961088180542</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>1.035499410312785</v>
       </c>
       <c r="C97" t="n">
-        <v>1.036133527755737</v>
+        <v>1.0262770652771</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>1.044539119996129</v>
       </c>
       <c r="C98" t="n">
-        <v>1.035306096076965</v>
+        <v>1.027538299560547</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>1.044914980940811</v>
       </c>
       <c r="C99" t="n">
-        <v>1.039860248565674</v>
+        <v>1.028730392456055</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>1.040902741960883</v>
       </c>
       <c r="C100" t="n">
-        <v>1.041447520256042</v>
+        <v>1.029183506965637</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>1.03492901014712</v>
       </c>
       <c r="C101" t="n">
-        <v>1.039784073829651</v>
+        <v>1.028745770454407</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>1.034353803303257</v>
       </c>
       <c r="C102" t="n">
-        <v>1.036526679992676</v>
+        <v>1.028847336769104</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>1.033638253030655</v>
       </c>
       <c r="C103" t="n">
-        <v>1.035205602645874</v>
+        <v>1.028693079948425</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>1.032489962612897</v>
       </c>
       <c r="C104" t="n">
-        <v>1.034876346588135</v>
+        <v>1.028428673744202</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>1.041550402215725</v>
       </c>
       <c r="C105" t="n">
-        <v>1.034749150276184</v>
+        <v>1.029732227325439</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>1.041932799160917</v>
       </c>
       <c r="C106" t="n">
-        <v>1.038762807846069</v>
+        <v>1.030307412147522</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>1.0329449492721</v>
       </c>
       <c r="C107" t="n">
-        <v>1.039576888084412</v>
+        <v>1.027894616127014</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>1.026629075951077</v>
       </c>
       <c r="C108" t="n">
-        <v>1.035356998443604</v>
+        <v>1.025892376899719</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>1.025173770873495</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03105354309082</v>
+        <v>1.024372220039368</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>1.025267451335624</v>
       </c>
       <c r="C110" t="n">
-        <v>1.029108166694641</v>
+        <v>1.023845672607422</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>1.023365154538439</v>
       </c>
       <c r="C111" t="n">
-        <v>1.028837203979492</v>
+        <v>1.022985935211182</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>1.03374178666239</v>
       </c>
       <c r="C112" t="n">
-        <v>1.028507709503174</v>
+        <v>1.023809671401978</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>1.034170796145161</v>
       </c>
       <c r="C113" t="n">
-        <v>1.032163619995117</v>
+        <v>1.023784160614014</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>1.024893851511498</v>
       </c>
       <c r="C114" t="n">
-        <v>1.032709956169128</v>
+        <v>1.021553158760071</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>1.023218346620978</v>
       </c>
       <c r="C115" t="n">
-        <v>1.028489112854004</v>
+        <v>1.019793272018433</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>1.023026584001693</v>
       </c>
       <c r="C116" t="n">
-        <v>1.025921702384949</v>
+        <v>1.019493460655212</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>1.017458616708893</v>
       </c>
       <c r="C117" t="n">
-        <v>1.025150537490845</v>
+        <v>1.018407344818115</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>1.00817438657584</v>
       </c>
       <c r="C118" t="n">
-        <v>1.022638440132141</v>
+        <v>1.016041994094849</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>0.8767511882337011</v>
       </c>
       <c r="C119" t="n">
-        <v>1.015055775642395</v>
+        <v>0.9730253219604492</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>1.025039996265898</v>
       </c>
       <c r="C120" t="n">
-        <v>1.015070557594299</v>
+        <v>1.005569100379944</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>1.026607520747102</v>
       </c>
       <c r="C121" t="n">
-        <v>1.023306131362915</v>
+        <v>1.008850693702698</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>1.032693506094655</v>
       </c>
       <c r="C122" t="n">
-        <v>1.026343464851379</v>
+        <v>1.011348247528076</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>1.033281335729062</v>
       </c>
       <c r="C123" t="n">
-        <v>1.029802680015564</v>
+        <v>1.011595726013184</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>1.033979152581137</v>
       </c>
       <c r="C124" t="n">
-        <v>1.03119421005249</v>
+        <v>1.013182401657104</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>1.034412695257573</v>
       </c>
       <c r="C125" t="n">
-        <v>1.032092571258545</v>
+        <v>1.01559054851532</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>1.034889637024819</v>
       </c>
       <c r="C126" t="n">
-        <v>1.032851219177246</v>
+        <v>1.018928289413452</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>1.035048130304661</v>
       </c>
       <c r="C127" t="n">
-        <v>1.033414959907532</v>
+        <v>1.022257208824158</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>1.035316260474789</v>
       </c>
       <c r="C128" t="n">
-        <v>1.033757448196411</v>
+        <v>1.025356292724609</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>1.035659436740221</v>
       </c>
       <c r="C129" t="n">
-        <v>1.034240961074829</v>
+        <v>1.026220679283142</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>1.035751982474257</v>
       </c>
       <c r="C130" t="n">
-        <v>1.03466808795929</v>
+        <v>1.026845455169678</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>1.035784960784923</v>
       </c>
       <c r="C131" t="n">
-        <v>1.03487503528595</v>
+        <v>1.026976346969604</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>1.035767048222165</v>
       </c>
       <c r="C132" t="n">
-        <v>1.03514289855957</v>
+        <v>1.027099370956421</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>1.035774595595497</v>
       </c>
       <c r="C133" t="n">
-        <v>1.035141587257385</v>
+        <v>1.027172565460205</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>1.035796957224745</v>
       </c>
       <c r="C134" t="n">
-        <v>1.035141587257385</v>
+        <v>1.027161240577698</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>1.035797263786678</v>
       </c>
       <c r="C135" t="n">
-        <v>1.035213351249695</v>
+        <v>1.027168273925781</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>1.017471010874681</v>
       </c>
       <c r="C136" t="n">
-        <v>1.034784913063049</v>
+        <v>1.024058103561401</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>1.017472122891245</v>
       </c>
       <c r="C137" t="n">
-        <v>1.027992486953735</v>
+        <v>1.021989703178406</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>1.016845406336781</v>
       </c>
       <c r="C138" t="n">
-        <v>1.024879097938538</v>
+        <v>1.02039647102356</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>1.006940559204491</v>
       </c>
       <c r="C139" t="n">
-        <v>1.023273944854736</v>
+        <v>1.017234921455383</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>1.022850873487945</v>
       </c>
       <c r="C140" t="n">
-        <v>1.02024257183075</v>
+        <v>1.017627596855164</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>1.026617382503238</v>
       </c>
       <c r="C141" t="n">
-        <v>1.024336934089661</v>
+        <v>1.01762855052948</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>1.031374137420783</v>
       </c>
       <c r="C142" t="n">
-        <v>1.026687502861023</v>
+        <v>1.017420053482056</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>1.014522108566613</v>
       </c>
       <c r="C143" t="n">
-        <v>1.028393387794495</v>
+        <v>1.014366030693054</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>1.016121176664802</v>
       </c>
       <c r="C144" t="n">
-        <v>1.021752834320068</v>
+        <v>1.01282525062561</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>1.007911759460417</v>
       </c>
       <c r="C145" t="n">
-        <v>1.018898129463196</v>
+        <v>1.011446833610535</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>1.013843785341658</v>
       </c>
       <c r="C146" t="n">
-        <v>1.015649676322937</v>
+        <v>1.012264847755432</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>1.021674151579749</v>
       </c>
       <c r="C147" t="n">
-        <v>1.017464876174927</v>
+        <v>1.013842701911926</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>1.021992269442897</v>
       </c>
       <c r="C148" t="n">
-        <v>1.021965742111206</v>
+        <v>1.014478325843811</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>1.005704538433945</v>
       </c>
       <c r="C149" t="n">
-        <v>1.022210836410522</v>
+        <v>1.010539650917053</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>1.005010763373833</v>
       </c>
       <c r="C150" t="n">
-        <v>1.015297651290894</v>
+        <v>1.007815957069397</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>1.00600667687701</v>
       </c>
       <c r="C151" t="n">
-        <v>1.011330723762512</v>
+        <v>1.006699919700623</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>1.004297217186835</v>
       </c>
       <c r="C152" t="n">
-        <v>1.010634899139404</v>
+        <v>1.005801200866699</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>0.9985255390514003</v>
       </c>
       <c r="C153" t="n">
-        <v>1.010117888450623</v>
+        <v>1.003889799118042</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>1.013823464519341</v>
       </c>
       <c r="C154" t="n">
-        <v>1.008378624916077</v>
+        <v>1.005443692207336</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>1.014601638429304</v>
       </c>
       <c r="C155" t="n">
-        <v>1.013542294502258</v>
+        <v>1.005041837692261</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>1.004429867061584</v>
       </c>
       <c r="C156" t="n">
-        <v>1.014515280723572</v>
+        <v>1.002590179443359</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>0.9981709328489788</v>
       </c>
       <c r="C157" t="n">
-        <v>1.009720683097839</v>
+        <v>0.9999582171440125</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>1.00405513994168</v>
       </c>
       <c r="C158" t="n">
-        <v>1.005507707595825</v>
+        <v>1.000290155410767</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>0.9986121387717836</v>
       </c>
       <c r="C159" t="n">
-        <v>1.006280422210693</v>
+        <v>0.9993069767951965</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>0.9956723524505554</v>
       </c>
       <c r="C160" t="n">
-        <v>1.00457501411438</v>
+        <v>0.9981938004493713</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>1.006024079862416</v>
       </c>
       <c r="C161" t="n">
-        <v>1.003496885299683</v>
+        <v>0.999615490436554</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>1.012361672509723</v>
       </c>
       <c r="C162" t="n">
-        <v>1.007432818412781</v>
+        <v>1.000884890556335</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>1.006510150099128</v>
       </c>
       <c r="C163" t="n">
-        <v>1.01133394241333</v>
+        <v>0.9996861815452576</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>0.9954381568355624</v>
       </c>
       <c r="C164" t="n">
-        <v>1.008848547935486</v>
+        <v>0.9965356588363647</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>0.9955200045866478</v>
       </c>
       <c r="C165" t="n">
-        <v>1.003238677978516</v>
+        <v>0.9952221512794495</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>0.9955826966215146</v>
       </c>
       <c r="C166" t="n">
-        <v>1.000864148139954</v>
+        <v>0.995206892490387</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>0.9953719128593941</v>
       </c>
       <c r="C167" t="n">
-        <v>1.000694036483765</v>
+        <v>0.9951626062393188</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>0.997080620582528</v>
       </c>
       <c r="C168" t="n">
-        <v>1.001091241836548</v>
+        <v>0.9950655698776245</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>1.005631756045879</v>
       </c>
       <c r="C169" t="n">
-        <v>1.001941323280334</v>
+        <v>0.9962629675865173</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>1.006453200311874</v>
       </c>
       <c r="C170" t="n">
-        <v>1.005826473236084</v>
+        <v>0.9962812662124634</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>1.010981890574538</v>
       </c>
       <c r="C171" t="n">
-        <v>1.007283449172974</v>
+        <v>0.9973130226135254</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>1.011332495060489</v>
       </c>
       <c r="C172" t="n">
-        <v>1.01008415222168</v>
+        <v>0.9983745217323303</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>1.011620689826079</v>
       </c>
       <c r="C173" t="n">
-        <v>1.011374592781067</v>
+        <v>1.000229358673096</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>1.012260352184136</v>
       </c>
       <c r="C174" t="n">
-        <v>1.012067794799805</v>
+        <v>1.002030253410339</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>1.012510096938582</v>
       </c>
       <c r="C175" t="n">
-        <v>1.012801647186279</v>
+        <v>1.004005670547485</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>1.012529181874549</v>
       </c>
       <c r="C176" t="n">
-        <v>1.01352846622467</v>
+        <v>1.005464196205139</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>1.012570717446136</v>
       </c>
       <c r="C177" t="n">
-        <v>1.013766169548035</v>
+        <v>1.006381750106812</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>1.012572017997104</v>
       </c>
       <c r="C178" t="n">
-        <v>1.014186978340149</v>
+        <v>1.007047414779663</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>1.012621355148003</v>
       </c>
       <c r="C179" t="n">
-        <v>1.014289498329163</v>
+        <v>1.007242560386658</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>1.012733027489308</v>
       </c>
       <c r="C180" t="n">
-        <v>1.014392971992493</v>
+        <v>1.007597327232361</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>1.013059806013079</v>
       </c>
       <c r="C181" t="n">
-        <v>1.014565825462341</v>
+        <v>1.00781512260437</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>1.013287840154258</v>
       </c>
       <c r="C182" t="n">
-        <v>1.014956712722778</v>
+        <v>1.007849097251892</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>1.014081155535493</v>
       </c>
       <c r="C183" t="n">
-        <v>1.01508903503418</v>
+        <v>1.008169293403625</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>1.014284908922347</v>
       </c>
       <c r="C184" t="n">
-        <v>1.015582203865051</v>
+        <v>1.008200407028198</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>0.9977193643949199</v>
       </c>
       <c r="C185" t="n">
-        <v>1.015135645866394</v>
+        <v>1.004938364028931</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>0.9967641068997689</v>
       </c>
       <c r="C186" t="n">
-        <v>1.008619546890259</v>
+        <v>1.002762913703918</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>0.9965400901783503</v>
       </c>
       <c r="C187" t="n">
-        <v>1.005283951759338</v>
+        <v>1.001286745071411</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>0.9963916228744862</v>
       </c>
       <c r="C188" t="n">
-        <v>1.004142999649048</v>
+        <v>0.9998635649681091</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>0.9949491045511574</v>
       </c>
       <c r="C189" t="n">
-        <v>1.00348174571991</v>
+        <v>0.9978331327438354</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>1.005074394315162</v>
       </c>
       <c r="C190" t="n">
-        <v>1.002733111381531</v>
+        <v>0.998028039932251</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>1.006046548718011</v>
       </c>
       <c r="C191" t="n">
-        <v>1.006160855293274</v>
+        <v>0.9970508217811584</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>0.9968211628425319</v>
       </c>
       <c r="C192" t="n">
-        <v>1.006804585456848</v>
+        <v>0.9945051074028015</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>0.989877210171092</v>
       </c>
       <c r="C193" t="n">
-        <v>1.002276420593262</v>
+        <v>0.9913777709007263</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>0.9974297566286452</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9979992508888245</v>
+        <v>0.9923109412193298</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>1.011737233575852</v>
       </c>
       <c r="C195" t="n">
-        <v>1.000495672225952</v>
+        <v>0.9964643716812134</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>1.012823514147129</v>
       </c>
       <c r="C196" t="n">
-        <v>1.009461641311646</v>
+        <v>0.9988435506820679</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>1.004217379125816</v>
       </c>
       <c r="C197" t="n">
-        <v>1.012083888053894</v>
+        <v>0.9983845949172974</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>0.9967258588919607</v>
       </c>
       <c r="C198" t="n">
-        <v>1.00805652141571</v>
+        <v>0.9961632490158081</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>0.997567014951492</v>
       </c>
       <c r="C199" t="n">
-        <v>1.002952575683594</v>
+        <v>0.9955003261566162</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>0.9980146846152893</v>
       </c>
       <c r="C200" t="n">
-        <v>1.001853704452515</v>
+        <v>0.996054470539093</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>0.9969127319509368</v>
       </c>
       <c r="C201" t="n">
-        <v>1.002330899238586</v>
+        <v>0.9964178204536438</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>1.004644140623229</v>
       </c>
       <c r="C202" t="n">
-        <v>1.002833008766174</v>
+        <v>0.9980437755584717</v>
       </c>
     </row>
     <row r="203">
@@ -2669,7 +2669,7 @@
         <v>1.00706456306448</v>
       </c>
       <c r="C203" t="n">
-        <v>1.006128907203674</v>
+        <v>0.9984803795814514</v>
       </c>
     </row>
     <row r="204">
@@ -2680,7 +2680,7 @@
         <v>1.012338011822582</v>
       </c>
       <c r="C204" t="n">
-        <v>1.008049607276917</v>
+        <v>0.9991719126701355</v>
       </c>
     </row>
     <row r="205">
@@ -2691,7 +2691,7 @@
         <v>0.9965961902364782</v>
       </c>
       <c r="C205" t="n">
-        <v>1.010688662528992</v>
+        <v>0.9961462616920471</v>
       </c>
     </row>
     <row r="206">
@@ -2702,7 +2702,7 @@
         <v>0.9967526965402355</v>
       </c>
       <c r="C206" t="n">
-        <v>1.004530310630798</v>
+        <v>0.9954007267951965</v>
       </c>
     </row>
     <row r="207">
@@ -2713,7 +2713,7 @@
         <v>0.9963782092844581</v>
       </c>
       <c r="C207" t="n">
-        <v>1.001780867576599</v>
+        <v>0.9952985644340515</v>
       </c>
     </row>
     <row r="208">
@@ -2724,7 +2724,7 @@
         <v>0.9960696803600334</v>
       </c>
       <c r="C208" t="n">
-        <v>1.001191139221191</v>
+        <v>0.9955115914344788</v>
       </c>
     </row>
     <row r="209">
@@ -2735,7 +2735,7 @@
         <v>1.00622603603067</v>
       </c>
       <c r="C209" t="n">
-        <v>1.001583576202393</v>
+        <v>0.9977438449859619</v>
       </c>
     </row>
     <row r="210">
@@ -2746,7 +2746,7 @@
         <v>1.01205782283485</v>
       </c>
       <c r="C210" t="n">
-        <v>1.006902575492859</v>
+        <v>0.9997776746749878</v>
       </c>
     </row>
     <row r="211">
@@ -2757,7 +2757,7 @@
         <v>1.004039050068712</v>
       </c>
       <c r="C211" t="n">
-        <v>1.010865211486816</v>
+        <v>0.9982532858848572</v>
       </c>
     </row>
     <row r="212">
@@ -2768,7 +2768,7 @@
         <v>0.9962835685844532</v>
       </c>
       <c r="C212" t="n">
-        <v>1.00745701789856</v>
+        <v>0.9954622983932495</v>
       </c>
     </row>
     <row r="213">
@@ -2779,7 +2779,7 @@
         <v>0.9982746019841034</v>
       </c>
       <c r="C213" t="n">
-        <v>1.002681255340576</v>
+        <v>0.9950492382049561</v>
       </c>
     </row>
     <row r="214">
@@ -2790,7 +2790,7 @@
         <v>1.006283651129077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.002241373062134</v>
+        <v>0.9976682066917419</v>
       </c>
     </row>
     <row r="215">
@@ -2801,7 +2801,7 @@
         <v>1.012537541601678</v>
       </c>
       <c r="C215" t="n">
-        <v>1.006933212280273</v>
+        <v>1.000660181045532</v>
       </c>
     </row>
     <row r="216">
@@ -2812,7 +2812,7 @@
         <v>1.012646674190443</v>
       </c>
       <c r="C216" t="n">
-        <v>1.011933565139771</v>
+        <v>1.00208044052124</v>
       </c>
     </row>
     <row r="217">
@@ -2823,7 +2823,7 @@
         <v>1.012827080198428</v>
       </c>
       <c r="C217" t="n">
-        <v>1.013222455978394</v>
+        <v>1.002863883972168</v>
       </c>
     </row>
     <row r="218">
@@ -2834,7 +2834,7 @@
         <v>1.013101194920743</v>
       </c>
       <c r="C218" t="n">
-        <v>1.013394236564636</v>
+        <v>1.003323316574097</v>
       </c>
     </row>
     <row r="219">
@@ -2845,7 +2845,7 @@
         <v>1.013281931178424</v>
       </c>
       <c r="C219" t="n">
-        <v>1.013599991798401</v>
+        <v>1.004283308982849</v>
       </c>
     </row>
     <row r="220">
@@ -2856,7 +2856,7 @@
         <v>1.013548064733222</v>
       </c>
       <c r="C220" t="n">
-        <v>1.014153957366943</v>
+        <v>1.005651473999023</v>
       </c>
     </row>
     <row r="221">
@@ -2867,7 +2867,7 @@
         <v>1.014218663560669</v>
       </c>
       <c r="C221" t="n">
-        <v>1.014821290969849</v>
+        <v>1.007282376289368</v>
       </c>
     </row>
     <row r="222">
@@ -2878,7 +2878,7 @@
         <v>1.014056947245133</v>
       </c>
       <c r="C222" t="n">
-        <v>1.015581011772156</v>
+        <v>1.008121252059937</v>
       </c>
     </row>
     <row r="223">
@@ -2889,7 +2889,7 @@
         <v>1.014072521118793</v>
       </c>
       <c r="C223" t="n">
-        <v>1.015652656555176</v>
+        <v>1.008684515953064</v>
       </c>
     </row>
     <row r="224">
@@ -2900,7 +2900,7 @@
         <v>1.014120932532279</v>
       </c>
       <c r="C224" t="n">
-        <v>1.015716552734375</v>
+        <v>1.008726000785828</v>
       </c>
     </row>
     <row r="225">
@@ -2911,7 +2911,7 @@
         <v>1.014258593183038</v>
       </c>
       <c r="C225" t="n">
-        <v>1.015788078308105</v>
+        <v>1.008802771568298</v>
       </c>
     </row>
     <row r="226">
@@ -2922,7 +2922,7 @@
         <v>1.014372157630169</v>
       </c>
       <c r="C226" t="n">
-        <v>1.01598858833313</v>
+        <v>1.009010434150696</v>
       </c>
     </row>
     <row r="227">
@@ -2933,7 +2933,7 @@
         <v>1.014520636909239</v>
       </c>
       <c r="C227" t="n">
-        <v>1.016124129295349</v>
+        <v>1.009089112281799</v>
       </c>
     </row>
     <row r="228">
@@ -2944,7 +2944,7 @@
         <v>1.014524744912553</v>
       </c>
       <c r="C228" t="n">
-        <v>1.016348719596863</v>
+        <v>1.009113907814026</v>
       </c>
     </row>
     <row r="229">
@@ -2955,7 +2955,7 @@
         <v>1.014539600949952</v>
       </c>
       <c r="C229" t="n">
-        <v>1.016411423683167</v>
+        <v>1.009211659431458</v>
       </c>
     </row>
     <row r="230">
@@ -2966,7 +2966,7 @@
         <v>1.014587882692558</v>
       </c>
       <c r="C230" t="n">
-        <v>1.016411423683167</v>
+        <v>1.009545207023621</v>
       </c>
     </row>
     <row r="231">
@@ -2977,7 +2977,7 @@
         <v>1.01455278892371</v>
       </c>
       <c r="C231" t="n">
-        <v>1.016482949256897</v>
+        <v>1.009401440620422</v>
       </c>
     </row>
     <row r="232">
@@ -2988,7 +2988,7 @@
         <v>0.9989362548651666</v>
       </c>
       <c r="C232" t="n">
-        <v>1.015826106071472</v>
+        <v>1.006202220916748</v>
       </c>
     </row>
     <row r="233">
@@ -2999,7 +2999,7 @@
         <v>1.004053184573434</v>
       </c>
       <c r="C233" t="n">
-        <v>1.009953498840332</v>
+        <v>1.005509376525879</v>
       </c>
     </row>
     <row r="234">
@@ -3010,7 +3010,7 @@
         <v>0.9986488676575053</v>
       </c>
       <c r="C234" t="n">
-        <v>1.008827567100525</v>
+        <v>1.003374338150024</v>
       </c>
     </row>
     <row r="235">
@@ -3021,7 +3021,7 @@
         <v>0.9966367576806231</v>
       </c>
       <c r="C235" t="n">
-        <v>1.0064697265625</v>
+        <v>1.001303672790527</v>
       </c>
     </row>
     <row r="236">
@@ -3032,7 +3032,7 @@
         <v>0.9955703174613127</v>
       </c>
       <c r="C236" t="n">
-        <v>1.004578590393066</v>
+        <v>0.9990836381912231</v>
       </c>
     </row>
     <row r="237">
@@ -3043,7 +3043,7 @@
         <v>1.005564147175259</v>
       </c>
       <c r="C237" t="n">
-        <v>1.003498077392578</v>
+        <v>0.9994718432426453</v>
       </c>
     </row>
     <row r="238">
@@ -3054,7 +3054,7 @@
         <v>1.006735744767264</v>
       </c>
       <c r="C238" t="n">
-        <v>1.006924510002136</v>
+        <v>0.9986864924430847</v>
       </c>
     </row>
     <row r="239">
@@ -3065,7 +3065,7 @@
         <v>0.9986317611705837</v>
       </c>
       <c r="C239" t="n">
-        <v>1.00767183303833</v>
+        <v>0.9962361454963684</v>
       </c>
     </row>
     <row r="240">
@@ -3076,7 +3076,7 @@
         <v>0.995569787179431</v>
       </c>
       <c r="C240" t="n">
-        <v>1.004034638404846</v>
+        <v>0.9942036867141724</v>
       </c>
     </row>
     <row r="241">
@@ -3087,7 +3087,7 @@
         <v>0.9974755937805839</v>
       </c>
       <c r="C241" t="n">
-        <v>1.001091241836548</v>
+        <v>0.9940922856330872</v>
       </c>
     </row>
     <row r="242">
@@ -3098,7 +3098,7 @@
         <v>0.9974234374345132</v>
       </c>
       <c r="C242" t="n">
-        <v>1.00090503692627</v>
+        <v>0.9938037395477295</v>
       </c>
     </row>
     <row r="243">
@@ -3109,7 +3109,7 @@
         <v>0.9898276539506687</v>
       </c>
       <c r="C243" t="n">
-        <v>1.0008864402771</v>
+        <v>0.9922381043434143</v>
       </c>
     </row>
     <row r="244">
@@ -3120,7 +3120,7 @@
         <v>1.004674990851255</v>
       </c>
       <c r="C244" t="n">
-        <v>0.9986741542816162</v>
+        <v>0.9949295520782471</v>
       </c>
     </row>
     <row r="245">
@@ -3131,7 +3131,7 @@
         <v>1.005533687792892</v>
       </c>
       <c r="C245" t="n">
-        <v>1.004399299621582</v>
+        <v>0.9954159259796143</v>
       </c>
     </row>
     <row r="246">
@@ -3142,7 +3142,7 @@
         <v>0.9974817300153093</v>
       </c>
       <c r="C246" t="n">
-        <v>1.005942463874817</v>
+        <v>0.9937661290168762</v>
       </c>
     </row>
     <row r="247">
@@ -3153,7 +3153,7 @@
         <v>0.9894950278243368</v>
       </c>
       <c r="C247" t="n">
-        <v>1.002106308937073</v>
+        <v>0.9909022450447083</v>
       </c>
     </row>
     <row r="248">
@@ -3164,7 +3164,7 @@
         <v>0.9953078091137429</v>
       </c>
       <c r="C248" t="n">
-        <v>0.9974725246429443</v>
+        <v>0.9913483262062073</v>
       </c>
     </row>
     <row r="249">
@@ -3175,7 +3175,7 @@
         <v>0.9888455747492578</v>
       </c>
       <c r="C249" t="n">
-        <v>0.9981884360313416</v>
+        <v>0.9898806810379028</v>
       </c>
     </row>
     <row r="250">
@@ -3186,7 +3186,7 @@
         <v>0.989374185560856</v>
       </c>
       <c r="C250" t="n">
-        <v>0.9961007833480835</v>
+        <v>0.9894992113113403</v>
       </c>
     </row>
     <row r="251">
@@ -3197,7 +3197,7 @@
         <v>0.9959280253051317</v>
       </c>
       <c r="C251" t="n">
-        <v>0.9959811568260193</v>
+        <v>0.990208625793457</v>
       </c>
     </row>
     <row r="252">
@@ -3208,7 +3208,7 @@
         <v>0.9982088103699891</v>
       </c>
       <c r="C252" t="n">
-        <v>0.9985476732254028</v>
+        <v>0.9903205633163452</v>
       </c>
     </row>
     <row r="253">
@@ -3219,7 +3219,7 @@
         <v>1.003601301910982</v>
       </c>
       <c r="C253" t="n">
-        <v>1.000150442123413</v>
+        <v>0.9911837577819824</v>
       </c>
     </row>
     <row r="254">
@@ -3230,7 +3230,7 @@
         <v>0.9883048053418623</v>
       </c>
       <c r="C254" t="n">
-        <v>1.002836108207703</v>
+        <v>0.9878717064857483</v>
       </c>
     </row>
     <row r="255">
@@ -3241,7 +3241,7 @@
         <v>0.9880546659558777</v>
       </c>
       <c r="C255" t="n">
-        <v>0.9966888427734375</v>
+        <v>0.9865039587020874</v>
       </c>
     </row>
     <row r="256">
@@ -3252,7 +3252,7 @@
         <v>0.9890634460980448</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9938145875930786</v>
+        <v>0.9866042733192444</v>
       </c>
     </row>
     <row r="257">
@@ -3263,7 +3263,7 @@
         <v>0.9877302848667432</v>
       </c>
       <c r="C257" t="n">
-        <v>0.993708610534668</v>
+        <v>0.9864177107810974</v>
       </c>
     </row>
     <row r="258">
@@ -3274,7 +3274,7 @@
         <v>0.9878218315287388</v>
       </c>
       <c r="C258" t="n">
-        <v>0.9935027360916138</v>
+        <v>0.9860637784004211</v>
       </c>
     </row>
     <row r="259">
@@ -3285,7 +3285,7 @@
         <v>0.9974942644422387</v>
       </c>
       <c r="C259" t="n">
-        <v>0.9938297867774963</v>
+        <v>0.9877945780754089</v>
       </c>
     </row>
     <row r="260">
@@ -3296,7 +3296,7 @@
         <v>1.003053356785359</v>
       </c>
       <c r="C260" t="n">
-        <v>0.9984233379364014</v>
+        <v>0.989058792591095</v>
       </c>
     </row>
     <row r="261">
@@ -3307,7 +3307,7 @@
         <v>0.9887482333924585</v>
       </c>
       <c r="C261" t="n">
-        <v>1.001785039901733</v>
+        <v>0.9861178398132324</v>
       </c>
     </row>
     <row r="262">
@@ -3318,7 +3318,7 @@
         <v>0.9873353082280265</v>
       </c>
       <c r="C262" t="n">
-        <v>0.9960550665855408</v>
+        <v>0.9846577644348145</v>
       </c>
     </row>
     <row r="263">
@@ -3329,7 +3329,7 @@
         <v>0.987175515109623</v>
       </c>
       <c r="C263" t="n">
-        <v>0.9929129481315613</v>
+        <v>0.9842926859855652</v>
       </c>
     </row>
     <row r="264">
@@ -3340,7 +3340,7 @@
         <v>0.9873452075697827</v>
       </c>
       <c r="C264" t="n">
-        <v>0.9921433329582214</v>
+        <v>0.9845468401908875</v>
       </c>
     </row>
     <row r="265">
@@ -3351,7 +3351,7 @@
         <v>0.9965152103852902</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9928576946258545</v>
+        <v>0.9871248602867126</v>
       </c>
     </row>
     <row r="266">
@@ -3362,7 +3362,7 @@
         <v>0.9885218797375718</v>
       </c>
       <c r="C266" t="n">
-        <v>0.9971745610237122</v>
+        <v>0.9858874678611755</v>
       </c>
     </row>
     <row r="267">
@@ -3373,7 +3373,7 @@
         <v>0.9981172981558282</v>
       </c>
       <c r="C267" t="n">
-        <v>0.9950816035270691</v>
+        <v>0.9872474670410156</v>
       </c>
     </row>
     <row r="268">
@@ -3384,7 +3384,7 @@
         <v>0.9983701481851686</v>
       </c>
       <c r="C268" t="n">
-        <v>0.9983444213867188</v>
+        <v>0.9873073697090149</v>
       </c>
     </row>
     <row r="269">
@@ -3395,7 +3395,7 @@
         <v>0.9876671550447403</v>
       </c>
       <c r="C269" t="n">
-        <v>0.9990831017494202</v>
+        <v>0.9851524829864502</v>
       </c>
     </row>
     <row r="270">
@@ -3406,7 +3406,7 @@
         <v>0.9875379288646476</v>
       </c>
       <c r="C270" t="n">
-        <v>0.9945018291473389</v>
+        <v>0.9848501086235046</v>
       </c>
     </row>
     <row r="271">
@@ -3417,7 +3417,7 @@
         <v>0.9866542771105292</v>
       </c>
       <c r="C271" t="n">
-        <v>0.9928082227706909</v>
+        <v>0.9847496747970581</v>
       </c>
     </row>
     <row r="272">
@@ -3428,7 +3428,7 @@
         <v>0.9873639195020762</v>
       </c>
       <c r="C272" t="n">
-        <v>0.9921433329582214</v>
+        <v>0.9849045872688293</v>
       </c>
     </row>
     <row r="273">
@@ -3439,7 +3439,7 @@
         <v>0.9868708391276055</v>
       </c>
       <c r="C273" t="n">
-        <v>0.9922803640365601</v>
+        <v>0.9843721389770508</v>
       </c>
     </row>
     <row r="274">
@@ -3450,7 +3450,7 @@
         <v>0.9867501225612176</v>
       </c>
       <c r="C274" t="n">
-        <v>0.9921768307685852</v>
+        <v>0.9834046959877014</v>
       </c>
     </row>
     <row r="275">
@@ -3461,7 +3461,7 @@
         <v>0.9958429347025588</v>
       </c>
       <c r="C275" t="n">
-        <v>0.9920273423194885</v>
+        <v>0.9846640229225159</v>
       </c>
     </row>
     <row r="276">
@@ -3472,7 +3472,7 @@
         <v>0.9970342593150039</v>
       </c>
       <c r="C276" t="n">
-        <v>0.9961235523223877</v>
+        <v>0.985170841217041</v>
       </c>
     </row>
     <row r="277">
@@ -3483,7 +3483,7 @@
         <v>0.9898657836300043</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9977284669876099</v>
+        <v>0.9840015769004822</v>
       </c>
     </row>
     <row r="278">
@@ -3494,7 +3494,7 @@
         <v>0.9806893918141953</v>
       </c>
       <c r="C278" t="n">
-        <v>0.994382381439209</v>
+        <v>0.9815853238105774</v>
       </c>
     </row>
     <row r="279">
@@ -3505,7 +3505,7 @@
         <v>0.9867744422377017</v>
       </c>
       <c r="C279" t="n">
-        <v>0.9896115064620972</v>
+        <v>0.9821096062660217</v>
       </c>
     </row>
     <row r="280">
@@ -3516,7 +3516,7 @@
         <v>0.9804769483644946</v>
       </c>
       <c r="C280" t="n">
-        <v>0.9900817275047302</v>
+        <v>0.9811103343963623</v>
       </c>
     </row>
     <row r="281">
@@ -3527,7 +3527,7 @@
         <v>0.9805215512076524</v>
       </c>
       <c r="C281" t="n">
-        <v>0.9882802367210388</v>
+        <v>0.9804375767707825</v>
       </c>
     </row>
     <row r="282">
@@ -3538,7 +3538,7 @@
         <v>0.9866775296805018</v>
       </c>
       <c r="C282" t="n">
-        <v>0.9878029823303223</v>
+        <v>0.98079913854599</v>
       </c>
     </row>
     <row r="283">
@@ -3549,7 +3549,7 @@
         <v>0.9888137642781997</v>
       </c>
       <c r="C283" t="n">
-        <v>0.9900981187820435</v>
+        <v>0.9806883335113525</v>
       </c>
     </row>
     <row r="284">
@@ -3560,7 +3560,7 @@
         <v>0.9894429807309655</v>
       </c>
       <c r="C284" t="n">
-        <v>0.9913886189460754</v>
+        <v>0.9802009463310242</v>
       </c>
     </row>
     <row r="285">
@@ -3571,7 +3571,7 @@
         <v>0.9792010686104462</v>
       </c>
       <c r="C285" t="n">
-        <v>0.9914305210113525</v>
+        <v>0.9774193167686462</v>
       </c>
     </row>
     <row r="286">
@@ -3582,7 +3582,7 @@
         <v>0.9786260538489071</v>
       </c>
       <c r="C286" t="n">
-        <v>0.9869121313095093</v>
+        <v>0.976489245891571</v>
       </c>
     </row>
     <row r="287">
@@ -3593,7 +3593,7 @@
         <v>0.978571779914861</v>
       </c>
       <c r="C287" t="n">
-        <v>0.9846975207328796</v>
+        <v>0.9759700298309326</v>
       </c>
     </row>
     <row r="288">
@@ -3604,7 +3604,7 @@
         <v>0.9780814874845871</v>
       </c>
       <c r="C288" t="n">
-        <v>0.984201967716217</v>
+        <v>0.9757648110389709</v>
       </c>
     </row>
     <row r="289">
@@ -3615,7 +3615,7 @@
         <v>0.9716787628691901</v>
       </c>
       <c r="C289" t="n">
-        <v>0.983660101890564</v>
+        <v>0.9739482402801514</v>
       </c>
     </row>
     <row r="290">
@@ -3626,7 +3626,7 @@
         <v>0.9863229438370841</v>
       </c>
       <c r="C290" t="n">
-        <v>0.9817578196525574</v>
+        <v>0.9756203293800354</v>
       </c>
     </row>
     <row r="291">
@@ -3637,7 +3637,7 @@
         <v>0.9869723747591884</v>
       </c>
       <c r="C291" t="n">
-        <v>0.987144947052002</v>
+        <v>0.9754993319511414</v>
       </c>
     </row>
     <row r="292">
@@ -3648,7 +3648,7 @@
         <v>0.9872707520358497</v>
       </c>
       <c r="C292" t="n">
-        <v>0.9887704253196716</v>
+        <v>0.9757793545722961</v>
       </c>
     </row>
     <row r="293">
@@ -3659,7 +3659,7 @@
         <v>0.9875204951909491</v>
       </c>
       <c r="C293" t="n">
-        <v>0.9893602728843689</v>
+        <v>0.975894570350647</v>
       </c>
     </row>
     <row r="294">
@@ -3670,7 +3670,7 @@
         <v>0.9878472324477574</v>
       </c>
       <c r="C294" t="n">
-        <v>0.9896008968353271</v>
+        <v>0.9767835736274719</v>
       </c>
     </row>
     <row r="295">
@@ -3681,7 +3681,7 @@
         <v>0.9883366194640866</v>
       </c>
       <c r="C295" t="n">
-        <v>0.9901252388954163</v>
+        <v>0.9783326387405396</v>
       </c>
     </row>
     <row r="296">
@@ -3692,7 +3692,7 @@
         <v>0.9888311932641813</v>
       </c>
       <c r="C296" t="n">
-        <v>0.9907259941101074</v>
+        <v>0.9797735810279846</v>
       </c>
     </row>
     <row r="297">
@@ -3703,7 +3703,7 @@
         <v>0.9888267979242092</v>
       </c>
       <c r="C297" t="n">
-        <v>0.9915216565132141</v>
+        <v>0.9812051057815552</v>
       </c>
     </row>
     <row r="298">
@@ -3714,7 +3714,7 @@
         <v>0.9890045790293018</v>
       </c>
       <c r="C298" t="n">
-        <v>0.9917953014373779</v>
+        <v>0.9818702936172485</v>
       </c>
     </row>
     <row r="299">
@@ -3725,7 +3725,7 @@
         <v>0.9888954053093136</v>
       </c>
       <c r="C299" t="n">
-        <v>0.9921113848686218</v>
+        <v>0.9820632338523865</v>
       </c>
     </row>
     <row r="300">
@@ -3736,7 +3736,7 @@
         <v>0.9886581496438696</v>
       </c>
       <c r="C300" t="n">
-        <v>0.9921433329582214</v>
+        <v>0.9823874831199646</v>
       </c>
     </row>
     <row r="301">
@@ -3747,7 +3747,7 @@
         <v>0.9890464126807939</v>
       </c>
       <c r="C301" t="n">
-        <v>0.9921126365661621</v>
+        <v>0.9827069044113159</v>
       </c>
     </row>
     <row r="302">
@@ -3758,7 +3758,7 @@
         <v>0.9890654999254916</v>
       </c>
       <c r="C302" t="n">
-        <v>0.9923532009124756</v>
+        <v>0.9827468991279602</v>
       </c>
     </row>
     <row r="303">
@@ -3769,7 +3769,7 @@
         <v>0.9891434156118801</v>
       </c>
       <c r="C303" t="n">
-        <v>0.9923850297927856</v>
+        <v>0.9827995300292969</v>
       </c>
     </row>
     <row r="304">
@@ -3780,7 +3780,7 @@
         <v>0.9941817522481623</v>
       </c>
       <c r="C304" t="n">
-        <v>0.9928516745567322</v>
+        <v>0.9841907024383545</v>
       </c>
     </row>
     <row r="305">
@@ -3791,7 +3791,7 @@
         <v>0.9944385305665587</v>
       </c>
       <c r="C305" t="n">
-        <v>0.9953881502151489</v>
+        <v>0.9849245548248291</v>
       </c>
     </row>
     <row r="306">
@@ -3802,7 +3802,7 @@
         <v>0.9944952130625723</v>
       </c>
       <c r="C306" t="n">
-        <v>0.9962849617004395</v>
+        <v>0.9855740070343018</v>
       </c>
     </row>
     <row r="307">
@@ -3813,7 +3813,7 @@
         <v>0.9790469535107628</v>
       </c>
       <c r="C307" t="n">
-        <v>0.996015727519989</v>
+        <v>0.9824674129486084</v>
       </c>
     </row>
     <row r="308">
@@ -3824,7 +3824,7 @@
         <v>0.9778208007721987</v>
       </c>
       <c r="C308" t="n">
-        <v>0.9896986484527588</v>
+        <v>0.9809482097625732</v>
       </c>
     </row>
     <row r="309">
@@ -3835,7 +3835,7 @@
         <v>0.9789484738929934</v>
       </c>
       <c r="C309" t="n">
-        <v>0.9863591194152832</v>
+        <v>0.9799707531929016</v>
       </c>
     </row>
     <row r="310">
@@ -3846,7 +3846,7 @@
         <v>0.9858891647422622</v>
       </c>
       <c r="C310" t="n">
-        <v>0.9864065647125244</v>
+        <v>0.9806248545646667</v>
       </c>
     </row>
     <row r="311">
@@ -3857,7 +3857,7 @@
         <v>0.9861278985876036</v>
       </c>
       <c r="C311" t="n">
-        <v>0.9894651174545288</v>
+        <v>0.9805362820625305</v>
       </c>
     </row>
     <row r="312">
@@ -3868,7 +3868,7 @@
         <v>0.969499134052592</v>
       </c>
       <c r="C312" t="n">
-        <v>0.9894610643386841</v>
+        <v>0.9759681820869446</v>
       </c>
     </row>
     <row r="313">
@@ -3879,7 +3879,7 @@
         <v>0.9696883190388548</v>
       </c>
       <c r="C313" t="n">
-        <v>0.9829034209251404</v>
+        <v>0.972612738609314</v>
       </c>
     </row>
     <row r="314">
@@ -3890,7 +3890,7 @@
         <v>0.9693331847340316</v>
       </c>
       <c r="C314" t="n">
-        <v>0.9788030982017517</v>
+        <v>0.9704634547233582</v>
       </c>
     </row>
     <row r="315">
@@ -3901,7 +3901,7 @@
         <v>0.9692315013426918</v>
       </c>
       <c r="C315" t="n">
-        <v>0.9773089289665222</v>
+        <v>0.9691958427429199</v>
       </c>
     </row>
     <row r="316">
@@ -3912,7 +3912,7 @@
         <v>0.9622808689629303</v>
       </c>
       <c r="C316" t="n">
-        <v>0.9766292572021484</v>
+        <v>0.9668556451797485</v>
       </c>
     </row>
     <row r="317">
@@ -3923,7 +3923,7 @@
         <v>0.9778396728996904</v>
       </c>
       <c r="C317" t="n">
-        <v>0.9748353362083435</v>
+        <v>0.9679301381111145</v>
       </c>
     </row>
     <row r="318">
@@ -3934,7 +3934,7 @@
         <v>0.979857652396431</v>
       </c>
       <c r="C318" t="n">
-        <v>0.9795786142349243</v>
+        <v>0.9679291248321533</v>
       </c>
     </row>
     <row r="319">
@@ -3945,7 +3945,7 @@
         <v>0.9788656048214656</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9816548824310303</v>
+        <v>0.967307984828949</v>
       </c>
     </row>
     <row r="320">
@@ -3956,7 +3956,7 @@
         <v>0.9866519091416699</v>
       </c>
       <c r="C320" t="n">
-        <v>0.9820013642311096</v>
+        <v>0.9689462780952454</v>
       </c>
     </row>
     <row r="321">
@@ -3967,7 +3967,7 @@
         <v>0.9877945028958113</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9864504337310791</v>
+        <v>0.9712033867835999</v>
       </c>
     </row>
     <row r="322">
@@ -3978,7 +3978,7 @@
         <v>0.988070594015847</v>
       </c>
       <c r="C322" t="n">
-        <v>0.9886031746864319</v>
+        <v>0.9732701182365417</v>
       </c>
     </row>
     <row r="323">
@@ -3989,7 +3989,7 @@
         <v>0.9717298654798199</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9887646436691284</v>
+        <v>0.9720573425292969</v>
       </c>
     </row>
     <row r="324">
@@ -4000,7 +4000,7 @@
         <v>0.9716903740892718</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9822817444801331</v>
+        <v>0.9721702337265015</v>
       </c>
     </row>
     <row r="325">
@@ -4011,7 +4011,7 @@
         <v>0.9715097059751162</v>
       </c>
       <c r="C325" t="n">
-        <v>0.9795681238174438</v>
+        <v>0.9722549319267273</v>
       </c>
     </row>
     <row r="326">
@@ -4022,7 +4022,7 @@
         <v>0.9709305118081497</v>
       </c>
       <c r="C326" t="n">
-        <v>0.9789771437644958</v>
+        <v>0.9715554714202881</v>
       </c>
     </row>
     <row r="327">
@@ -4033,7 +4033,7 @@
         <v>0.9695422866864392</v>
       </c>
       <c r="C327" t="n">
-        <v>0.9788007140159607</v>
+        <v>0.9701212644577026</v>
       </c>
     </row>
     <row r="328">
@@ -4044,7 +4044,7 @@
         <v>0.9789686815783402</v>
       </c>
       <c r="C328" t="n">
-        <v>0.9782640933990479</v>
+        <v>0.9706809520721436</v>
       </c>
     </row>
     <row r="329">
@@ -4055,7 +4055,7 @@
         <v>0.9794416651379115</v>
       </c>
       <c r="C329" t="n">
-        <v>0.9814300537109375</v>
+        <v>0.9696900248527527</v>
       </c>
     </row>
     <row r="330">
@@ -4066,7 +4066,7 @@
         <v>0.9796804094210441</v>
       </c>
       <c r="C330" t="n">
-        <v>0.9821504950523376</v>
+        <v>0.9690258502960205</v>
       </c>
     </row>
     <row r="331">
@@ -4077,7 +4077,7 @@
         <v>0.9797674670431088</v>
       </c>
       <c r="C331" t="n">
-        <v>0.9825440645217896</v>
+        <v>0.9689024090766907</v>
       </c>
     </row>
     <row r="332">
@@ -4088,7 +4088,7 @@
         <v>0.9802498030914741</v>
       </c>
       <c r="C332" t="n">
-        <v>0.9827094674110413</v>
+        <v>0.9701603055000305</v>
       </c>
     </row>
     <row r="333">
@@ -4099,7 +4099,7 @@
         <v>0.9858300546943459</v>
       </c>
       <c r="C333" t="n">
-        <v>0.9833844304084778</v>
+        <v>0.9722082614898682</v>
       </c>
     </row>
     <row r="334">
@@ -4110,7 +4110,7 @@
         <v>0.9860013698157154</v>
       </c>
       <c r="C334" t="n">
-        <v>0.9866489171981812</v>
+        <v>0.9741155505180359</v>
       </c>
     </row>
     <row r="335">
@@ -4121,7 +4121,7 @@
         <v>0.9804300820483862</v>
       </c>
       <c r="C335" t="n">
-        <v>0.9878206849098206</v>
+        <v>0.9742472171783447</v>
       </c>
     </row>
     <row r="336">
@@ -4132,7 +4132,7 @@
         <v>0.9803126569276952</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9854960441589355</v>
+        <v>0.9746837019920349</v>
       </c>
     </row>
     <row r="337">
@@ -4143,7 +4143,7 @@
         <v>0.9801527373685011</v>
       </c>
       <c r="C337" t="n">
-        <v>0.9846956729888916</v>
+        <v>0.9748165607452393</v>
       </c>
     </row>
     <row r="338">
@@ -4154,7 +4154,7 @@
         <v>0.9799486130086137</v>
       </c>
       <c r="C338" t="n">
-        <v>0.9843783378601074</v>
+        <v>0.9749037027359009</v>
       </c>
     </row>
     <row r="339">
@@ -4165,7 +4165,7 @@
         <v>0.9798632906885478</v>
       </c>
       <c r="C339" t="n">
-        <v>0.984410285949707</v>
+        <v>0.9749731421470642</v>
       </c>
     </row>
     <row r="340">
@@ -4176,7 +4176,7 @@
         <v>0.9798295313495656</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9845633506774902</v>
+        <v>0.9747916460037231</v>
       </c>
     </row>
     <row r="341">
@@ -4187,7 +4187,7 @@
         <v>0.9799224335850346</v>
       </c>
       <c r="C341" t="n">
-        <v>0.9843078851699829</v>
+        <v>0.9743032455444336</v>
       </c>
     </row>
     <row r="342">
@@ -4198,7 +4198,7 @@
         <v>0.9799022941408033</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9841377735137939</v>
+        <v>0.9736554026603699</v>
       </c>
     </row>
     <row r="343">
@@ -4209,7 +4209,7 @@
         <v>0.979857940228647</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9840342998504639</v>
+        <v>0.9734641909599304</v>
       </c>
     </row>
     <row r="344">
@@ -4220,7 +4220,7 @@
         <v>0.9797063268146529</v>
       </c>
       <c r="C344" t="n">
-        <v>0.983930766582489</v>
+        <v>0.9733134508132935</v>
       </c>
     </row>
     <row r="345">
@@ -4231,7 +4231,7 @@
         <v>0.9695429435351232</v>
       </c>
       <c r="C345" t="n">
-        <v>0.9833816289901733</v>
+        <v>0.9711650013923645</v>
       </c>
     </row>
     <row r="346">
@@ -4242,7 +4242,7 @@
         <v>0.9617667517429602</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9786756634712219</v>
+        <v>0.9681129455566406</v>
       </c>
     </row>
     <row r="347">
@@ -4253,7 +4253,7 @@
         <v>0.9617166248138811</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9741331934928894</v>
+        <v>0.9661169052124023</v>
       </c>
     </row>
     <row r="348">
@@ -4264,7 +4264,7 @@
         <v>0.9608103172024504</v>
       </c>
       <c r="C348" t="n">
-        <v>0.9721469879150391</v>
+        <v>0.9645197987556458</v>
       </c>
     </row>
     <row r="349">
@@ -4275,7 +4275,7 @@
         <v>0.9599386280250277</v>
       </c>
       <c r="C349" t="n">
-        <v>0.9709222316741943</v>
+        <v>0.9624720811843872</v>
       </c>
     </row>
     <row r="350">
@@ -4286,7 +4286,7 @@
         <v>0.9689046994254279</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9701449871063232</v>
+        <v>0.9623148441314697</v>
       </c>
     </row>
     <row r="351">
@@ -4297,7 +4297,7 @@
         <v>0.9703133218092954</v>
       </c>
       <c r="C351" t="n">
-        <v>0.972818911075592</v>
+        <v>0.9610444903373718</v>
       </c>
     </row>
     <row r="352">
@@ -4308,7 +4308,7 @@
         <v>0.97089655479244</v>
       </c>
       <c r="C352" t="n">
-        <v>0.9738994836807251</v>
+        <v>0.9602712392807007</v>
       </c>
     </row>
     <row r="353">
@@ -4319,7 +4319,7 @@
         <v>0.9599710699951128</v>
       </c>
       <c r="C353" t="n">
-        <v>0.9735145568847656</v>
+        <v>0.9576168060302734</v>
       </c>
     </row>
     <row r="354">
@@ -4330,7 +4330,7 @@
         <v>0.9533440657296997</v>
       </c>
       <c r="C354" t="n">
-        <v>0.9685655832290649</v>
+        <v>0.9555342793464661</v>
       </c>
     </row>
     <row r="355">
@@ -4341,7 +4341,7 @@
         <v>0.953335669530835</v>
       </c>
       <c r="C355" t="n">
-        <v>0.9641255140304565</v>
+        <v>0.9548800587654114</v>
       </c>
     </row>
     <row r="356">
@@ -4352,7 +4352,7 @@
         <v>0.9533532900670461</v>
       </c>
       <c r="C356" t="n">
-        <v>0.9625535011291504</v>
+        <v>0.954416036605835</v>
       </c>
     </row>
     <row r="357">
@@ -4363,7 +4363,7 @@
         <v>0.9530309671440623</v>
       </c>
       <c r="C357" t="n">
-        <v>0.9624180197715759</v>
+        <v>0.9536800980567932</v>
       </c>
     </row>
     <row r="358">
@@ -4374,7 +4374,7 @@
         <v>0.9680238293898649</v>
       </c>
       <c r="C358" t="n">
-        <v>0.9628560543060303</v>
+        <v>0.9555347561836243</v>
       </c>
     </row>
     <row r="359">
@@ -4385,7 +4385,7 @@
         <v>0.9685603841755903</v>
       </c>
       <c r="C359" t="n">
-        <v>0.9692031741142273</v>
+        <v>0.9553619027137756</v>
       </c>
     </row>
     <row r="360">
@@ -4396,7 +4396,7 @@
         <v>0.9597309731444811</v>
       </c>
       <c r="C360" t="n">
-        <v>0.9705613851547241</v>
+        <v>0.9531180858612061</v>
       </c>
     </row>
     <row r="361">
@@ -4407,7 +4407,7 @@
         <v>0.9520701822979017</v>
       </c>
       <c r="C361" t="n">
-        <v>0.966344952583313</v>
+        <v>0.9507026076316833</v>
       </c>
     </row>
     <row r="362">
@@ -4418,7 +4418,7 @@
         <v>0.9527382887283978</v>
       </c>
       <c r="C362" t="n">
-        <v>0.9616147875785828</v>
+        <v>0.950667142868042</v>
       </c>
     </row>
     <row r="363">
@@ -4429,7 +4429,7 @@
         <v>0.9511025185381863</v>
       </c>
       <c r="C363" t="n">
-        <v>0.9602864384651184</v>
+        <v>0.9506730437278748</v>
       </c>
     </row>
     <row r="364">
@@ -4440,7 +4440,7 @@
         <v>0.9515000779608976</v>
       </c>
       <c r="C364" t="n">
-        <v>0.959729790687561</v>
+        <v>0.9507261514663696</v>
       </c>
     </row>
     <row r="365">
@@ -4451,7 +4451,7 @@
         <v>0.9593549265262382</v>
       </c>
       <c r="C365" t="n">
-        <v>0.9604194164276123</v>
+        <v>0.951803982257843</v>
       </c>
     </row>
     <row r="366">
@@ -4462,7 +4462,7 @@
         <v>0.960974965198913</v>
       </c>
       <c r="C366" t="n">
-        <v>0.9634451270103455</v>
+        <v>0.9516471028327942</v>
       </c>
     </row>
     <row r="367">
@@ -4473,7 +4473,7 @@
         <v>0.9617178350456375</v>
       </c>
       <c r="C367" t="n">
-        <v>0.9647367000579834</v>
+        <v>0.9511451125144958</v>
       </c>
     </row>
     <row r="368">
@@ -4484,7 +4484,7 @@
         <v>0.9598943469971878</v>
       </c>
       <c r="C368" t="n">
-        <v>0.9652500152587891</v>
+        <v>0.9504174590110779</v>
       </c>
     </row>
     <row r="369">
@@ -4495,7 +4495,7 @@
         <v>0.9534013732462903</v>
       </c>
       <c r="C369" t="n">
-        <v>0.9641454815864563</v>
+        <v>0.9496555924415588</v>
       </c>
     </row>
     <row r="370">
@@ -4506,7 +4506,7 @@
         <v>0.9613202888748019</v>
       </c>
       <c r="C370" t="n">
-        <v>0.9616706371307373</v>
+        <v>0.9514385461807251</v>
       </c>
     </row>
     <row r="371">
@@ -4517,7 +4517,7 @@
         <v>0.9680349989101935</v>
       </c>
       <c r="C371" t="n">
-        <v>0.964787483215332</v>
+        <v>0.9542728066444397</v>
       </c>
     </row>
     <row r="372">
@@ -4528,7 +4528,7 @@
         <v>0.9607244599239628</v>
       </c>
       <c r="C372" t="n">
-        <v>0.9691449403762817</v>
+        <v>0.9545076489448547</v>
       </c>
     </row>
     <row r="373">
@@ -4539,7 +4539,7 @@
         <v>0.9511914314656399</v>
       </c>
       <c r="C373" t="n">
-        <v>0.9666438102722168</v>
+        <v>0.9524101614952087</v>
       </c>
     </row>
     <row r="374">
@@ -4550,7 +4550,7 @@
         <v>0.9513906770184439</v>
       </c>
       <c r="C374" t="n">
-        <v>0.9618627429008484</v>
+        <v>0.9511535167694092</v>
       </c>
     </row>
     <row r="375">
@@ -4561,7 +4561,7 @@
         <v>0.9511311087585532</v>
       </c>
       <c r="C375" t="n">
-        <v>0.959729790687561</v>
+        <v>0.95046466588974</v>
       </c>
     </row>
     <row r="376">
@@ -4572,7 +4572,7 @@
         <v>0.9507271291708858</v>
       </c>
       <c r="C376" t="n">
-        <v>0.9592201709747314</v>
+        <v>0.9500740766525269</v>
       </c>
     </row>
     <row r="377">
@@ -4583,7 +4583,7 @@
         <v>0.9511393250253706</v>
       </c>
       <c r="C377" t="n">
-        <v>0.9592214226722717</v>
+        <v>0.9494282007217407</v>
       </c>
     </row>
     <row r="378">
@@ -4594,7 +4594,7 @@
         <v>0.9596494487883528</v>
       </c>
       <c r="C378" t="n">
-        <v>0.9594867825508118</v>
+        <v>0.9500328302383423</v>
       </c>
     </row>
     <row r="379">
@@ -4605,7 +4605,7 @@
         <v>0.9598673543902436</v>
       </c>
       <c r="C379" t="n">
-        <v>0.962643027305603</v>
+        <v>0.9498257040977478</v>
       </c>
     </row>
     <row r="380">
@@ -4616,7 +4616,7 @@
         <v>0.9601202098257856</v>
       </c>
       <c r="C380" t="n">
-        <v>0.963727593421936</v>
+        <v>0.949290931224823</v>
       </c>
     </row>
     <row r="381">
@@ -4627,7 +4627,7 @@
         <v>0.9603045072106686</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9639334678649902</v>
+        <v>0.9496533274650574</v>
       </c>
     </row>
     <row r="382">
@@ -4638,7 +4638,7 @@
         <v>0.9612145010981988</v>
       </c>
       <c r="C382" t="n">
-        <v>0.9644220471382141</v>
+        <v>0.9507403969764709</v>
       </c>
     </row>
     <row r="383">
@@ -4649,7 +4649,7 @@
         <v>0.9616091382657582</v>
       </c>
       <c r="C383" t="n">
-        <v>0.9650835394859314</v>
+        <v>0.9521083831787109</v>
       </c>
     </row>
     <row r="384">
@@ -4660,7 +4660,7 @@
         <v>0.9617431501725219</v>
       </c>
       <c r="C384" t="n">
-        <v>0.9655629992485046</v>
+        <v>0.9533776640892029</v>
       </c>
     </row>
     <row r="385">
@@ -4671,7 +4671,7 @@
         <v>0.9619001989815167</v>
       </c>
       <c r="C385" t="n">
-        <v>0.9661529064178467</v>
+        <v>0.9541882276535034</v>
       </c>
     </row>
     <row r="386">
@@ -4682,7 +4682,7 @@
         <v>0.9619965331788378</v>
       </c>
       <c r="C386" t="n">
-        <v>0.9665477275848389</v>
+        <v>0.9548105001449585</v>
       </c>
     </row>
     <row r="387">
@@ -4693,7 +4693,7 @@
         <v>0.962079937328457</v>
       </c>
       <c r="C387" t="n">
-        <v>0.9666512012481689</v>
+        <v>0.9550050497055054</v>
       </c>
     </row>
     <row r="388">
@@ -4704,7 +4704,7 @@
         <v>0.9621703843071736</v>
       </c>
       <c r="C388" t="n">
-        <v>0.9668474197387695</v>
+        <v>0.9551956057548523</v>
       </c>
     </row>
     <row r="389">
@@ -4715,7 +4715,7 @@
         <v>0.9622694878363089</v>
       </c>
       <c r="C389" t="n">
-        <v>0.9669856429100037</v>
+        <v>0.9555850625038147</v>
       </c>
     </row>
     <row r="390">
@@ -4726,7 +4726,7 @@
         <v>0.9596565596293087</v>
       </c>
       <c r="C390" t="n">
-        <v>0.9670115113258362</v>
+        <v>0.9550782442092896</v>
       </c>
     </row>
     <row r="391">
@@ -4737,7 +4737,7 @@
         <v>0.9504264215519431</v>
       </c>
       <c r="C391" t="n">
-        <v>0.9653937220573425</v>
+        <v>0.9529402256011963</v>
       </c>
     </row>
     <row r="392">
@@ -4748,7 +4748,7 @@
         <v>0.9437762383860453</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9609904289245605</v>
+        <v>0.9501492381095886</v>
       </c>
     </row>
     <row r="393">
@@ -4759,7 +4759,7 @@
         <v>0.9434121270053136</v>
       </c>
       <c r="C393" t="n">
-        <v>0.957006573677063</v>
+        <v>0.9484285116195679</v>
       </c>
     </row>
     <row r="394">
@@ -4770,7 +4770,7 @@
         <v>0.9431527706477243</v>
       </c>
       <c r="C394" t="n">
-        <v>0.9551289081573486</v>
+        <v>0.9467649459838867</v>
       </c>
     </row>
     <row r="395">
@@ -4781,7 +4781,7 @@
         <v>0.9439797901341443</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9542718529701233</v>
+        <v>0.9451645612716675</v>
       </c>
     </row>
     <row r="396">
@@ -4792,7 +4792,7 @@
         <v>0.952377896627669</v>
       </c>
       <c r="C396" t="n">
-        <v>0.9541932344436646</v>
+        <v>0.9450902938842773</v>
       </c>
     </row>
     <row r="397">
@@ -4803,7 +4803,7 @@
         <v>0.9588059055885949</v>
       </c>
       <c r="C397" t="n">
-        <v>0.9572666883468628</v>
+        <v>0.9453816413879395</v>
       </c>
     </row>
     <row r="398">
@@ -4814,7 +4814,7 @@
         <v>0.9435431039868681</v>
       </c>
       <c r="C398" t="n">
-        <v>0.9600786566734314</v>
+        <v>0.941992461681366</v>
       </c>
     </row>
     <row r="399">
@@ -4825,7 +4825,7 @@
         <v>0.9422549559682236</v>
       </c>
       <c r="C399" t="n">
-        <v>0.954538106918335</v>
+        <v>0.9403934478759766</v>
       </c>
     </row>
     <row r="400">
@@ -4836,7 +4836,7 @@
         <v>0.9432699371827552</v>
       </c>
       <c r="C400" t="n">
-        <v>0.9512497782707214</v>
+        <v>0.9401801228523254</v>
       </c>
     </row>
     <row r="401">
@@ -4847,7 +4847,7 @@
         <v>0.942662514698307</v>
       </c>
       <c r="C401" t="n">
-        <v>0.9506933689117432</v>
+        <v>0.9405570030212402</v>
       </c>
     </row>
     <row r="402">
@@ -4858,7 +4858,7 @@
         <v>0.9419270531899342</v>
       </c>
       <c r="C402" t="n">
-        <v>0.9506551027297974</v>
+        <v>0.9407424926757812</v>
       </c>
     </row>
     <row r="403">
@@ -4869,7 +4869,7 @@
         <v>0.9503787812852503</v>
       </c>
       <c r="C403" t="n">
-        <v>0.9511079788208008</v>
+        <v>0.9418324828147888</v>
       </c>
     </row>
     <row r="404">
@@ -4880,7 +4880,7 @@
         <v>0.9516508887787698</v>
       </c>
       <c r="C404" t="n">
-        <v>0.9544686079025269</v>
+        <v>0.9418511986732483</v>
       </c>
     </row>
     <row r="405">
@@ -4891,7 +4891,7 @@
         <v>0.9523466555777844</v>
       </c>
       <c r="C405" t="n">
-        <v>0.9558517336845398</v>
+        <v>0.9417510628700256</v>
       </c>
     </row>
     <row r="406">
@@ -4902,7 +4902,7 @@
         <v>0.9423649595751754</v>
       </c>
       <c r="C406" t="n">
-        <v>0.9560528993606567</v>
+        <v>0.9396322965621948</v>
       </c>
     </row>
     <row r="407">
@@ -4913,7 +4913,7 @@
         <v>0.9423651438156987</v>
       </c>
       <c r="C407" t="n">
-        <v>0.9520331025123596</v>
+        <v>0.9396021962165833</v>
       </c>
     </row>
     <row r="408">
@@ -4924,7 +4924,7 @@
         <v>0.942227855235869</v>
       </c>
       <c r="C408" t="n">
-        <v>0.9503468871116638</v>
+        <v>0.9397245645523071</v>
       </c>
     </row>
     <row r="409">
@@ -4935,7 +4935,7 @@
         <v>0.9420938494115058</v>
       </c>
       <c r="C409" t="n">
-        <v>0.9501171708106995</v>
+        <v>0.9401132464408875</v>
       </c>
     </row>
     <row r="410">
@@ -4946,7 +4946,7 @@
         <v>0.9416884859501462</v>
       </c>
       <c r="C410" t="n">
-        <v>0.9502086639404297</v>
+        <v>0.9397456049919128</v>
       </c>
     </row>
     <row r="411">
@@ -4957,7 +4957,7 @@
         <v>0.9508405867131107</v>
       </c>
       <c r="C411" t="n">
-        <v>0.9503862261772156</v>
+        <v>0.9408977031707764</v>
       </c>
     </row>
     <row r="412">
@@ -4968,7 +4968,7 @@
         <v>0.9441162809216018</v>
       </c>
       <c r="C412" t="n">
-        <v>0.9537816047668457</v>
+        <v>0.9394861459732056</v>
       </c>
     </row>
     <row r="413">
@@ -4979,7 +4979,7 @@
         <v>0.9504961317277208</v>
       </c>
       <c r="C413" t="n">
-        <v>0.9522219300270081</v>
+        <v>0.9399406909942627</v>
       </c>
     </row>
     <row r="414">
@@ -4990,7 +4990,7 @@
         <v>0.9440994190263661</v>
       </c>
       <c r="C414" t="n">
-        <v>0.9537805318832397</v>
+        <v>0.9389404654502869</v>
       </c>
     </row>
     <row r="415">
@@ -5001,7 +5001,7 @@
         <v>0.9426187763421527</v>
       </c>
       <c r="C415" t="n">
-        <v>0.95177161693573</v>
+        <v>0.9388213753700256</v>
       </c>
     </row>
     <row r="416">
@@ -5012,7 +5012,7 @@
         <v>0.9420493569233486</v>
       </c>
       <c r="C416" t="n">
-        <v>0.9503456950187683</v>
+        <v>0.9388914108276367</v>
       </c>
     </row>
     <row r="417">
@@ -5023,7 +5023,7 @@
         <v>0.9420317053987232</v>
       </c>
       <c r="C417" t="n">
-        <v>0.9497570991516113</v>
+        <v>0.9389976859092712</v>
       </c>
     </row>
     <row r="418">
@@ -5034,7 +5034,7 @@
         <v>0.9419999029628291</v>
       </c>
       <c r="C418" t="n">
-        <v>0.9496188759803772</v>
+        <v>0.9389126300811768</v>
       </c>
     </row>
     <row r="419">
@@ -5045,7 +5045,7 @@
         <v>0.9416880391454315</v>
       </c>
       <c r="C419" t="n">
-        <v>0.9495154023170471</v>
+        <v>0.9383518099784851</v>
       </c>
     </row>
     <row r="420">
@@ -5056,7 +5056,7 @@
         <v>0.9349651279814342</v>
       </c>
       <c r="C420" t="n">
-        <v>0.9488296508789062</v>
+        <v>0.9362418055534363</v>
       </c>
     </row>
     <row r="421">
@@ -5067,7 +5067,7 @@
         <v>0.9439302559946233</v>
       </c>
       <c r="C421" t="n">
-        <v>0.9463087320327759</v>
+        <v>0.9368054270744324</v>
       </c>
     </row>
     <row r="422">
@@ -5078,7 +5078,7 @@
         <v>0.9504079655660618</v>
       </c>
       <c r="C422" t="n">
-        <v>0.9491036534309387</v>
+        <v>0.938054084777832</v>
       </c>
     </row>
     <row r="423">
@@ -5089,7 +5089,7 @@
         <v>0.9508314518875227</v>
       </c>
       <c r="C423" t="n">
-        <v>0.953436553478241</v>
+        <v>0.9389447569847107</v>
       </c>
     </row>
     <row r="424">
@@ -5100,7 +5100,7 @@
         <v>0.9511605500206062</v>
       </c>
       <c r="C424" t="n">
-        <v>0.9549488425254822</v>
+        <v>0.9395617246627808</v>
       </c>
     </row>
     <row r="425">
@@ -5111,7 +5111,7 @@
         <v>0.9513156396012031</v>
       </c>
       <c r="C425" t="n">
-        <v>0.9553248286247253</v>
+        <v>0.9405521154403687</v>
       </c>
     </row>
     <row r="426">
@@ -5122,7 +5122,7 @@
         <v>0.9514946986582078</v>
       </c>
       <c r="C426" t="n">
-        <v>0.955777645111084</v>
+        <v>0.9414470195770264</v>
       </c>
     </row>
     <row r="427">
@@ -5133,7 +5133,7 @@
         <v>0.9516451536751669</v>
       </c>
       <c r="C427" t="n">
-        <v>0.9561218023300171</v>
+        <v>0.9428011178970337</v>
       </c>
     </row>
     <row r="428">
@@ -5144,7 +5144,7 @@
         <v>0.9435825504425752</v>
       </c>
       <c r="C428" t="n">
-        <v>0.9561907649040222</v>
+        <v>0.9425222277641296</v>
       </c>
     </row>
     <row r="429">
@@ -5155,7 +5155,7 @@
         <v>0.9504660682156484</v>
       </c>
       <c r="C429" t="n">
-        <v>0.9538082480430603</v>
+        <v>0.9439284801483154</v>
       </c>
     </row>
     <row r="430">
@@ -5166,7 +5166,7 @@
         <v>0.9512776687621711</v>
       </c>
       <c r="C430" t="n">
-        <v>0.9554320573806763</v>
+        <v>0.9447948932647705</v>
       </c>
     </row>
     <row r="431">
@@ -5177,7 +5177,7 @@
         <v>0.9516840707170523</v>
       </c>
       <c r="C431" t="n">
-        <v>0.9566411375999451</v>
+        <v>0.9449023604393005</v>
       </c>
     </row>
     <row r="432">
@@ -5188,7 +5188,7 @@
         <v>0.9438718891333544</v>
       </c>
       <c r="C432" t="n">
-        <v>0.9566890597343445</v>
+        <v>0.9432166218757629</v>
       </c>
     </row>
     <row r="433">
@@ -5199,7 +5199,7 @@
         <v>0.9499213553089387</v>
       </c>
       <c r="C433" t="n">
-        <v>0.9539425373077393</v>
+        <v>0.9436159729957581</v>
       </c>
     </row>
     <row r="434">
@@ -5210,7 +5210,7 @@
         <v>0.9499601060066794</v>
       </c>
       <c r="C434" t="n">
-        <v>0.9550843238830566</v>
+        <v>0.9433884620666504</v>
       </c>
     </row>
     <row r="435">
@@ -5221,7 +5221,7 @@
         <v>0.9507052534071017</v>
       </c>
       <c r="C435" t="n">
-        <v>0.9556440711021423</v>
+        <v>0.943848192691803</v>
       </c>
     </row>
     <row r="436">
@@ -5232,7 +5232,7 @@
         <v>0.9503350182810433</v>
       </c>
       <c r="C436" t="n">
-        <v>0.9561512470245361</v>
+        <v>0.9439247846603394</v>
       </c>
     </row>
     <row r="437">
@@ -5243,7 +5243,7 @@
         <v>0.9526821403049862</v>
       </c>
       <c r="C437" t="n">
-        <v>0.9564139246940613</v>
+        <v>0.9444599151611328</v>
       </c>
     </row>
     <row r="438">
@@ -5254,7 +5254,7 @@
         <v>0.9585843980321128</v>
       </c>
       <c r="C438" t="n">
-        <v>0.9576377868652344</v>
+        <v>0.9457130432128906</v>
       </c>
     </row>
     <row r="439">
@@ -5265,7 +5265,7 @@
         <v>0.9513135519788337</v>
       </c>
       <c r="C439" t="n">
-        <v>0.9605334997177124</v>
+        <v>0.9454993009567261</v>
       </c>
     </row>
     <row r="440">
@@ -5276,7 +5276,7 @@
         <v>0.9441267784819692</v>
       </c>
       <c r="C440" t="n">
-        <v>0.9580349326133728</v>
+        <v>0.9439387321472168</v>
       </c>
     </row>
     <row r="441">
@@ -5287,7 +5287,7 @@
         <v>0.9499369865267449</v>
       </c>
       <c r="C441" t="n">
-        <v>0.9546357989311218</v>
+        <v>0.9449378848075867</v>
       </c>
     </row>
     <row r="442">
@@ -5298,7 +5298,7 @@
         <v>0.9500563486835816</v>
       </c>
       <c r="C442" t="n">
-        <v>0.9554603695869446</v>
+        <v>0.9451417326927185</v>
       </c>
     </row>
     <row r="443">
@@ -5309,7 +5309,7 @@
         <v>0.944116575293136</v>
       </c>
       <c r="C443" t="n">
-        <v>0.9558919072151184</v>
+        <v>0.9440616965293884</v>
       </c>
     </row>
     <row r="444">
@@ -5320,7 +5320,7 @@
         <v>0.9516962164478194</v>
       </c>
       <c r="C444" t="n">
-        <v>0.9542179107666016</v>
+        <v>0.9447603821754456</v>
       </c>
     </row>
     <row r="445">
@@ -5331,7 +5331,7 @@
         <v>0.9522510577241396</v>
       </c>
       <c r="C445" t="n">
-        <v>0.9565474390983582</v>
+        <v>0.9448710680007935</v>
       </c>
     </row>
     <row r="446">
@@ -5342,7 +5342,7 @@
         <v>0.9441192061963809</v>
       </c>
       <c r="C446" t="n">
-        <v>0.9568545818328857</v>
+        <v>0.9426760673522949</v>
       </c>
     </row>
     <row r="447">
@@ -5353,7 +5353,7 @@
         <v>0.9426631560600027</v>
       </c>
       <c r="C447" t="n">
-        <v>0.9533910155296326</v>
+        <v>0.9414637088775635</v>
       </c>
     </row>
     <row r="448">
@@ -5364,7 +5364,7 @@
         <v>0.943096477296764</v>
       </c>
       <c r="C448" t="n">
-        <v>0.9514174461364746</v>
+        <v>0.9409661293029785</v>
       </c>
     </row>
     <row r="449">
@@ -5375,7 +5375,7 @@
         <v>0.9428483312730956</v>
       </c>
       <c r="C449" t="n">
-        <v>0.9510414004325867</v>
+        <v>0.9405661225318909</v>
       </c>
     </row>
     <row r="450">
@@ -5386,7 +5386,7 @@
         <v>0.9418209761017076</v>
       </c>
       <c r="C450" t="n">
-        <v>0.9505834579467773</v>
+        <v>0.9400530457496643</v>
       </c>
     </row>
     <row r="451">
@@ -5397,7 +5397,7 @@
         <v>0.9503628550918881</v>
       </c>
       <c r="C451" t="n">
-        <v>0.9505180716514587</v>
+        <v>0.9409366846084595</v>
       </c>
     </row>
     <row r="452">
@@ -5408,7 +5408,7 @@
         <v>0.9506438103863448</v>
       </c>
       <c r="C452" t="n">
-        <v>0.9540087580680847</v>
+        <v>0.9412617683410645</v>
       </c>
     </row>
     <row r="453">
@@ -5419,7 +5419,7 @@
         <v>0.9423477177472973</v>
       </c>
       <c r="C453" t="n">
-        <v>0.9546327590942383</v>
+        <v>0.9394245147705078</v>
       </c>
     </row>
     <row r="454">
@@ -5430,7 +5430,7 @@
         <v>0.9415960715745226</v>
       </c>
       <c r="C454" t="n">
-        <v>0.9512323141098022</v>
+        <v>0.9385929703712463</v>
       </c>
     </row>
     <row r="455">
@@ -5441,7 +5441,7 @@
         <v>0.9421181777330199</v>
       </c>
       <c r="C455" t="n">
-        <v>0.9495882391929626</v>
+        <v>0.938301146030426</v>
       </c>
     </row>
     <row r="456">
@@ -5452,7 +5452,7 @@
         <v>0.9419762580563547</v>
       </c>
       <c r="C456" t="n">
-        <v>0.949484646320343</v>
+        <v>0.9387155175209045</v>
       </c>
     </row>
     <row r="457">
@@ -5463,7 +5463,7 @@
         <v>0.94253424347674</v>
       </c>
       <c r="C457" t="n">
-        <v>0.9495893120765686</v>
+        <v>0.9389061331748962</v>
       </c>
     </row>
     <row r="458">
@@ -5474,7 +5474,7 @@
         <v>0.9496358370868567</v>
       </c>
       <c r="C458" t="n">
-        <v>0.9502791166305542</v>
+        <v>0.9399726986885071</v>
       </c>
     </row>
     <row r="459">
@@ -5485,7 +5485,7 @@
         <v>0.950210612827566</v>
       </c>
       <c r="C459" t="n">
-        <v>0.9534991979598999</v>
+        <v>0.9404918551445007</v>
       </c>
     </row>
     <row r="460">
@@ -5496,7 +5496,7 @@
         <v>0.9504842923940769</v>
       </c>
       <c r="C460" t="n">
-        <v>0.9544933438301086</v>
+        <v>0.9405621290206909</v>
       </c>
     </row>
     <row r="461">
@@ -5507,7 +5507,7 @@
         <v>0.9506366973033167</v>
       </c>
       <c r="C461" t="n">
-        <v>0.9550830721855164</v>
+        <v>0.9406212568283081</v>
       </c>
     </row>
     <row r="462">
@@ -5518,7 +5518,7 @@
         <v>0.9507370102942614</v>
       </c>
       <c r="C462" t="n">
-        <v>0.9553208947181702</v>
+        <v>0.9417558908462524</v>
       </c>
     </row>
     <row r="463">
@@ -5529,7 +5529,7 @@
         <v>0.9509283812921487</v>
       </c>
       <c r="C463" t="n">
-        <v>0.9557763934135437</v>
+        <v>0.9427627325057983</v>
       </c>
     </row>
     <row r="464">
@@ -5540,7 +5540,7 @@
         <v>0.9514326081736989</v>
       </c>
       <c r="C464" t="n">
-        <v>0.9561218023300171</v>
+        <v>0.9440101981163025</v>
       </c>
     </row>
     <row r="465">
@@ -5551,7 +5551,7 @@
         <v>0.95168372583404</v>
       </c>
       <c r="C465" t="n">
-        <v>0.9567434191703796</v>
+        <v>0.9446650743484497</v>
       </c>
     </row>
     <row r="466">
@@ -5562,7 +5562,7 @@
         <v>0.9517493689897873</v>
       </c>
       <c r="C466" t="n">
-        <v>0.956982433795929</v>
+        <v>0.9453557133674622</v>
       </c>
     </row>
     <row r="467">
@@ -5573,7 +5573,7 @@
         <v>0.9518221519584784</v>
       </c>
       <c r="C467" t="n">
-        <v>0.9572725296020508</v>
+        <v>0.945380687713623</v>
       </c>
     </row>
     <row r="468">
@@ -5584,7 +5584,7 @@
         <v>0.9518250284169956</v>
       </c>
       <c r="C468" t="n">
-        <v>0.9574368000030518</v>
+        <v>0.9454694390296936</v>
       </c>
     </row>
     <row r="469">
@@ -5595,7 +5595,7 @@
         <v>0.9518019729373095</v>
       </c>
       <c r="C469" t="n">
-        <v>0.9574686884880066</v>
+        <v>0.945629894733429</v>
       </c>
     </row>
     <row r="470">
@@ -5606,7 +5606,7 @@
         <v>0.9516727130003878</v>
       </c>
       <c r="C470" t="n">
-        <v>0.9575403332710266</v>
+        <v>0.9456703066825867</v>
       </c>
     </row>
     <row r="471">
@@ -5617,7 +5617,7 @@
         <v>0.9516700756985222</v>
       </c>
       <c r="C471" t="n">
-        <v>0.9575403332710266</v>
+        <v>0.9459230899810791</v>
       </c>
     </row>
     <row r="472">
@@ -5628,7 +5628,7 @@
         <v>0.95168684594853</v>
       </c>
       <c r="C472" t="n">
-        <v>0.9575403332710266</v>
+        <v>0.9459349513053894</v>
       </c>
     </row>
     <row r="473">
@@ -5639,7 +5639,7 @@
         <v>0.9516962536398613</v>
       </c>
       <c r="C473" t="n">
-        <v>0.9575403332710266</v>
+        <v>0.9459404945373535</v>
       </c>
     </row>
     <row r="474">
@@ -5650,7 +5650,7 @@
         <v>0.9512164547693189</v>
       </c>
       <c r="C474" t="n">
-        <v>0.9575390815734863</v>
+        <v>0.9459353685379028</v>
       </c>
     </row>
     <row r="475">
@@ -5661,7 +5661,7 @@
         <v>0.9505626095755169</v>
       </c>
       <c r="C475" t="n">
-        <v>0.9573020935058594</v>
+        <v>0.9456132650375366</v>
       </c>
     </row>
     <row r="476">
@@ -5672,7 +5672,7 @@
         <v>0.9520985710329789</v>
       </c>
       <c r="C476" t="n">
-        <v>0.9568800330162048</v>
+        <v>0.9457343816757202</v>
       </c>
     </row>
     <row r="477">
@@ -5683,7 +5683,7 @@
         <v>0.9529274873962839</v>
       </c>
       <c r="C477" t="n">
-        <v>0.9575439095497131</v>
+        <v>0.9459600448608398</v>
       </c>
     </row>
     <row r="478">
@@ -5694,7 +5694,7 @@
         <v>0.9530652455677067</v>
       </c>
       <c r="C478" t="n">
-        <v>0.9582042098045349</v>
+        <v>0.9463034272193909</v>
       </c>
     </row>
     <row r="479">
@@ -5705,7 +5705,7 @@
         <v>0.9437296654893014</v>
       </c>
       <c r="C479" t="n">
-        <v>0.9578510522842407</v>
+        <v>0.9444464445114136</v>
       </c>
     </row>
     <row r="480">
@@ -5716,7 +5716,7 @@
         <v>0.9438620816681839</v>
       </c>
       <c r="C480" t="n">
-        <v>0.9541902542114258</v>
+        <v>0.9435245990753174</v>
       </c>
     </row>
     <row r="481">
@@ -5727,7 +5727,7 @@
         <v>0.9440676756562881</v>
       </c>
       <c r="C481" t="n">
-        <v>0.9526103734970093</v>
+        <v>0.9426594376564026</v>
       </c>
     </row>
     <row r="482">
@@ -5738,7 +5738,7 @@
         <v>0.9437483687756105</v>
       </c>
       <c r="C482" t="n">
-        <v>0.9521119594573975</v>
+        <v>0.9424240589141846</v>
       </c>
     </row>
     <row r="483">
@@ -5749,7 +5749,7 @@
         <v>0.9424387039993732</v>
       </c>
       <c r="C483" t="n">
-        <v>0.9518678784370422</v>
+        <v>0.9414104819297791</v>
       </c>
     </row>
     <row r="484">
@@ -5760,7 +5760,7 @@
         <v>0.9504252169075755</v>
       </c>
       <c r="C484" t="n">
-        <v>0.9515333771705627</v>
+        <v>0.9418522715568542</v>
       </c>
     </row>
     <row r="485">
@@ -5771,7 +5771,7 @@
         <v>0.950738785668632</v>
       </c>
       <c r="C485" t="n">
-        <v>0.954434335231781</v>
+        <v>0.9415909647941589</v>
       </c>
     </row>
     <row r="486">
@@ -5782,7 +5782,7 @@
         <v>0.9498842229302853</v>
       </c>
       <c r="C486" t="n">
-        <v>0.9553223848342896</v>
+        <v>0.9412752985954285</v>
       </c>
     </row>
     <row r="487">
@@ -5793,7 +5793,7 @@
         <v>0.9416322678084901</v>
       </c>
       <c r="C487" t="n">
-        <v>0.9546622633934021</v>
+        <v>0.9395995736122131</v>
       </c>
     </row>
     <row r="488">
@@ -5804,7 +5804,7 @@
         <v>0.94216466030937</v>
       </c>
       <c r="C488" t="n">
-        <v>0.9512027502059937</v>
+        <v>0.9393932819366455</v>
       </c>
     </row>
     <row r="489">
@@ -5815,7 +5815,7 @@
         <v>0.9420385954701168</v>
       </c>
       <c r="C489" t="n">
-        <v>0.949892520904541</v>
+        <v>0.9395262002944946</v>
       </c>
     </row>
     <row r="490">
@@ -5826,7 +5826,7 @@
         <v>0.9421919656733703</v>
       </c>
       <c r="C490" t="n">
-        <v>0.9498286843299866</v>
+        <v>0.9397093057632446</v>
       </c>
     </row>
     <row r="491">
@@ -5837,7 +5837,7 @@
         <v>0.9414893751366189</v>
       </c>
       <c r="C491" t="n">
-        <v>0.9498583078384399</v>
+        <v>0.9393914937973022</v>
       </c>
     </row>
     <row r="492">
@@ -5848,7 +5848,7 @@
         <v>0.9440644923688338</v>
       </c>
       <c r="C492" t="n">
-        <v>0.9496965408325195</v>
+        <v>0.9391688704490662</v>
       </c>
     </row>
     <row r="493">
@@ -5859,7 +5859,7 @@
         <v>0.9498980249107032</v>
       </c>
       <c r="C493" t="n">
-        <v>0.9505776166915894</v>
+        <v>0.939368724822998</v>
       </c>
     </row>
     <row r="494">
@@ -5870,7 +5870,7 @@
         <v>0.9418005573208292</v>
       </c>
       <c r="C494" t="n">
-        <v>0.9529759883880615</v>
+        <v>0.9380780458450317</v>
       </c>
     </row>
     <row r="495">
@@ -5881,7 +5881,7 @@
         <v>0.9350501160911376</v>
       </c>
       <c r="C495" t="n">
-        <v>0.9500802755355835</v>
+        <v>0.936061680316925</v>
       </c>
     </row>
     <row r="496">
@@ -5892,7 +5892,7 @@
         <v>0.9409978871821529</v>
       </c>
       <c r="C496" t="n">
-        <v>0.9465010762214661</v>
+        <v>0.9365248084068298</v>
       </c>
     </row>
     <row r="497">
@@ -5903,7 +5903,7 @@
         <v>0.9349631011586214</v>
       </c>
       <c r="C497" t="n">
-        <v>0.9470619559288025</v>
+        <v>0.935502290725708</v>
       </c>
     </row>
     <row r="498">
@@ -5914,7 +5914,7 @@
         <v>0.9349231273585153</v>
       </c>
       <c r="C498" t="n">
-        <v>0.9452279210090637</v>
+        <v>0.9348564743995667</v>
       </c>
     </row>
     <row r="499">
@@ -5925,7 +5925,7 @@
         <v>0.9412815865538274</v>
       </c>
       <c r="C499" t="n">
-        <v>0.9448161125183105</v>
+        <v>0.935432493686676</v>
       </c>
     </row>
     <row r="500">
@@ -5936,7 +5936,7 @@
         <v>0.9427084238146591</v>
       </c>
       <c r="C500" t="n">
-        <v>0.9472122192382812</v>
+        <v>0.9353188872337341</v>
       </c>
     </row>
     <row r="501">
@@ -5947,7 +5947,7 @@
         <v>0.9430824378318188</v>
       </c>
       <c r="C501" t="n">
-        <v>0.9483067393302917</v>
+        <v>0.9349350333213806</v>
       </c>
     </row>
     <row r="502">
@@ -5958,7 +5958,7 @@
         <v>0.9341723284048742</v>
       </c>
       <c r="C502" t="n">
-        <v>0.9482055306434631</v>
+        <v>0.9328753352165222</v>
       </c>
     </row>
     <row r="503">
@@ -5969,7 +5969,7 @@
         <v>0.933409628686635</v>
       </c>
       <c r="C503" t="n">
-        <v>0.944575309753418</v>
+        <v>0.9319730997085571</v>
       </c>
     </row>
     <row r="504">
@@ -5980,7 +5980,7 @@
         <v>0.9335885179597952</v>
       </c>
       <c r="C504" t="n">
-        <v>0.942717969417572</v>
+        <v>0.9318807721138</v>
       </c>
     </row>
     <row r="505">
@@ -5991,7 +5991,7 @@
         <v>0.9337699994553169</v>
       </c>
       <c r="C505" t="n">
-        <v>0.9422923922538757</v>
+        <v>0.9316417574882507</v>
       </c>
     </row>
     <row r="506">
@@ -6002,7 +6002,7 @@
         <v>0.9330216425958339</v>
       </c>
       <c r="C506" t="n">
-        <v>0.9423218965530396</v>
+        <v>0.9313004612922668</v>
       </c>
     </row>
     <row r="507">
@@ -6013,7 +6013,7 @@
         <v>0.9409085378200266</v>
       </c>
       <c r="C507" t="n">
-        <v>0.9424761533737183</v>
+        <v>0.9322575330734253</v>
       </c>
     </row>
     <row r="508">
@@ -6024,7 +6024,7 @@
         <v>0.9413844553227658</v>
       </c>
       <c r="C508" t="n">
-        <v>0.9454704523086548</v>
+        <v>0.9323690533638</v>
       </c>
     </row>
     <row r="509">
@@ -6035,7 +6035,7 @@
         <v>0.9416250091914168</v>
       </c>
       <c r="C509" t="n">
-        <v>0.9466770887374878</v>
+        <v>0.9318721294403076</v>
       </c>
     </row>
     <row r="510">
@@ -6046,7 +6046,7 @@
         <v>0.9417822093615301</v>
       </c>
       <c r="C510" t="n">
-        <v>0.9469483494758606</v>
+        <v>0.9323060512542725</v>
       </c>
     </row>
     <row r="511">
@@ -6057,7 +6057,7 @@
         <v>0.9418767887407624</v>
       </c>
       <c r="C511" t="n">
-        <v>0.9473085999488831</v>
+        <v>0.9332081079483032</v>
       </c>
     </row>
     <row r="512">
@@ -6068,7 +6068,7 @@
         <v>0.9419988342289214</v>
       </c>
       <c r="C512" t="n">
-        <v>0.9476417899131775</v>
+        <v>0.9343565106391907</v>
       </c>
     </row>
     <row r="513">
@@ -6079,7 +6079,7 @@
         <v>0.9422846685947894</v>
       </c>
       <c r="C513" t="n">
-        <v>0.9480018615722656</v>
+        <v>0.9352114796638489</v>
       </c>
     </row>
     <row r="514">
@@ -6090,7 +6090,7 @@
         <v>0.9422841143928474</v>
       </c>
       <c r="C514" t="n">
-        <v>0.9483669400215149</v>
+        <v>0.9358621835708618</v>
       </c>
     </row>
     <row r="515">
@@ -6101,7 +6101,7 @@
         <v>0.9422037050697044</v>
       </c>
       <c r="C515" t="n">
-        <v>0.9486889243125916</v>
+        <v>0.936414897441864</v>
       </c>
     </row>
     <row r="516">
@@ -6112,7 +6112,7 @@
         <v>0.9421550532810467</v>
       </c>
       <c r="C516" t="n">
-        <v>0.9487605094909668</v>
+        <v>0.9365581274032593</v>
       </c>
     </row>
     <row r="517">
@@ -6123,7 +6123,7 @@
         <v>0.9420724019688889</v>
       </c>
       <c r="C517" t="n">
-        <v>0.9487594366073608</v>
+        <v>0.9368342757225037</v>
       </c>
     </row>
     <row r="518">
@@ -6134,7 +6134,7 @@
         <v>0.9419272816844858</v>
       </c>
       <c r="C518" t="n">
-        <v>0.9487594366073608</v>
+        <v>0.9368196129798889</v>
       </c>
     </row>
     <row r="519">
@@ -6145,7 +6145,7 @@
         <v>0.9418539551739304</v>
       </c>
       <c r="C519" t="n">
-        <v>0.9486877918243408</v>
+        <v>0.9368159770965576</v>
       </c>
     </row>
     <row r="520">
@@ -6156,7 +6156,7 @@
         <v>0.941821117399802</v>
       </c>
       <c r="C520" t="n">
-        <v>0.9486530423164368</v>
+        <v>0.9368243813514709</v>
       </c>
     </row>
     <row r="521">
@@ -6167,7 +6167,7 @@
         <v>0.9418085747742044</v>
       </c>
       <c r="C521" t="n">
-        <v>0.9484680891036987</v>
+        <v>0.936820387840271</v>
       </c>
     </row>
     <row r="522">
@@ -6178,7 +6178,7 @@
         <v>0.9417337018368982</v>
       </c>
       <c r="C522" t="n">
-        <v>0.9484680891036987</v>
+        <v>0.9363933205604553</v>
       </c>
     </row>
     <row r="523">
@@ -6189,7 +6189,7 @@
         <v>0.9417954212031069</v>
       </c>
       <c r="C523" t="n">
-        <v>0.948397696018219</v>
+        <v>0.9363998770713806</v>
       </c>
     </row>
     <row r="524">
@@ -6200,7 +6200,7 @@
         <v>0.9417191682779842</v>
       </c>
       <c r="C524" t="n">
-        <v>0.9483965039253235</v>
+        <v>0.9363982081413269</v>
       </c>
     </row>
     <row r="525">
@@ -6211,7 +6211,7 @@
         <v>0.9410878977190045</v>
       </c>
       <c r="C525" t="n">
-        <v>0.9483026266098022</v>
+        <v>0.9361764788627625</v>
       </c>
     </row>
     <row r="526">
@@ -6222,7 +6222,7 @@
         <v>0.9421647518881096</v>
       </c>
       <c r="C526" t="n">
-        <v>0.9480991959571838</v>
+        <v>0.9363866448402405</v>
       </c>
     </row>
     <row r="527">
@@ -6233,7 +6233,7 @@
         <v>0.9427615585688279</v>
       </c>
       <c r="C527" t="n">
-        <v>0.94847172498703</v>
+        <v>0.9365578889846802</v>
       </c>
     </row>
     <row r="528">
@@ -6244,7 +6244,7 @@
         <v>0.9428094909556507</v>
       </c>
       <c r="C528" t="n">
-        <v>0.9489688873291016</v>
+        <v>0.9365453124046326</v>
       </c>
     </row>
     <row r="529">
@@ -6255,7 +6255,7 @@
         <v>0.9336896600985467</v>
       </c>
       <c r="C529" t="n">
-        <v>0.9485086798667908</v>
+        <v>0.9346483945846558</v>
       </c>
     </row>
     <row r="530">
@@ -6266,7 +6266,7 @@
         <v>0.9329316776914328</v>
       </c>
       <c r="C530" t="n">
-        <v>0.9449392557144165</v>
+        <v>0.9336922764778137</v>
       </c>
     </row>
     <row r="531">
@@ -6277,7 +6277,7 @@
         <v>0.9322822522363886</v>
       </c>
       <c r="C531" t="n">
-        <v>0.9429520964622498</v>
+        <v>0.9327879548072815</v>
       </c>
     </row>
     <row r="532">
@@ -6288,7 +6288,7 @@
         <v>0.932213548844911</v>
       </c>
       <c r="C532" t="n">
-        <v>0.9420529007911682</v>
+        <v>0.9321997165679932</v>
       </c>
     </row>
     <row r="533">
@@ -6299,7 +6299,7 @@
         <v>0.9343821768850535</v>
       </c>
       <c r="C533" t="n">
-        <v>0.9418593645095825</v>
+        <v>0.9315410256385803</v>
       </c>
     </row>
     <row r="534">
@@ -6310,7 +6310,7 @@
         <v>0.9407483993483674</v>
       </c>
       <c r="C534" t="n">
-        <v>0.9428156018257141</v>
+        <v>0.9319528341293335</v>
       </c>
     </row>
     <row r="535">
@@ -6321,7 +6321,7 @@
         <v>0.9340710062316998</v>
       </c>
       <c r="C535" t="n">
-        <v>0.9451003074645996</v>
+        <v>0.9304206967353821</v>
       </c>
     </row>
     <row r="536">
@@ -6332,7 +6332,7 @@
         <v>0.9247525429108735</v>
       </c>
       <c r="C536" t="n">
-        <v>0.9422898292541504</v>
+        <v>0.9276148080825806</v>
       </c>
     </row>
     <row r="537">
@@ -6343,7 +6343,7 @@
         <v>0.9238703069059089</v>
       </c>
       <c r="C537" t="n">
-        <v>0.9376363754272461</v>
+        <v>0.9258624315261841</v>
       </c>
     </row>
     <row r="538">
@@ -6354,7 +6354,7 @@
         <v>0.9328122548985193</v>
       </c>
       <c r="C538" t="n">
-        <v>0.9358920454978943</v>
+        <v>0.9273413419723511</v>
       </c>
     </row>
     <row r="539">
@@ -6365,7 +6365,7 @@
         <v>0.9332933190229045</v>
       </c>
       <c r="C539" t="n">
-        <v>0.9389817714691162</v>
+        <v>0.9276769757270813</v>
       </c>
     </row>
     <row r="540">
@@ -6376,7 +6376,7 @@
         <v>0.9252656674454611</v>
       </c>
       <c r="C540" t="n">
-        <v>0.9399944543838501</v>
+        <v>0.9260537624359131</v>
       </c>
     </row>
     <row r="541">
@@ -6387,7 +6387,7 @@
         <v>0.9166189841376701</v>
       </c>
       <c r="C541" t="n">
-        <v>0.93638676404953</v>
+        <v>0.9224995970726013</v>
       </c>
     </row>
     <row r="542">
@@ -6398,7 +6398,7 @@
         <v>0.923463910375168</v>
       </c>
       <c r="C542" t="n">
-        <v>0.93179851770401</v>
+        <v>0.9217061400413513</v>
       </c>
     </row>
     <row r="543">
@@ -6409,7 +6409,7 @@
         <v>0.9232559927776004</v>
       </c>
       <c r="C543" t="n">
-        <v>0.9320804476737976</v>
+        <v>0.9212163686752319</v>
       </c>
     </row>
     <row r="544">
@@ -6420,7 +6420,7 @@
         <v>0.9074417962814997</v>
       </c>
       <c r="C544" t="n">
-        <v>0.9315178394317627</v>
+        <v>0.91705322265625</v>
       </c>
     </row>
     <row r="545">
@@ -6431,7 +6431,7 @@
         <v>0.9141411456933187</v>
       </c>
       <c r="C545" t="n">
-        <v>0.9267722368240356</v>
+        <v>0.9162729382514954</v>
       </c>
     </row>
     <row r="546">
@@ -6442,7 +6442,7 @@
         <v>0.9236119281853626</v>
       </c>
       <c r="C546" t="n">
-        <v>0.9264248609542847</v>
+        <v>0.9173106551170349</v>
       </c>
     </row>
     <row r="547">
@@ -6453,7 +6453,7 @@
         <v>0.9243193143410708</v>
       </c>
       <c r="C547" t="n">
-        <v>0.9299131035804749</v>
+        <v>0.9166568517684937</v>
       </c>
     </row>
     <row r="548">
@@ -6464,7 +6464,7 @@
         <v>0.907465959926819</v>
       </c>
       <c r="C548" t="n">
-        <v>0.9301600456237793</v>
+        <v>0.9127770066261292</v>
       </c>
     </row>
     <row r="549">
@@ -6475,7 +6475,7 @@
         <v>0.9055172868589407</v>
       </c>
       <c r="C549" t="n">
-        <v>0.9240253567695618</v>
+        <v>0.9099357724189758</v>
       </c>
     </row>
     <row r="550">
@@ -6486,7 +6486,7 @@
         <v>0.9058227248121991</v>
       </c>
       <c r="C550" t="n">
-        <v>0.9196032881736755</v>
+        <v>0.9086657166481018</v>
       </c>
     </row>
     <row r="551">
@@ -6497,7 +6497,7 @@
         <v>0.8982843811814688</v>
       </c>
       <c r="C551" t="n">
-        <v>0.917341411113739</v>
+        <v>0.9058447480201721</v>
       </c>
     </row>
     <row r="552">
@@ -6508,7 +6508,7 @@
         <v>0.8977182803051933</v>
       </c>
       <c r="C552" t="n">
-        <v>0.9146207571029663</v>
+        <v>0.9038976430892944</v>
       </c>
     </row>
     <row r="553">
@@ -6519,7 +6519,7 @@
         <v>0.9061823658809149</v>
       </c>
       <c r="C553" t="n">
-        <v>0.9138524532318115</v>
+        <v>0.9045872688293457</v>
       </c>
     </row>
     <row r="554">
@@ -6530,7 +6530,7 @@
         <v>0.9148476654041438</v>
       </c>
       <c r="C554" t="n">
-        <v>0.9162582755088806</v>
+        <v>0.905154287815094</v>
       </c>
     </row>
     <row r="555">
@@ -6541,7 +6541,7 @@
         <v>0.9158821416082711</v>
       </c>
       <c r="C555" t="n">
-        <v>0.9204874634742737</v>
+        <v>0.9047008156776428</v>
       </c>
     </row>
     <row r="556">
@@ -6552,7 +6552,7 @@
         <v>0.9165323724249446</v>
       </c>
       <c r="C556" t="n">
-        <v>0.9222314357757568</v>
+        <v>0.9043697714805603</v>
       </c>
     </row>
     <row r="557">
@@ -6563,7 +6563,7 @@
         <v>0.922694991798663</v>
       </c>
       <c r="C557" t="n">
-        <v>0.9235029220581055</v>
+        <v>0.9061782360076904</v>
       </c>
     </row>
     <row r="558">
@@ -6574,7 +6574,7 @@
         <v>0.9232308645706219</v>
       </c>
       <c r="C558" t="n">
-        <v>0.9270280003547668</v>
+        <v>0.9083670377731323</v>
       </c>
     </row>
     <row r="559">
@@ -6585,7 +6585,7 @@
         <v>0.9233313536365116</v>
       </c>
       <c r="C559" t="n">
-        <v>0.9287129640579224</v>
+        <v>0.9107524156570435</v>
       </c>
     </row>
     <row r="560">
@@ -6596,7 +6596,7 @@
         <v>0.9234453422431252</v>
       </c>
       <c r="C560" t="n">
-        <v>0.9296925067901611</v>
+        <v>0.9134600162506104</v>
       </c>
     </row>
     <row r="561">
@@ -6607,7 +6607,7 @@
         <v>0.923130978691692</v>
       </c>
       <c r="C561" t="n">
-        <v>0.9300979375839233</v>
+        <v>0.9155300259590149</v>
       </c>
     </row>
     <row r="562">
@@ -6618,7 +6618,7 @@
         <v>0.9229908011686092</v>
       </c>
       <c r="C562" t="n">
-        <v>0.9304807186126709</v>
+        <v>0.9168299436569214</v>
       </c>
     </row>
     <row r="563">
@@ -6629,7 +6629,7 @@
         <v>0.9229182559687749</v>
       </c>
       <c r="C563" t="n">
-        <v>0.9306160807609558</v>
+        <v>0.9176056981086731</v>
       </c>
     </row>
     <row r="564">
@@ -6640,7 +6640,7 @@
         <v>0.9228578097895964</v>
       </c>
       <c r="C564" t="n">
-        <v>0.93082195520401</v>
+        <v>0.9182125329971313</v>
       </c>
     </row>
     <row r="565">
@@ -6651,7 +6651,7 @@
         <v>0.9227455215756902</v>
       </c>
       <c r="C565" t="n">
-        <v>0.9308539032936096</v>
+        <v>0.9184677004814148</v>
       </c>
     </row>
     <row r="566">
@@ -6662,7 +6662,7 @@
         <v>0.9228306881023574</v>
       </c>
       <c r="C566" t="n">
-        <v>0.9308539032936096</v>
+        <v>0.9184672832489014</v>
       </c>
     </row>
     <row r="567">
@@ -6673,7 +6673,7 @@
         <v>0.9228577862962133</v>
       </c>
       <c r="C567" t="n">
-        <v>0.9309602379798889</v>
+        <v>0.9184856414794922</v>
       </c>
     </row>
     <row r="568">
@@ -6684,7 +6684,7 @@
         <v>0.9069168167631525</v>
       </c>
       <c r="C568" t="n">
-        <v>0.9300252795219421</v>
+        <v>0.9146027565002441</v>
       </c>
     </row>
     <row r="569">
@@ -6695,7 +6695,7 @@
         <v>0.9055494660948253</v>
       </c>
       <c r="C569" t="n">
-        <v>0.9241325855255127</v>
+        <v>0.912326991558075</v>
       </c>
     </row>
     <row r="570">
@@ -6706,7 +6706,7 @@
         <v>0.9144773823608651</v>
       </c>
       <c r="C570" t="n">
-        <v>0.9212806820869446</v>
+        <v>0.9132042527198792</v>
       </c>
     </row>
     <row r="571">
@@ -6717,7 +6717,7 @@
         <v>0.9157356177350719</v>
       </c>
       <c r="C571" t="n">
-        <v>0.923386812210083</v>
+        <v>0.9128663539886475</v>
       </c>
     </row>
     <row r="572">
@@ -6728,7 +6728,7 @@
         <v>0.9164565677490328</v>
       </c>
       <c r="C572" t="n">
-        <v>0.9248930811882019</v>
+        <v>0.912314772605896</v>
       </c>
     </row>
     <row r="573">
@@ -6739,7 +6739,7 @@
         <v>0.8981608620389648</v>
       </c>
       <c r="C573" t="n">
-        <v>0.9239512085914612</v>
+        <v>0.907138466835022</v>
       </c>
     </row>
     <row r="574">
@@ -6750,7 +6750,7 @@
         <v>0.8966692067456947</v>
       </c>
       <c r="C574" t="n">
-        <v>0.9170089364051819</v>
+        <v>0.9033684134483337</v>
       </c>
     </row>
     <row r="575">
@@ -6761,7 +6761,7 @@
         <v>0.8891379437503945</v>
       </c>
       <c r="C575" t="n">
-        <v>0.9113889932632446</v>
+        <v>0.8995911478996277</v>
       </c>
     </row>
     <row r="576">
@@ -6772,7 +6772,7 @@
         <v>0.8889122292636356</v>
       </c>
       <c r="C576" t="n">
-        <v>0.9073734283447266</v>
+        <v>0.8976235389709473</v>
       </c>
     </row>
     <row r="577">
@@ -6783,7 +6783,7 @@
         <v>0.8978936757945077</v>
       </c>
       <c r="C577" t="n">
-        <v>0.9065168499946594</v>
+        <v>0.8982871770858765</v>
       </c>
     </row>
     <row r="578">
@@ -6794,7 +6794,7 @@
         <v>0.9058366649910624</v>
       </c>
       <c r="C578" t="n">
-        <v>0.9092833399772644</v>
+        <v>0.8990447521209717</v>
       </c>
     </row>
     <row r="579">
@@ -6805,7 +6805,7 @@
         <v>0.9064751868659348</v>
       </c>
       <c r="C579" t="n">
-        <v>0.9127969741821289</v>
+        <v>0.898223876953125</v>
       </c>
     </row>
     <row r="580">
@@ -6816,7 +6816,7 @@
         <v>0.8890550199477517</v>
       </c>
       <c r="C580" t="n">
-        <v>0.9123103022575378</v>
+        <v>0.893252968788147</v>
       </c>
     </row>
     <row r="581">
@@ -6827,7 +6827,7 @@
         <v>0.8875540751232972</v>
       </c>
       <c r="C581" t="n">
-        <v>0.9054723381996155</v>
+        <v>0.89065021276474</v>
       </c>
     </row>
     <row r="582">
@@ -6838,7 +6838,7 @@
         <v>0.8872923662025596</v>
       </c>
       <c r="C582" t="n">
-        <v>0.9009644985198975</v>
+        <v>0.8900811076164246</v>
       </c>
     </row>
     <row r="583">
@@ -6849,7 +6849,7 @@
         <v>0.8892270403537949</v>
       </c>
       <c r="C583" t="n">
-        <v>0.8999701738357544</v>
+        <v>0.8907228708267212</v>
       </c>
     </row>
     <row r="584">
@@ -6860,7 +6860,7 @@
         <v>0.8877544158344273</v>
       </c>
       <c r="C584" t="n">
-        <v>0.9006181359291077</v>
+        <v>0.8904700875282288</v>
       </c>
     </row>
     <row r="585">
@@ -6871,7 +6871,7 @@
         <v>0.8873999225776992</v>
       </c>
       <c r="C585" t="n">
-        <v>0.9002379775047302</v>
+        <v>0.8891028165817261</v>
       </c>
     </row>
     <row r="586">
@@ -6882,7 +6882,7 @@
         <v>0.8800020156392068</v>
       </c>
       <c r="C586" t="n">
-        <v>0.8984753489494324</v>
+        <v>0.8855955004692078</v>
       </c>
     </row>
     <row r="587">
@@ -6893,7 +6893,7 @@
         <v>0.8970427637539883</v>
       </c>
       <c r="C587" t="n">
-        <v>0.8958609104156494</v>
+        <v>0.8873302936553955</v>
       </c>
     </row>
     <row r="588">
@@ -6904,7 +6904,7 @@
         <v>0.898330276979543</v>
       </c>
       <c r="C588" t="n">
-        <v>0.9019644856452942</v>
+        <v>0.8879397511482239</v>
       </c>
     </row>
     <row r="589">
@@ -6915,7 +6915,7 @@
         <v>0.889166379545303</v>
       </c>
       <c r="C589" t="n">
-        <v>0.9040952324867249</v>
+        <v>0.8870629072189331</v>
       </c>
     </row>
     <row r="590">
@@ -6926,7 +6926,7 @@
         <v>0.8799857812874673</v>
       </c>
       <c r="C590" t="n">
-        <v>0.9002346992492676</v>
+        <v>0.8845992684364319</v>
       </c>
     </row>
     <row r="591">
@@ -6937,7 +6937,7 @@
         <v>0.8870220790933496</v>
       </c>
       <c r="C591" t="n">
-        <v>0.8956096172332764</v>
+        <v>0.8851091861724854</v>
       </c>
     </row>
     <row r="592">
@@ -6948,7 +6948,7 @@
         <v>0.8799762586396253</v>
       </c>
       <c r="C592" t="n">
-        <v>0.8955490589141846</v>
+        <v>0.8840509057044983</v>
       </c>
     </row>
     <row r="593">
@@ -6959,7 +6959,7 @@
         <v>0.8796598767360037</v>
       </c>
       <c r="C593" t="n">
-        <v>0.8937879204750061</v>
+        <v>0.8834641575813293</v>
       </c>
     </row>
     <row r="594">
@@ -6970,7 +6970,7 @@
         <v>0.879267196509025</v>
       </c>
       <c r="C594" t="n">
-        <v>0.8928084969520569</v>
+        <v>0.8824995756149292</v>
       </c>
     </row>
     <row r="595">
@@ -6981,7 +6981,7 @@
         <v>0.8891310274712519</v>
       </c>
       <c r="C595" t="n">
-        <v>0.8927093744277954</v>
+        <v>0.8836548328399658</v>
       </c>
     </row>
     <row r="596">
@@ -6992,7 +6992,7 @@
         <v>0.8958204611157959</v>
       </c>
       <c r="C596" t="n">
-        <v>0.8965591192245483</v>
+        <v>0.8844950199127197</v>
       </c>
     </row>
     <row r="597">
@@ -7003,7 +7003,7 @@
         <v>0.8799587375663617</v>
       </c>
       <c r="C597" t="n">
-        <v>0.8998271226882935</v>
+        <v>0.8817412853240967</v>
       </c>
     </row>
     <row r="598">
@@ -7014,7 +7014,7 @@
         <v>0.8786412434801223</v>
       </c>
       <c r="C598" t="n">
-        <v>0.8945577144622803</v>
+        <v>0.8801495432853699</v>
       </c>
     </row>
     <row r="599">
@@ -7025,7 +7025,7 @@
         <v>0.8784790378809777</v>
       </c>
       <c r="C599" t="n">
-        <v>0.8910505175590515</v>
+        <v>0.8796300888061523</v>
       </c>
     </row>
     <row r="600">
@@ -7036,7 +7036,7 @@
         <v>0.8707834851325117</v>
       </c>
       <c r="C600" t="n">
-        <v>0.8892893195152283</v>
+        <v>0.8777656555175781</v>
       </c>
     </row>
     <row r="601">
@@ -7047,7 +7047,7 @@
         <v>0.8707717220658358</v>
       </c>
       <c r="C601" t="n">
-        <v>0.8864878416061401</v>
+        <v>0.8769874572753906</v>
       </c>
     </row>
     <row r="602">
@@ -7058,7 +7058,7 @@
         <v>0.8707816637701453</v>
       </c>
       <c r="C602" t="n">
-        <v>0.8853790760040283</v>
+        <v>0.8757566213607788</v>
       </c>
     </row>
     <row r="603">
@@ -7069,7 +7069,7 @@
         <v>0.8867594705932136</v>
       </c>
       <c r="C603" t="n">
-        <v>0.8858641386032104</v>
+        <v>0.8780982494354248</v>
       </c>
     </row>
     <row r="604">
@@ -7080,7 +7080,7 @@
         <v>0.8873660500542471</v>
       </c>
       <c r="C604" t="n">
-        <v>0.8920555114746094</v>
+        <v>0.8781923651695251</v>
       </c>
     </row>
     <row r="605">
@@ -7091,7 +7091,7 @@
         <v>0.8707999807045507</v>
       </c>
       <c r="C605" t="n">
-        <v>0.8929296135902405</v>
+        <v>0.8744822144508362</v>
       </c>
     </row>
     <row r="606">
@@ -7102,7 +7102,7 @@
         <v>0.8700889575624075</v>
       </c>
       <c r="C606" t="n">
-        <v>0.8868147134780884</v>
+        <v>0.8726208806037903</v>
       </c>
     </row>
     <row r="607">
@@ -7113,7 +7113,7 @@
         <v>0.8707903116539104</v>
       </c>
       <c r="C607" t="n">
-        <v>0.8832938075065613</v>
+        <v>0.8721602559089661</v>
       </c>
     </row>
     <row r="608">
@@ -7124,7 +7124,7 @@
         <v>0.8704965533737025</v>
       </c>
       <c r="C608" t="n">
-        <v>0.8824908137321472</v>
+        <v>0.8725776672363281</v>
       </c>
     </row>
     <row r="609">
@@ -7135,7 +7135,7 @@
         <v>0.8704068130746991</v>
       </c>
       <c r="C609" t="n">
-        <v>0.8827080130577087</v>
+        <v>0.8726024627685547</v>
       </c>
     </row>
     <row r="610">
@@ -7146,7 +7146,7 @@
         <v>0.870615783817287</v>
       </c>
       <c r="C610" t="n">
-        <v>0.8827387690544128</v>
+        <v>0.871918797492981</v>
       </c>
     </row>
     <row r="611">
@@ -7157,7 +7157,7 @@
         <v>0.8798599134446081</v>
       </c>
       <c r="C611" t="n">
-        <v>0.8831402659416199</v>
+        <v>0.872978687286377</v>
       </c>
     </row>
     <row r="612">
@@ -7168,7 +7168,7 @@
         <v>0.8799516703691388</v>
       </c>
       <c r="C612" t="n">
-        <v>0.8865377902984619</v>
+        <v>0.8728337287902832</v>
       </c>
     </row>
     <row r="613">
@@ -7179,7 +7179,7 @@
         <v>0.8707824849098682</v>
       </c>
       <c r="C613" t="n">
-        <v>0.8870687484741211</v>
+        <v>0.8708451986312866</v>
       </c>
     </row>
     <row r="614">
@@ -7190,7 +7190,7 @@
         <v>0.8696911006299873</v>
       </c>
       <c r="C614" t="n">
-        <v>0.8835073113441467</v>
+        <v>0.8701372742652893</v>
       </c>
     </row>
     <row r="615">
@@ -7201,7 +7201,7 @@
         <v>0.8698949390595898</v>
       </c>
       <c r="C615" t="n">
-        <v>0.8815122246742249</v>
+        <v>0.8702245950698853</v>
       </c>
     </row>
     <row r="616">
@@ -7212,7 +7212,7 @@
         <v>0.8697053886692917</v>
       </c>
       <c r="C616" t="n">
-        <v>0.8809964060783386</v>
+        <v>0.8705469965934753</v>
       </c>
     </row>
     <row r="617">
@@ -7223,7 +7223,7 @@
         <v>0.8694788123001664</v>
       </c>
       <c r="C617" t="n">
-        <v>0.8809940814971924</v>
+        <v>0.8705345988273621</v>
       </c>
     </row>
     <row r="618">
@@ -7234,7 +7234,7 @@
         <v>0.8698565798978368</v>
       </c>
       <c r="C618" t="n">
-        <v>0.8809235692024231</v>
+        <v>0.8700971603393555</v>
       </c>
     </row>
     <row r="619">
@@ -7245,7 +7245,7 @@
         <v>0.8785144628697739</v>
       </c>
       <c r="C619" t="n">
-        <v>0.8815921545028687</v>
+        <v>0.8715571761131287</v>
       </c>
     </row>
     <row r="620">
@@ -7256,7 +7256,7 @@
         <v>0.8789677478687393</v>
       </c>
       <c r="C620" t="n">
-        <v>0.8852436542510986</v>
+        <v>0.8716229796409607</v>
       </c>
     </row>
     <row r="621">
@@ -7267,7 +7267,7 @@
         <v>0.879255381445275</v>
       </c>
       <c r="C621" t="n">
-        <v>0.8869079947471619</v>
+        <v>0.8721047043800354</v>
       </c>
     </row>
     <row r="622">
@@ -7278,7 +7278,7 @@
         <v>0.8793265013966094</v>
       </c>
       <c r="C622" t="n">
-        <v>0.8875284194946289</v>
+        <v>0.8727683424949646</v>
       </c>
     </row>
     <row r="623">
@@ -7289,7 +7289,7 @@
         <v>0.879326592425107</v>
       </c>
       <c r="C623" t="n">
-        <v>0.8877662420272827</v>
+        <v>0.873657763004303</v>
       </c>
     </row>
     <row r="624">
@@ -7300,7 +7300,7 @@
         <v>0.8794028249992533</v>
       </c>
       <c r="C624" t="n">
-        <v>0.8881899118423462</v>
+        <v>0.874900221824646</v>
       </c>
     </row>
     <row r="625">
@@ -7311,7 +7311,7 @@
         <v>0.8793666589255942</v>
       </c>
       <c r="C625" t="n">
-        <v>0.888427734375</v>
+        <v>0.8759816884994507</v>
       </c>
     </row>
     <row r="626">
@@ -7322,7 +7322,7 @@
         <v>0.8799601297764084</v>
       </c>
       <c r="C626" t="n">
-        <v>0.8889175653457642</v>
+        <v>0.8770043849945068</v>
       </c>
     </row>
     <row r="627">
@@ -7333,7 +7333,7 @@
         <v>0.8799703111073658</v>
       </c>
       <c r="C627" t="n">
-        <v>0.8891234397888184</v>
+        <v>0.877326488494873</v>
       </c>
     </row>
     <row r="628">
@@ -7344,7 +7344,7 @@
         <v>0.8799626220134847</v>
       </c>
       <c r="C628" t="n">
-        <v>0.8895777463912964</v>
+        <v>0.8773883581161499</v>
       </c>
     </row>
     <row r="629">
@@ -7355,7 +7355,7 @@
         <v>0.8799413642558214</v>
       </c>
       <c r="C629" t="n">
-        <v>0.889609694480896</v>
+        <v>0.8776239156723022</v>
       </c>
     </row>
     <row r="630">
@@ -7366,7 +7366,7 @@
         <v>0.8799275991795855</v>
       </c>
       <c r="C630" t="n">
-        <v>0.889609694480896</v>
+        <v>0.8776592016220093</v>
       </c>
     </row>
     <row r="631">
@@ -7377,7 +7377,7 @@
         <v>0.8800595884793274</v>
       </c>
       <c r="C631" t="n">
-        <v>0.8896108269691467</v>
+        <v>0.8776670694351196</v>
       </c>
     </row>
     <row r="632">
@@ -7388,7 +7388,7 @@
         <v>0.8783459900059287</v>
       </c>
       <c r="C632" t="n">
-        <v>0.8896319270133972</v>
+        <v>0.8773380517959595</v>
       </c>
     </row>
     <row r="633">
@@ -7399,7 +7399,7 @@
         <v>0.8707157215982997</v>
       </c>
       <c r="C633" t="n">
-        <v>0.888215959072113</v>
+        <v>0.8753871917724609</v>
       </c>
     </row>
     <row r="634">
@@ -7410,7 +7410,7 @@
         <v>0.877899892451302</v>
       </c>
       <c r="C634" t="n">
-        <v>0.8856434226036072</v>
+        <v>0.8760054111480713</v>
       </c>
     </row>
     <row r="635">
@@ -7421,7 +7421,7 @@
         <v>0.8797948372510929</v>
       </c>
       <c r="C635" t="n">
-        <v>0.8871259093284607</v>
+        <v>0.8766337633132935</v>
       </c>
     </row>
     <row r="636">
@@ -7432,7 +7432,7 @@
         <v>0.8798807070180725</v>
       </c>
       <c r="C636" t="n">
-        <v>0.888857364654541</v>
+        <v>0.8767362236976624</v>
       </c>
     </row>
     <row r="637">
@@ -7443,7 +7443,7 @@
         <v>0.8696909564913451</v>
       </c>
       <c r="C637" t="n">
-        <v>0.8883492946624756</v>
+        <v>0.8741514086723328</v>
       </c>
     </row>
     <row r="638">
@@ -7454,7 +7454,7 @@
         <v>0.8616408828282438</v>
       </c>
       <c r="C638" t="n">
-        <v>0.8837188482284546</v>
+        <v>0.8706098794937134</v>
       </c>
     </row>
     <row r="639">
@@ -7465,7 +7465,7 @@
         <v>0.861644262526725</v>
       </c>
       <c r="C639" t="n">
-        <v>0.8786917328834534</v>
+        <v>0.8686757683753967</v>
       </c>
     </row>
     <row r="640">
@@ -7476,7 +7476,7 @@
         <v>0.8615940792526019</v>
       </c>
       <c r="C640" t="n">
-        <v>0.8765993118286133</v>
+        <v>0.8676872849464417</v>
       </c>
     </row>
     <row r="641">
@@ -7487,7 +7487,7 @@
         <v>0.860882636021724</v>
       </c>
       <c r="C641" t="n">
-        <v>0.875781238079071</v>
+        <v>0.8663665652275085</v>
       </c>
     </row>
     <row r="642">
@@ -7498,7 +7498,7 @@
         <v>0.8616384186503963</v>
       </c>
       <c r="C642" t="n">
-        <v>0.8750927448272705</v>
+        <v>0.8647975921630859</v>
       </c>
     </row>
     <row r="643">
@@ -7509,7 +7509,7 @@
         <v>0.8702606503944998</v>
       </c>
       <c r="C643" t="n">
-        <v>0.8753612637519836</v>
+        <v>0.8652406930923462</v>
       </c>
     </row>
     <row r="644">
@@ -7520,7 +7520,7 @@
         <v>0.8705665443001168</v>
       </c>
       <c r="C644" t="n">
-        <v>0.8780977129936218</v>
+        <v>0.8648695349693298</v>
       </c>
     </row>
     <row r="645">
@@ -7531,7 +7531,7 @@
         <v>0.8607607024508854</v>
       </c>
       <c r="C645" t="n">
-        <v>0.8781622648239136</v>
+        <v>0.8622622489929199</v>
       </c>
     </row>
     <row r="646">
@@ -7542,7 +7542,7 @@
         <v>0.8525368549077728</v>
       </c>
       <c r="C646" t="n">
-        <v>0.8737067580223083</v>
+        <v>0.8593674898147583</v>
       </c>
     </row>
     <row r="647">
@@ -7553,7 +7553,7 @@
         <v>0.860182133900922</v>
       </c>
       <c r="C647" t="n">
-        <v>0.8696655035018921</v>
+        <v>0.8601421713829041</v>
       </c>
     </row>
     <row r="648">
@@ -7564,7 +7564,7 @@
         <v>0.8525068852017943</v>
       </c>
       <c r="C648" t="n">
-        <v>0.8698770403862</v>
+        <v>0.8586697578430176</v>
       </c>
     </row>
     <row r="649">
@@ -7575,7 +7575,7 @@
         <v>0.8525138698854399</v>
       </c>
       <c r="C649" t="n">
-        <v>0.86785888671875</v>
+        <v>0.8578180074691772</v>
       </c>
     </row>
     <row r="650">
@@ -7586,7 +7586,7 @@
         <v>0.8525051003351423</v>
       </c>
       <c r="C650" t="n">
-        <v>0.8666582703590393</v>
+        <v>0.8566276431083679</v>
       </c>
     </row>
     <row r="651">
@@ -7597,7 +7597,7 @@
         <v>0.8616896437606959</v>
       </c>
       <c r="C651" t="n">
-        <v>0.8667858242988586</v>
+        <v>0.8574447631835938</v>
       </c>
     </row>
     <row r="652">
@@ -7608,7 +7608,7 @@
         <v>0.8607167634565548</v>
       </c>
       <c r="C652" t="n">
-        <v>0.869661808013916</v>
+        <v>0.8569538593292236</v>
       </c>
     </row>
     <row r="653">
@@ -7619,7 +7619,7 @@
         <v>0.8515372361875291</v>
       </c>
       <c r="C653" t="n">
-        <v>0.8694453835487366</v>
+        <v>0.854408323764801</v>
       </c>
     </row>
     <row r="654">
@@ -7630,7 +7630,7 @@
         <v>0.8513261653602399</v>
       </c>
       <c r="C654" t="n">
-        <v>0.8658972382545471</v>
+        <v>0.8531404137611389</v>
       </c>
     </row>
     <row r="655">
@@ -7641,7 +7641,7 @@
         <v>0.8515087498387494</v>
       </c>
       <c r="C655" t="n">
-        <v>0.8639314770698547</v>
+        <v>0.8529394268989563</v>
       </c>
     </row>
     <row r="656">
@@ -7652,7 +7652,7 @@
         <v>0.8433634256526281</v>
       </c>
       <c r="C656" t="n">
-        <v>0.8625391125679016</v>
+        <v>0.8508561253547668</v>
       </c>
     </row>
     <row r="657">
@@ -7663,7 +7663,7 @@
         <v>0.8432329389227931</v>
       </c>
       <c r="C657" t="n">
-        <v>0.8596546649932861</v>
+        <v>0.8496214151382446</v>
       </c>
     </row>
     <row r="658">
@@ -7674,7 +7674,7 @@
         <v>0.8525253732061376</v>
       </c>
       <c r="C658" t="n">
-        <v>0.8591849207878113</v>
+        <v>0.8508539199829102</v>
       </c>
     </row>
     <row r="659">
@@ -7685,7 +7685,7 @@
         <v>0.8525303357288211</v>
       </c>
       <c r="C659" t="n">
-        <v>0.8619080781936646</v>
+        <v>0.8508151173591614</v>
       </c>
     </row>
     <row r="660">
@@ -7696,7 +7696,7 @@
         <v>0.8600559897933338</v>
       </c>
       <c r="C660" t="n">
-        <v>0.8636938333511353</v>
+        <v>0.8518033027648926</v>
       </c>
     </row>
     <row r="661">
@@ -7707,7 +7707,7 @@
         <v>0.8423039125207453</v>
       </c>
       <c r="C661" t="n">
-        <v>0.8651573657989502</v>
+        <v>0.8480014801025391</v>
       </c>
     </row>
     <row r="662">
@@ -7718,7 +7718,7 @@
         <v>0.842863151635202</v>
       </c>
       <c r="C662" t="n">
-        <v>0.8598472476005554</v>
+        <v>0.8468294739723206</v>
       </c>
     </row>
     <row r="663">
@@ -7729,7 +7729,7 @@
         <v>0.8429116783185329</v>
       </c>
       <c r="C663" t="n">
-        <v>0.8566329479217529</v>
+        <v>0.8461636900901794</v>
       </c>
     </row>
     <row r="664">
@@ -7740,7 +7740,7 @@
         <v>0.8424008058092303</v>
       </c>
       <c r="C664" t="n">
-        <v>0.8559607267379761</v>
+        <v>0.8461505174636841</v>
       </c>
     </row>
     <row r="665">
@@ -7751,7 +7751,7 @@
         <v>0.8433623927797121</v>
       </c>
       <c r="C665" t="n">
-        <v>0.8559174537658691</v>
+        <v>0.8460566997528076</v>
       </c>
     </row>
     <row r="666">
@@ -7762,7 +7762,7 @@
         <v>0.8515198699365405</v>
       </c>
       <c r="C666" t="n">
-        <v>0.8570407032966614</v>
+        <v>0.8473961353302002</v>
       </c>
     </row>
     <row r="667">
@@ -7773,7 +7773,7 @@
         <v>0.8518746435239557</v>
       </c>
       <c r="C667" t="n">
-        <v>0.8600844740867615</v>
+        <v>0.8473915457725525</v>
       </c>
     </row>
     <row r="668">
@@ -7784,7 +7784,7 @@
         <v>0.8521365048218119</v>
       </c>
       <c r="C668" t="n">
-        <v>0.86113440990448</v>
+        <v>0.847095251083374</v>
       </c>
     </row>
     <row r="669">
@@ -7795,7 +7795,7 @@
         <v>0.8522389880510869</v>
       </c>
       <c r="C669" t="n">
-        <v>0.8616194725036621</v>
+        <v>0.8472941517829895</v>
       </c>
     </row>
     <row r="670">
@@ -7806,7 +7806,7 @@
         <v>0.852299432925955</v>
       </c>
       <c r="C670" t="n">
-        <v>0.8617894649505615</v>
+        <v>0.8481979966163635</v>
       </c>
     </row>
     <row r="671">
@@ -7817,7 +7817,7 @@
         <v>0.852394149707455</v>
       </c>
       <c r="C671" t="n">
-        <v>0.8622450828552246</v>
+        <v>0.8493397831916809</v>
       </c>
     </row>
     <row r="672">
@@ -7828,7 +7828,7 @@
         <v>0.8523485227269377</v>
       </c>
       <c r="C672" t="n">
-        <v>0.8625977039337158</v>
+        <v>0.8503590226173401</v>
       </c>
     </row>
     <row r="673">
@@ -7839,7 +7839,7 @@
         <v>0.8524269729286378</v>
       </c>
       <c r="C673" t="n">
-        <v>0.8628619313240051</v>
+        <v>0.8509767651557922</v>
       </c>
     </row>
     <row r="674">
@@ -7850,7 +7850,7 @@
         <v>0.8524770687637817</v>
       </c>
       <c r="C674" t="n">
-        <v>0.8631185293197632</v>
+        <v>0.8513495922088623</v>
       </c>
     </row>
     <row r="675">
@@ -7861,7 +7861,7 @@
         <v>0.8524744110613168</v>
       </c>
       <c r="C675" t="n">
-        <v>0.8631849884986877</v>
+        <v>0.8513357639312744</v>
       </c>
     </row>
     <row r="676">
@@ -7872,7 +7872,7 @@
         <v>0.8524858747338923</v>
       </c>
       <c r="C676" t="n">
-        <v>0.8632528185844421</v>
+        <v>0.85150545835495</v>
       </c>
     </row>
     <row r="677">
@@ -7883,7 +7883,7 @@
         <v>0.8525584356023455</v>
       </c>
       <c r="C677" t="n">
-        <v>0.8632897734642029</v>
+        <v>0.8515341281890869</v>
       </c>
     </row>
     <row r="678">
@@ -7894,7 +7894,7 @@
         <v>0.8526457373637725</v>
       </c>
       <c r="C678" t="n">
-        <v>0.8633244633674622</v>
+        <v>0.8515306711196899</v>
       </c>
     </row>
     <row r="679">
@@ -7905,7 +7905,7 @@
         <v>0.8526455329495749</v>
       </c>
       <c r="C679" t="n">
-        <v>0.8633922338485718</v>
+        <v>0.8515627980232239</v>
       </c>
     </row>
     <row r="680">
@@ -7916,7 +7916,7 @@
         <v>0.8432960353092748</v>
       </c>
       <c r="C680" t="n">
-        <v>0.8623147010803223</v>
+        <v>0.8493787050247192</v>
       </c>
     </row>
     <row r="681">
@@ -7927,7 +7927,7 @@
         <v>0.8341454433662607</v>
       </c>
       <c r="C681" t="n">
-        <v>0.8579466938972473</v>
+        <v>0.8458380103111267</v>
       </c>
     </row>
     <row r="682">
@@ -7938,7 +7938,7 @@
         <v>0.8432733190671617</v>
       </c>
       <c r="C682" t="n">
-        <v>0.8543208837509155</v>
+        <v>0.8461902737617493</v>
       </c>
     </row>
     <row r="683">
@@ -7949,7 +7949,7 @@
         <v>0.8507453462228326</v>
       </c>
       <c r="C683" t="n">
-        <v>0.8560919165611267</v>
+        <v>0.8478091359138489</v>
       </c>
     </row>
     <row r="684">
@@ -7960,7 +7960,7 @@
         <v>0.8426300241135554</v>
       </c>
       <c r="C684" t="n">
-        <v>0.858793318271637</v>
+        <v>0.8459761738777161</v>
       </c>
     </row>
     <row r="685">
@@ -7971,7 +7971,7 @@
         <v>0.8334597762092413</v>
       </c>
       <c r="C685" t="n">
-        <v>0.8557295799255371</v>
+        <v>0.8420983552932739</v>
       </c>
     </row>
     <row r="686">
@@ -7982,7 +7982,7 @@
         <v>0.8335925056084309</v>
       </c>
       <c r="C686" t="n">
-        <v>0.8509728908538818</v>
+        <v>0.839762806892395</v>
       </c>
     </row>
     <row r="687">
@@ -7993,7 +7993,7 @@
         <v>0.8333683325999081</v>
       </c>
       <c r="C687" t="n">
-        <v>0.8480855226516724</v>
+        <v>0.8384255766868591</v>
       </c>
     </row>
     <row r="688">
@@ -8004,7 +8004,7 @@
         <v>0.8332048916463315</v>
       </c>
       <c r="C688" t="n">
-        <v>0.847014307975769</v>
+        <v>0.83763188123703</v>
       </c>
     </row>
     <row r="689">
@@ -8015,7 +8015,7 @@
         <v>0.8249664750642531</v>
       </c>
       <c r="C689" t="n">
-        <v>0.8457778692245483</v>
+        <v>0.8346707820892334</v>
       </c>
     </row>
     <row r="690">
@@ -8026,7 +8026,7 @@
         <v>0.8421012802226654</v>
       </c>
       <c r="C690" t="n">
-        <v>0.8443333506584167</v>
+        <v>0.8370813131332397</v>
       </c>
     </row>
     <row r="691">
@@ -8037,7 +8037,7 @@
         <v>0.8423934611866966</v>
       </c>
       <c r="C691" t="n">
-        <v>0.8495218753814697</v>
+        <v>0.8373770117759705</v>
       </c>
     </row>
     <row r="692">
@@ -8048,7 +8048,7 @@
         <v>0.842499888757396</v>
       </c>
       <c r="C692" t="n">
-        <v>0.8515135645866394</v>
+        <v>0.8373568654060364</v>
       </c>
     </row>
     <row r="693">
@@ -8059,7 +8059,7 @@
         <v>0.8249395469584487</v>
       </c>
       <c r="C693" t="n">
-        <v>0.8499025702476501</v>
+        <v>0.8333467841148376</v>
       </c>
     </row>
     <row r="694">
@@ -8070,7 +8070,7 @@
         <v>0.8249440551320444</v>
       </c>
       <c r="C694" t="n">
-        <v>0.8434323668479919</v>
+        <v>0.8317071795463562</v>
       </c>
     </row>
     <row r="695">
@@ -8081,7 +8081,7 @@
         <v>0.8249547647199753</v>
       </c>
       <c r="C695" t="n">
-        <v>0.8393979072570801</v>
+        <v>0.8311414122581482</v>
       </c>
     </row>
     <row r="696">
@@ -8092,7 +8092,7 @@
         <v>0.8249579117886291</v>
       </c>
       <c r="C696" t="n">
-        <v>0.8384268283843994</v>
+        <v>0.8310161232948303</v>
       </c>
     </row>
     <row r="697">
@@ -8103,7 +8103,7 @@
         <v>0.8249260680618394</v>
       </c>
       <c r="C697" t="n">
-        <v>0.8382920622825623</v>
+        <v>0.8303109407424927</v>
       </c>
     </row>
     <row r="698">
@@ -8114,7 +8114,7 @@
         <v>0.8336182345041351</v>
       </c>
       <c r="C698" t="n">
-        <v>0.8389944434165955</v>
+        <v>0.8310576677322388</v>
       </c>
     </row>
     <row r="699">
@@ -8125,7 +8125,7 @@
         <v>0.8340551932770088</v>
       </c>
       <c r="C699" t="n">
-        <v>0.8422918319702148</v>
+        <v>0.8306719660758972</v>
       </c>
     </row>
     <row r="700">
@@ -8136,7 +8136,7 @@
         <v>0.8341063466286358</v>
       </c>
       <c r="C700" t="n">
-        <v>0.8433964252471924</v>
+        <v>0.8302621841430664</v>
       </c>
     </row>
     <row r="701">
@@ -8147,7 +8147,7 @@
         <v>0.8157710920366319</v>
       </c>
       <c r="C701" t="n">
-        <v>0.8414290547370911</v>
+        <v>0.8258727788925171</v>
       </c>
     </row>
     <row r="702">
@@ -8158,7 +8158,7 @@
         <v>0.815784051763001</v>
       </c>
       <c r="C702" t="n">
-        <v>0.8341447710990906</v>
+        <v>0.8242762684822083</v>
       </c>
     </row>
     <row r="703">
@@ -8169,7 +8169,7 @@
         <v>0.8157887146718561</v>
       </c>
       <c r="C703" t="n">
-        <v>0.8299114108085632</v>
+        <v>0.8235978484153748</v>
       </c>
     </row>
     <row r="704">
@@ -8180,7 +8180,7 @@
         <v>0.815804322599793</v>
       </c>
       <c r="C704" t="n">
-        <v>0.8287784457206726</v>
+        <v>0.8231489658355713</v>
       </c>
     </row>
     <row r="705">
@@ -8191,7 +8191,7 @@
         <v>0.8157912095130639</v>
       </c>
       <c r="C705" t="n">
-        <v>0.828417181968689</v>
+        <v>0.8219130635261536</v>
       </c>
     </row>
     <row r="706">
@@ -8202,7 +8202,7 @@
         <v>0.8245722469106744</v>
       </c>
       <c r="C706" t="n">
-        <v>0.8291155695915222</v>
+        <v>0.8226683735847473</v>
       </c>
     </row>
     <row r="707">
@@ -8213,7 +8213,7 @@
         <v>0.8249562735914427</v>
       </c>
       <c r="C707" t="n">
-        <v>0.8320956826210022</v>
+        <v>0.8221513032913208</v>
       </c>
     </row>
     <row r="708">
@@ -8224,7 +8224,7 @@
         <v>0.8332294220954125</v>
       </c>
       <c r="C708" t="n">
-        <v>0.8345248103141785</v>
+        <v>0.8236420154571533</v>
       </c>
     </row>
     <row r="709">
@@ -8235,7 +8235,7 @@
         <v>0.8247144721002275</v>
       </c>
       <c r="C709" t="n">
-        <v>0.8378837704658508</v>
+        <v>0.8227881789207458</v>
       </c>
     </row>
     <row r="710">
@@ -8246,7 +8246,7 @@
         <v>0.8158117027153006</v>
       </c>
       <c r="C710" t="n">
-        <v>0.8345740437507629</v>
+        <v>0.821128785610199</v>
       </c>
     </row>
     <row r="711">
@@ -8257,7 +8257,7 @@
         <v>0.815781967513556</v>
       </c>
       <c r="C711" t="n">
-        <v>0.8294191360473633</v>
+        <v>0.8207473158836365</v>
       </c>
     </row>
     <row r="712">
@@ -8268,7 +8268,7 @@
         <v>0.8157775666772515</v>
       </c>
       <c r="C712" t="n">
-        <v>0.8273964524269104</v>
+        <v>0.8208518624305725</v>
       </c>
     </row>
     <row r="713">
@@ -8279,7 +8279,7 @@
         <v>0.8157498702712869</v>
       </c>
       <c r="C713" t="n">
-        <v>0.8269644975662231</v>
+        <v>0.821081280708313</v>
       </c>
     </row>
     <row r="714">
@@ -8290,7 +8290,7 @@
         <v>0.8157621106800532</v>
       </c>
       <c r="C714" t="n">
-        <v>0.8269262313842773</v>
+        <v>0.8203072547912598</v>
       </c>
     </row>
     <row r="715">
@@ -8301,7 +8301,7 @@
         <v>0.824935426137609</v>
       </c>
       <c r="C715" t="n">
-        <v>0.8279639482498169</v>
+        <v>0.8213169574737549</v>
       </c>
     </row>
     <row r="716">
@@ -8312,7 +8312,7 @@
         <v>0.8331708888480442</v>
       </c>
       <c r="C716" t="n">
-        <v>0.8327203989028931</v>
+        <v>0.8235055208206177</v>
       </c>
     </row>
     <row r="717">
@@ -8323,7 +8323,7 @@
         <v>0.8332706826756496</v>
       </c>
       <c r="C717" t="n">
-        <v>0.8385725021362305</v>
+        <v>0.8244269490242004</v>
       </c>
     </row>
     <row r="718">
@@ -8334,7 +8334,7 @@
         <v>0.8332824923145908</v>
       </c>
       <c r="C718" t="n">
-        <v>0.8408147692680359</v>
+        <v>0.8254644870758057</v>
       </c>
     </row>
     <row r="719">
@@ -8345,7 +8345,7 @@
         <v>0.833271561400216</v>
       </c>
       <c r="C719" t="n">
-        <v>0.8416947722434998</v>
+        <v>0.8270196914672852</v>
       </c>
     </row>
     <row r="720">
@@ -8356,7 +8356,7 @@
         <v>0.8332865944180884</v>
       </c>
       <c r="C720" t="n">
-        <v>0.8421697020530701</v>
+        <v>0.829001784324646</v>
       </c>
     </row>
     <row r="721">
@@ -8367,7 +8367,7 @@
         <v>0.8333029024074996</v>
       </c>
       <c r="C721" t="n">
-        <v>0.8427040576934814</v>
+        <v>0.830821692943573</v>
       </c>
     </row>
     <row r="722">
@@ -8378,7 +8378,7 @@
         <v>0.8332887076612975</v>
       </c>
       <c r="C722" t="n">
-        <v>0.8432679772377014</v>
+        <v>0.8321896195411682</v>
       </c>
     </row>
     <row r="723">
@@ -8389,7 +8389,7 @@
         <v>0.8332853525084833</v>
       </c>
       <c r="C723" t="n">
-        <v>0.8437665700912476</v>
+        <v>0.8331140279769897</v>
       </c>
     </row>
     <row r="724">
@@ -8400,7 +8400,7 @@
         <v>0.8330569672701552</v>
       </c>
       <c r="C724" t="n">
-        <v>0.8438811898231506</v>
+        <v>0.8333091735839844</v>
       </c>
     </row>
     <row r="725">
@@ -8411,7 +8411,7 @@
         <v>0.8329841498740984</v>
       </c>
       <c r="C725" t="n">
-        <v>0.8438972234725952</v>
+        <v>0.8332868218421936</v>
       </c>
     </row>
     <row r="726">
@@ -8422,7 +8422,7 @@
         <v>0.833002452488868</v>
       </c>
       <c r="C726" t="n">
-        <v>0.8438824415206909</v>
+        <v>0.8332914710044861</v>
       </c>
     </row>
     <row r="727">
@@ -8433,7 +8433,7 @@
         <v>0.8341460190066371</v>
       </c>
       <c r="C727" t="n">
-        <v>0.8441351056098938</v>
+        <v>0.8336328268051147</v>
       </c>
     </row>
     <row r="728">
@@ -8444,7 +8444,7 @@
         <v>0.8338776048879093</v>
       </c>
       <c r="C728" t="n">
-        <v>0.8445709943771362</v>
+        <v>0.8336201906204224</v>
       </c>
     </row>
     <row r="729">
@@ -8455,7 +8455,7 @@
         <v>0.8249632474016795</v>
       </c>
       <c r="C729" t="n">
-        <v>0.8436281085014343</v>
+        <v>0.8314317464828491</v>
       </c>
     </row>
     <row r="730">
@@ -8466,7 +8466,7 @@
         <v>0.8341290096276883</v>
       </c>
       <c r="C730" t="n">
-        <v>0.8409923911094666</v>
+        <v>0.8324372172355652</v>
       </c>
     </row>
     <row r="731">
@@ -8477,7 +8477,7 @@
         <v>0.8416755256505266</v>
       </c>
       <c r="C731" t="n">
-        <v>0.8442186117172241</v>
+        <v>0.8349085450172424</v>
       </c>
     </row>
     <row r="732">
@@ -8488,7 +8488,7 @@
         <v>0.833555810556165</v>
       </c>
       <c r="C732" t="n">
-        <v>0.8481681346893311</v>
+        <v>0.8341112732887268</v>
       </c>
     </row>
     <row r="733">
@@ -8499,7 +8499,7 @@
         <v>0.8248605030762476</v>
       </c>
       <c r="C733" t="n">
-        <v>0.8451372385025024</v>
+        <v>0.8315911293029785</v>
       </c>
     </row>
     <row r="734">
@@ -8510,7 +8510,7 @@
         <v>0.8242851729803427</v>
       </c>
       <c r="C734" t="n">
-        <v>0.8401829600334167</v>
+        <v>0.8299763202667236</v>
       </c>
     </row>
     <row r="735">
@@ -8521,7 +8521,7 @@
         <v>0.8243285117209681</v>
       </c>
       <c r="C735" t="n">
-        <v>0.8374703526496887</v>
+        <v>0.8292310237884521</v>
       </c>
     </row>
     <row r="736">
@@ -8532,7 +8532,7 @@
         <v>0.8157841917186572</v>
       </c>
       <c r="C736" t="n">
-        <v>0.8355832695960999</v>
+        <v>0.8269630670547485</v>
       </c>
     </row>
     <row r="737">
@@ -8543,7 +8543,7 @@
         <v>0.8157746043974642</v>
       </c>
       <c r="C737" t="n">
-        <v>0.8322033286094666</v>
+        <v>0.8248811364173889</v>
       </c>
     </row>
     <row r="738">
@@ -8554,7 +8554,7 @@
         <v>0.8249511979672858</v>
       </c>
       <c r="C738" t="n">
-        <v>0.8312604427337646</v>
+        <v>0.8254947066307068</v>
       </c>
     </row>
     <row r="739">
@@ -8565,7 +8565,7 @@
         <v>0.832673290277504</v>
       </c>
       <c r="C739" t="n">
-        <v>0.8347725868225098</v>
+        <v>0.8268191814422607</v>
       </c>
     </row>
     <row r="740">
@@ -8576,7 +8576,7 @@
         <v>0.8326826332606784</v>
       </c>
       <c r="C740" t="n">
-        <v>0.8394458889961243</v>
+        <v>0.8268938660621643</v>
       </c>
     </row>
     <row r="741">
@@ -8587,7 +8587,7 @@
         <v>0.8157810761417088</v>
       </c>
       <c r="C741" t="n">
-        <v>0.8389930129051208</v>
+        <v>0.8230933547019958</v>
       </c>
     </row>
     <row r="742">
@@ -8598,7 +8598,7 @@
         <v>0.8067025534024366</v>
       </c>
       <c r="C742" t="n">
-        <v>0.8309596180915833</v>
+        <v>0.8189694285392761</v>
       </c>
     </row>
     <row r="743">
@@ -8609,7 +8609,7 @@
         <v>0.8066960645885622</v>
       </c>
       <c r="C743" t="n">
-        <v>0.8234857320785522</v>
+        <v>0.8173718452453613</v>
       </c>
     </row>
     <row r="744">
@@ -8620,7 +8620,7 @@
         <v>0.8067005400045835</v>
       </c>
       <c r="C744" t="n">
-        <v>0.8206645250320435</v>
+        <v>0.8168327212333679</v>
       </c>
     </row>
     <row r="745">
@@ -8631,7 +8631,7 @@
         <v>0.8067127493949617</v>
       </c>
       <c r="C745" t="n">
-        <v>0.8200783729553223</v>
+        <v>0.8157979249954224</v>
       </c>
     </row>
     <row r="746">
@@ -8642,7 +8642,7 @@
         <v>0.8066949284071424</v>
       </c>
       <c r="C746" t="n">
-        <v>0.8195328712463379</v>
+        <v>0.8140863180160522</v>
       </c>
     </row>
     <row r="747">
@@ -8653,7 +8653,7 @@
         <v>0.6956118991445783</v>
       </c>
       <c r="C747" t="n">
-        <v>0.8054659366607666</v>
+        <v>0.7857260704040527</v>
       </c>
     </row>
     <row r="748">
@@ -8664,7 +8664,7 @@
         <v>0.8158562347321858</v>
       </c>
       <c r="C748" t="n">
-        <v>0.8073749542236328</v>
+        <v>0.8004559278488159</v>
       </c>
     </row>
     <row r="749">
@@ -8675,7 +8675,7 @@
         <v>0.8158731657279991</v>
       </c>
       <c r="C749" t="n">
-        <v>0.8155170083045959</v>
+        <v>0.8048970699310303</v>
       </c>
     </row>
     <row r="750">
@@ -8686,7 +8686,7 @@
         <v>0.8066907460759027</v>
       </c>
       <c r="C750" t="n">
-        <v>0.819882333278656</v>
+        <v>0.8043764233589172</v>
       </c>
     </row>
     <row r="751">
@@ -8697,7 +8697,7 @@
         <v>0.8061973653613215</v>
       </c>
       <c r="C751" t="n">
-        <v>0.8169055581092834</v>
+        <v>0.8023786544799805</v>
       </c>
     </row>
     <row r="752">
@@ -8708,7 +8708,7 @@
         <v>0.8334195224454957</v>
       </c>
       <c r="C752" t="n">
-        <v>0.8189084529876709</v>
+        <v>0.8081243634223938</v>
       </c>
     </row>
     <row r="753">
@@ -8719,7 +8719,7 @@
         <v>0.8233677915663892</v>
       </c>
       <c r="C753" t="n">
-        <v>0.8320821523666382</v>
+        <v>0.8117064833641052</v>
       </c>
     </row>
     <row r="754">
@@ -8730,7 +8730,7 @@
         <v>0.7883430643011229</v>
       </c>
       <c r="C754" t="n">
-        <v>0.8274649381637573</v>
+        <v>0.8065580129623413</v>
       </c>
     </row>
     <row r="755">
@@ -8741,7 +8741,7 @@
         <v>0.7699923342210225</v>
       </c>
       <c r="C755" t="n">
-        <v>0.8116540312767029</v>
+        <v>0.7997452616691589</v>
       </c>
     </row>
     <row r="756">
@@ -8752,7 +8752,7 @@
         <v>0.7883076448441908</v>
       </c>
       <c r="C756" t="n">
-        <v>0.8022683262825012</v>
+        <v>0.8016514778137207</v>
       </c>
     </row>
     <row r="757">
@@ -8763,7 +8763,7 @@
         <v>0.7963192042039867</v>
       </c>
       <c r="C757" t="n">
-        <v>0.8025904893875122</v>
+        <v>0.8035942912101746</v>
       </c>
     </row>
     <row r="758">
@@ -8774,7 +8774,7 @@
         <v>0.7883209125856895</v>
       </c>
       <c r="C758" t="n">
-        <v>0.8050851821899414</v>
+        <v>0.8007910847663879</v>
       </c>
     </row>
     <row r="759">
@@ -8785,7 +8785,7 @@
         <v>0.7608392633988722</v>
       </c>
       <c r="C759" t="n">
-        <v>0.7991024255752563</v>
+        <v>0.7904083132743835</v>
       </c>
     </row>
     <row r="760">
@@ -8796,7 +8796,7 @@
         <v>0.7516569834565069</v>
       </c>
       <c r="C760" t="n">
-        <v>0.7872804999351501</v>
+        <v>0.7806332111358643</v>
       </c>
     </row>
     <row r="761">
@@ -8807,7 +8807,7 @@
         <v>0.7425003837755534</v>
       </c>
       <c r="C761" t="n">
-        <v>0.7744643092155457</v>
+        <v>0.7724522948265076</v>
       </c>
     </row>
     <row r="762">
@@ -8818,7 +8818,7 @@
         <v>0.7333349508359343</v>
       </c>
       <c r="C762" t="n">
-        <v>0.7649365663528442</v>
+        <v>0.7659689784049988</v>
       </c>
     </row>
     <row r="763">
@@ -8829,7 +8829,7 @@
         <v>0.7333194194927968</v>
       </c>
       <c r="C763" t="n">
-        <v>0.7598580121994019</v>
+        <v>0.7614446878433228</v>
       </c>
     </row>
     <row r="764">
@@ -8840,7 +8840,7 @@
         <v>0.7241622077106075</v>
       </c>
       <c r="C764" t="n">
-        <v>0.7536882758140564</v>
+        <v>0.7543594837188721</v>
       </c>
     </row>
     <row r="765">
@@ -8851,7 +8851,7 @@
         <v>0.7516491238699198</v>
       </c>
       <c r="C765" t="n">
-        <v>0.7527855634689331</v>
+        <v>0.7546509504318237</v>
       </c>
     </row>
     <row r="766">
@@ -8862,7 +8862,7 @@
         <v>0.7516667851343364</v>
       </c>
       <c r="C766" t="n">
-        <v>0.7550970911979675</v>
+        <v>0.7536640763282776</v>
       </c>
     </row>
     <row r="767">
@@ -8873,7 +8873,7 @@
         <v>0.7333104539973943</v>
       </c>
       <c r="C767" t="n">
-        <v>0.7532155513763428</v>
+        <v>0.748333752155304</v>
       </c>
     </row>
     <row r="768">
@@ -8884,7 +8884,7 @@
         <v>0.7241612000917006</v>
       </c>
       <c r="C768" t="n">
-        <v>0.7452487945556641</v>
+        <v>0.7430064678192139</v>
       </c>
     </row>
     <row r="769">
@@ -8895,7 +8895,7 @@
         <v>0.7241368748604895</v>
       </c>
       <c r="C769" t="n">
-        <v>0.7385431528091431</v>
+        <v>0.7405719757080078</v>
       </c>
     </row>
     <row r="770">
@@ -8906,7 +8906,7 @@
         <v>0.7149817467191062</v>
       </c>
       <c r="C770" t="n">
-        <v>0.7332420349121094</v>
+        <v>0.7372426390647888</v>
       </c>
     </row>
     <row r="771">
@@ -8917,7 +8917,7 @@
         <v>0.7149769181967538</v>
       </c>
       <c r="C771" t="n">
-        <v>0.7298830151557922</v>
+        <v>0.7352113723754883</v>
       </c>
     </row>
     <row r="772">
@@ -8928,7 +8928,7 @@
         <v>0.7058187293609187</v>
       </c>
       <c r="C772" t="n">
-        <v>0.7254642844200134</v>
+        <v>0.729449450969696</v>
       </c>
     </row>
     <row r="773">
@@ -8939,7 +8939,7 @@
         <v>0.7241374903418715</v>
       </c>
       <c r="C773" t="n">
-        <v>0.7255757451057434</v>
+        <v>0.7309279441833496</v>
       </c>
     </row>
     <row r="774">
@@ -8950,7 +8950,7 @@
         <v>0.7241559977212711</v>
       </c>
       <c r="C774" t="n">
-        <v>0.7278828024864197</v>
+        <v>0.7303512096405029</v>
       </c>
     </row>
     <row r="775">
@@ -8961,7 +8961,7 @@
         <v>0.7333149383512038</v>
       </c>
       <c r="C775" t="n">
-        <v>0.7317700386047363</v>
+        <v>0.7317966818809509</v>
       </c>
     </row>
     <row r="776">
@@ -8972,7 +8972,7 @@
         <v>0.7058354191855905</v>
       </c>
       <c r="C776" t="n">
-        <v>0.7288591265678406</v>
+        <v>0.7243655323982239</v>
       </c>
     </row>
     <row r="777">
@@ -8983,7 +8983,7 @@
         <v>0.7058169528179875</v>
       </c>
       <c r="C777" t="n">
-        <v>0.7217945456504822</v>
+        <v>0.719727098941803</v>
       </c>
     </row>
     <row r="778">
@@ -8994,7 +8994,7 @@
         <v>0.7058077655946871</v>
       </c>
       <c r="C778" t="n">
-        <v>0.7163722515106201</v>
+        <v>0.7177682518959045</v>
       </c>
     </row>
     <row r="779">
@@ -9005,7 +9005,7 @@
         <v>0.6966438420424627</v>
       </c>
       <c r="C779" t="n">
-        <v>0.7124862670898438</v>
+        <v>0.7141534090042114</v>
       </c>
     </row>
     <row r="780">
@@ -9016,7 +9016,7 @@
         <v>0.6966404904943969</v>
       </c>
       <c r="C780" t="n">
-        <v>0.7094047069549561</v>
+        <v>0.7108153104782104</v>
       </c>
     </row>
     <row r="781">
@@ -9027,7 +9027,7 @@
         <v>0.6874808917616054</v>
       </c>
       <c r="C781" t="n">
-        <v>0.7045477032661438</v>
+        <v>0.7040513753890991</v>
       </c>
     </row>
     <row r="782">
@@ -9038,7 +9038,7 @@
         <v>0.6874835711276539</v>
       </c>
       <c r="C782" t="n">
-        <v>0.6999052166938782</v>
+        <v>0.6980955600738525</v>
       </c>
     </row>
     <row r="783">
@@ -9049,7 +9049,7 @@
         <v>0.6874868355335483</v>
       </c>
       <c r="C783" t="n">
-        <v>0.6963203549385071</v>
+        <v>0.693868100643158</v>
       </c>
     </row>
     <row r="784">
@@ -9060,7 +9060,7 @@
         <v>0.6874808220161568</v>
       </c>
       <c r="C784" t="n">
-        <v>0.6944117546081543</v>
+        <v>0.690728485584259</v>
       </c>
     </row>
     <row r="785">
@@ -9071,7 +9071,7 @@
         <v>0.6782965210308743</v>
       </c>
       <c r="C785" t="n">
-        <v>0.6907557845115662</v>
+        <v>0.6855543255805969</v>
       </c>
     </row>
     <row r="786">
@@ -9082,7 +9082,7 @@
         <v>0.6783028984387166</v>
       </c>
       <c r="C786" t="n">
-        <v>0.6867172122001648</v>
+        <v>0.6815985441207886</v>
       </c>
     </row>
     <row r="787">
@@ -9093,7 +9093,7 @@
         <v>0.6874731260680143</v>
       </c>
       <c r="C787" t="n">
-        <v>0.6863295435905457</v>
+        <v>0.6818708777427673</v>
       </c>
     </row>
     <row r="788">
@@ -9104,7 +9104,7 @@
         <v>0.6966440749943809</v>
       </c>
       <c r="C788" t="n">
-        <v>0.6907557249069214</v>
+        <v>0.6856956481933594</v>
       </c>
     </row>
     <row r="789">
@@ -9115,7 +9115,7 @@
         <v>0.6966499982662322</v>
       </c>
       <c r="C789" t="n">
-        <v>0.6955762505531311</v>
+        <v>0.6879029273986816</v>
       </c>
     </row>
     <row r="790">
@@ -9126,7 +9126,7 @@
         <v>0.6966592243947517</v>
       </c>
       <c r="C790" t="n">
-        <v>0.69778972864151</v>
+        <v>0.6890957951545715</v>
       </c>
     </row>
     <row r="791">
@@ -9137,7 +9137,7 @@
         <v>0.6966472671516678</v>
       </c>
       <c r="C791" t="n">
-        <v>0.6982040405273438</v>
+        <v>0.6901089549064636</v>
       </c>
     </row>
     <row r="792">
@@ -9148,7 +9148,7 @@
         <v>0.6966409203969125</v>
       </c>
       <c r="C792" t="n">
-        <v>0.6985443234443665</v>
+        <v>0.6914868354797363</v>
       </c>
     </row>
     <row r="793">
@@ -9159,7 +9159,7 @@
         <v>0.6966518450817601</v>
       </c>
       <c r="C793" t="n">
-        <v>0.6992419958114624</v>
+        <v>0.6932978630065918</v>
       </c>
     </row>
     <row r="794">
@@ -9170,7 +9170,7 @@
         <v>0.696641279726256</v>
       </c>
       <c r="C794" t="n">
-        <v>0.699910044670105</v>
+        <v>0.6948531270027161</v>
       </c>
     </row>
     <row r="795">
@@ -9181,7 +9181,7 @@
         <v>0.6966924025609977</v>
       </c>
       <c r="C795" t="n">
-        <v>0.7004165649414062</v>
+        <v>0.6957901120185852</v>
       </c>
     </row>
     <row r="796">
@@ -9192,7 +9192,7 @@
         <v>0.6966818947499238</v>
       </c>
       <c r="C796" t="n">
-        <v>0.700578510761261</v>
+        <v>0.6960427165031433</v>
       </c>
     </row>
     <row r="797">
@@ -9203,7 +9203,7 @@
         <v>0.6875728847616891</v>
       </c>
       <c r="C797" t="n">
-        <v>0.6981737613677979</v>
+        <v>0.6930449604988098</v>
       </c>
     </row>
     <row r="798">
@@ -9214,7 +9214,7 @@
         <v>0.6875859692088637</v>
       </c>
       <c r="C798" t="n">
-        <v>0.6951794028282166</v>
+        <v>0.6909722089767456</v>
       </c>
     </row>
     <row r="799">
@@ -9225,7 +9225,7 @@
         <v>0.6875925968078318</v>
       </c>
       <c r="C799" t="n">
-        <v>0.6932564377784729</v>
+        <v>0.6895387172698975</v>
       </c>
     </row>
     <row r="800">
@@ -9236,7 +9236,7 @@
         <v>0.7241530761337698</v>
       </c>
       <c r="C800" t="n">
-        <v>0.702549934387207</v>
+        <v>0.7022311091423035</v>
       </c>
     </row>
     <row r="801">
@@ -9247,7 +9247,7 @@
         <v>0.7149617777545249</v>
       </c>
       <c r="C801" t="n">
-        <v>0.7140505313873291</v>
+        <v>0.7073995471000671</v>
       </c>
     </row>
     <row r="802">
@@ -9258,7 +9258,7 @@
         <v>0.7057922291199963</v>
       </c>
       <c r="C802" t="n">
-        <v>0.7154442071914673</v>
+        <v>0.7056699991226196</v>
       </c>
     </row>
     <row r="803">
@@ -9269,7 +9269,7 @@
         <v>0.7055648838848002</v>
       </c>
       <c r="C803" t="n">
-        <v>0.7118479013442993</v>
+        <v>0.7045365571975708</v>
       </c>
     </row>
     <row r="804">
@@ -9280,7 +9280,7 @@
         <v>0.6966394773852981</v>
       </c>
       <c r="C804" t="n">
-        <v>0.7077662348747253</v>
+        <v>0.7028111219406128</v>
       </c>
     </row>
     <row r="805">
@@ -9291,7 +9291,7 @@
         <v>0.6966199088996029</v>
       </c>
       <c r="C805" t="n">
-        <v>0.7050115466117859</v>
+        <v>0.7030971646308899</v>
       </c>
     </row>
     <row r="806">
@@ -9302,7 +9302,7 @@
         <v>0.6874630098404931</v>
       </c>
       <c r="C806" t="n">
-        <v>0.70166015625</v>
+        <v>0.7001758217811584</v>
       </c>
     </row>
     <row r="807">
@@ -9313,7 +9313,7 @@
         <v>0.6874686287306468</v>
       </c>
       <c r="C807" t="n">
-        <v>0.6984202265739441</v>
+        <v>0.6971462965011597</v>
       </c>
     </row>
     <row r="808">
@@ -9324,7 +9324,7 @@
         <v>0.6966432374898699</v>
       </c>
       <c r="C808" t="n">
-        <v>0.6982851624488831</v>
+        <v>0.6973586678504944</v>
       </c>
     </row>
     <row r="809">
@@ -9335,7 +9335,7 @@
         <v>0.6962718823588772</v>
       </c>
       <c r="C809" t="n">
-        <v>0.6996131539344788</v>
+        <v>0.6961991190910339</v>
       </c>
     </row>
     <row r="810">
@@ -9346,7 +9346,7 @@
         <v>0.6965778490537812</v>
       </c>
       <c r="C810" t="n">
-        <v>0.7004753351211548</v>
+        <v>0.6951206922531128</v>
       </c>
     </row>
     <row r="811">
@@ -9357,7 +9357,7 @@
         <v>0.6874500515161036</v>
       </c>
       <c r="C811" t="n">
-        <v>0.6979894638061523</v>
+        <v>0.6910736560821533</v>
       </c>
     </row>
     <row r="812">
@@ -9368,7 +9368,7 @@
         <v>0.6873658709587892</v>
       </c>
       <c r="C812" t="n">
-        <v>0.6945822238922119</v>
+        <v>0.6885692477226257</v>
       </c>
     </row>
     <row r="813">
@@ -9379,7 +9379,7 @@
         <v>0.6782929629323079</v>
       </c>
       <c r="C813" t="n">
-        <v>0.689863920211792</v>
+        <v>0.6848798394203186</v>
       </c>
     </row>
     <row r="814">
@@ -9390,7 +9390,7 @@
         <v>0.6782945954154488</v>
       </c>
       <c r="C814" t="n">
-        <v>0.6862928867340088</v>
+        <v>0.682466983795166</v>
       </c>
     </row>
     <row r="815">
@@ -9401,7 +9401,7 @@
         <v>0.6782948412082731</v>
       </c>
       <c r="C815" t="n">
-        <v>0.6841182112693787</v>
+        <v>0.6807551980018616</v>
       </c>
     </row>
     <row r="816">
@@ -9412,7 +9412,7 @@
         <v>0.6783233370111537</v>
       </c>
       <c r="C816" t="n">
-        <v>0.6830412149429321</v>
+        <v>0.6790239810943604</v>
       </c>
     </row>
     <row r="817">
@@ -9423,7 +9423,7 @@
         <v>0.6783384060672568</v>
       </c>
       <c r="C817" t="n">
-        <v>0.6820072531700134</v>
+        <v>0.6770637035369873</v>
       </c>
     </row>
     <row r="818">
@@ -9434,7 +9434,7 @@
         <v>0.6875000079303809</v>
       </c>
       <c r="C818" t="n">
-        <v>0.6838700175285339</v>
+        <v>0.6782885193824768</v>
       </c>
     </row>
     <row r="819">
@@ -9445,7 +9445,7 @@
         <v>0.6782919801823528</v>
       </c>
       <c r="C819" t="n">
-        <v>0.6840077042579651</v>
+        <v>0.6764922142028809</v>
       </c>
     </row>
     <row r="820">
@@ -9456,7 +9456,7 @@
         <v>0.6782971722801384</v>
       </c>
       <c r="C820" t="n">
-        <v>0.68235182762146</v>
+        <v>0.6748430132865906</v>
       </c>
     </row>
     <row r="821">
@@ -9467,7 +9467,7 @@
         <v>0.6691638413961356</v>
       </c>
       <c r="C821" t="n">
-        <v>0.6780022382736206</v>
+        <v>0.6714107394218445</v>
       </c>
     </row>
     <row r="822">
@@ -9478,7 +9478,7 @@
         <v>0.6691383171641321</v>
       </c>
       <c r="C822" t="n">
-        <v>0.6744005084037781</v>
+        <v>0.6694856286048889</v>
       </c>
     </row>
     <row r="823">
@@ -9489,7 +9489,7 @@
         <v>0.6599757159147603</v>
       </c>
       <c r="C823" t="n">
-        <v>0.6693816781044006</v>
+        <v>0.6657644510269165</v>
       </c>
     </row>
     <row r="824">
@@ -9500,7 +9500,7 @@
         <v>0.6599604199542272</v>
       </c>
       <c r="C824" t="n">
-        <v>0.6655349135398865</v>
+        <v>0.6627964377403259</v>
       </c>
     </row>
     <row r="825">
@@ -9511,7 +9511,7 @@
         <v>0.6599757615435127</v>
       </c>
       <c r="C825" t="n">
-        <v>0.6627271771430969</v>
+        <v>0.6602790951728821</v>
       </c>
     </row>
     <row r="826">
@@ -9522,7 +9522,7 @@
         <v>0.6599603374467077</v>
       </c>
       <c r="C826" t="n">
-        <v>0.6614874005317688</v>
+        <v>0.6582377552986145</v>
       </c>
     </row>
     <row r="827">
@@ -9533,7 +9533,7 @@
         <v>0.6599381456805425</v>
       </c>
       <c r="C827" t="n">
-        <v>0.6605833172798157</v>
+        <v>0.6561837792396545</v>
       </c>
     </row>
     <row r="828">
@@ -9544,7 +9544,7 @@
         <v>0.6599465909746465</v>
       </c>
       <c r="C828" t="n">
-        <v>0.6600161790847778</v>
+        <v>0.6546076536178589</v>
       </c>
     </row>
     <row r="829">
@@ -9555,7 +9555,7 @@
         <v>0.6599804373120732</v>
       </c>
       <c r="C829" t="n">
-        <v>0.6596065163612366</v>
+        <v>0.6536073684692383</v>
       </c>
     </row>
     <row r="830">
@@ -9566,7 +9566,7 @@
         <v>0.6599772551295007</v>
       </c>
       <c r="C830" t="n">
-        <v>0.6593031883239746</v>
+        <v>0.6530149579048157</v>
       </c>
     </row>
     <row r="831">
@@ -9577,7 +9577,7 @@
         <v>0.6508049721825606</v>
       </c>
       <c r="C831" t="n">
-        <v>0.6575173139572144</v>
+        <v>0.6504005789756775</v>
       </c>
     </row>
     <row r="832">
@@ -9588,7 +9588,7 @@
         <v>0.6507725229136797</v>
       </c>
       <c r="C832" t="n">
-        <v>0.6556748151779175</v>
+        <v>0.6481254100799561</v>
       </c>
     </row>
     <row r="833">
@@ -9599,7 +9599,7 @@
         <v>0.6416254377885722</v>
       </c>
       <c r="C833" t="n">
-        <v>0.6527042984962463</v>
+        <v>0.6444662809371948</v>
       </c>
     </row>
     <row r="834">
@@ -9610,7 +9610,7 @@
         <v>0.6416437031574923</v>
       </c>
       <c r="C834" t="n">
-        <v>0.6505634784698486</v>
+        <v>0.6420127749443054</v>
       </c>
     </row>
     <row r="835">
@@ -9621,7 +9621,7 @@
         <v>0.6324642332929364</v>
       </c>
       <c r="C835" t="n">
-        <v>0.6472769975662231</v>
+        <v>0.6383839249610901</v>
       </c>
     </row>
     <row r="836">
@@ -9632,7 +9632,7 @@
         <v>0.6324733111013668</v>
       </c>
       <c r="C836" t="n">
-        <v>0.6448463797569275</v>
+        <v>0.6350008249282837</v>
       </c>
     </row>
     <row r="837">
@@ -9643,7 +9643,7 @@
         <v>0.641645383059449</v>
       </c>
       <c r="C837" t="n">
-        <v>0.6448318958282471</v>
+        <v>0.6341050863265991</v>
       </c>
     </row>
     <row r="838">
@@ -9654,7 +9654,7 @@
         <v>0.6324627773075937</v>
       </c>
       <c r="C838" t="n">
-        <v>0.6437236070632935</v>
+        <v>0.6324542760848999</v>
       </c>
     </row>
     <row r="839">
@@ -9665,7 +9665,7 @@
         <v>0.6324898946854168</v>
       </c>
       <c r="C839" t="n">
-        <v>0.6424744725227356</v>
+        <v>0.6297356486320496</v>
       </c>
     </row>
     <row r="840">
@@ -9676,7 +9676,7 @@
         <v>0.6324657705231294</v>
       </c>
       <c r="C840" t="n">
-        <v>0.6409867405891418</v>
+        <v>0.6279852986335754</v>
       </c>
     </row>
     <row r="841">
@@ -9687,7 +9687,7 @@
         <v>0.6232998262635312</v>
       </c>
       <c r="C841" t="n">
-        <v>0.6384164690971375</v>
+        <v>0.6254502534866333</v>
       </c>
     </row>
     <row r="842">
@@ -9698,7 +9698,7 @@
         <v>0.6233284776778766</v>
       </c>
       <c r="C842" t="n">
-        <v>0.6363174915313721</v>
+        <v>0.6228496432304382</v>
       </c>
     </row>
     <row r="843">
@@ -9709,7 +9709,7 @@
         <v>0.6141790739405534</v>
       </c>
       <c r="C843" t="n">
-        <v>0.6328234076499939</v>
+        <v>0.6195030212402344</v>
       </c>
     </row>
     <row r="844">
@@ -9720,7 +9720,7 @@
         <v>0.6142301874667673</v>
       </c>
       <c r="C844" t="n">
-        <v>0.6304066777229309</v>
+        <v>0.6163719892501831</v>
       </c>
     </row>
     <row r="845">
@@ -9731,7 +9731,7 @@
         <v>0.6050642709452688</v>
       </c>
       <c r="C845" t="n">
-        <v>0.6264975666999817</v>
+        <v>0.6125359535217285</v>
       </c>
     </row>
     <row r="846">
@@ -9742,7 +9742,7 @@
         <v>0.6050706941880504</v>
       </c>
       <c r="C846" t="n">
-        <v>0.6236264109611511</v>
+        <v>0.6087141036987305</v>
       </c>
     </row>
     <row r="847">
@@ -9753,7 +9753,7 @@
         <v>0.605073278700891</v>
       </c>
       <c r="C847" t="n">
-        <v>0.6214973926544189</v>
+        <v>0.6059455275535583</v>
       </c>
     </row>
     <row r="848">
@@ -9764,7 +9764,7 @@
         <v>0.6050567577267106</v>
       </c>
       <c r="C848" t="n">
-        <v>0.6203421354293823</v>
+        <v>0.6037728190422058</v>
       </c>
     </row>
     <row r="849">
@@ -9775,7 +9775,7 @@
         <v>0.6324689753158066</v>
       </c>
       <c r="C849" t="n">
-        <v>0.6258203387260437</v>
+        <v>0.6070383191108704</v>
       </c>
     </row>
     <row r="850">
@@ -9786,7 +9786,7 @@
         <v>0.6232955637350751</v>
       </c>
       <c r="C850" t="n">
-        <v>0.6294903159141541</v>
+        <v>0.6119740605354309</v>
       </c>
     </row>
     <row r="851">
@@ -9797,7 +9797,7 @@
         <v>0.6049576784475561</v>
       </c>
       <c r="C851" t="n">
-        <v>0.6272108554840088</v>
+        <v>0.6090916991233826</v>
       </c>
     </row>
     <row r="852">
@@ -9808,7 +9808,7 @@
         <v>0.5958022354062175</v>
       </c>
       <c r="C852" t="n">
-        <v>0.6208235025405884</v>
+        <v>0.6034353375434875</v>
       </c>
     </row>
     <row r="853">
@@ -9819,7 +9819,7 @@
         <v>0.5958052412934853</v>
       </c>
       <c r="C853" t="n">
-        <v>0.616081714630127</v>
+        <v>0.5996841192245483</v>
       </c>
     </row>
     <row r="854">
@@ -9830,7 +9830,7 @@
         <v>0.5866177746826298</v>
       </c>
       <c r="C854" t="n">
-        <v>0.6118194460868835</v>
+        <v>0.5966429114341736</v>
       </c>
     </row>
     <row r="855">
@@ -9841,7 +9841,7 @@
         <v>0.5866303164005001</v>
       </c>
       <c r="C855" t="n">
-        <v>0.6093828082084656</v>
+        <v>0.5929627418518066</v>
       </c>
     </row>
     <row r="856">
@@ -9852,7 +9852,7 @@
         <v>0.5866228013614134</v>
       </c>
       <c r="C856" t="n">
-        <v>0.6072437763214111</v>
+        <v>0.5896949172019958</v>
       </c>
     </row>
     <row r="857">
@@ -9863,7 +9863,7 @@
         <v>0.5866394711567199</v>
       </c>
       <c r="C857" t="n">
-        <v>0.6054530143737793</v>
+        <v>0.5871440768241882</v>
       </c>
     </row>
     <row r="858">
@@ -9874,7 +9874,7 @@
         <v>0.5958054083269385</v>
       </c>
       <c r="C858" t="n">
-        <v>0.6062437295913696</v>
+        <v>0.5859935283660889</v>
       </c>
     </row>
     <row r="859">
@@ -9885,7 +9885,7 @@
         <v>0.5866183578733122</v>
       </c>
       <c r="C859" t="n">
-        <v>0.6050838232040405</v>
+        <v>0.5858142375946045</v>
       </c>
     </row>
     <row r="860">
@@ -9896,7 +9896,7 @@
         <v>0.5774779204793784</v>
       </c>
       <c r="C860" t="n">
-        <v>0.6016339659690857</v>
+        <v>0.5822018980979919</v>
       </c>
     </row>
     <row r="861">
@@ -9907,7 +9907,7 @@
         <v>0.568321066527794</v>
       </c>
       <c r="C861" t="n">
-        <v>0.5957078337669373</v>
+        <v>0.5769771933555603</v>
       </c>
     </row>
     <row r="862">
@@ -9918,7 +9918,7 @@
         <v>0.5683059068759879</v>
       </c>
       <c r="C862" t="n">
-        <v>0.5913753509521484</v>
+        <v>0.5725049376487732</v>
       </c>
     </row>
     <row r="863">
@@ -9929,7 +9929,7 @@
         <v>0.5591317151678585</v>
       </c>
       <c r="C863" t="n">
-        <v>0.58660489320755</v>
+        <v>0.5686674118041992</v>
       </c>
     </row>
     <row r="864">
@@ -9940,7 +9940,7 @@
         <v>0.5591231668043983</v>
       </c>
       <c r="C864" t="n">
-        <v>0.5833930969238281</v>
+        <v>0.5641036629676819</v>
       </c>
     </row>
     <row r="865">
@@ -9951,7 +9951,7 @@
         <v>0.5591400229401978</v>
       </c>
       <c r="C865" t="n">
-        <v>0.5808066129684448</v>
+        <v>0.5608338713645935</v>
       </c>
     </row>
     <row r="866">
@@ -9962,7 +9962,7 @@
         <v>0.5499650280169923</v>
       </c>
       <c r="C866" t="n">
-        <v>0.5765007138252258</v>
+        <v>0.557383120059967</v>
       </c>
     </row>
     <row r="867">
@@ -9973,7 +9973,7 @@
         <v>0.559146056305459</v>
       </c>
       <c r="C867" t="n">
-        <v>0.5753753781318665</v>
+        <v>0.553255558013916</v>
       </c>
     </row>
     <row r="868">
@@ -9984,7 +9984,7 @@
         <v>0.5591190121749482</v>
       </c>
       <c r="C868" t="n">
-        <v>0.5749741792678833</v>
+        <v>0.5533279180526733</v>
       </c>
     </row>
     <row r="869">
@@ -9995,7 +9995,7 @@
         <v>0.5499771918234434</v>
       </c>
       <c r="C869" t="n">
-        <v>0.5728376507759094</v>
+        <v>0.5523507595062256</v>
       </c>
     </row>
     <row r="870">
@@ -10006,7 +10006,7 @@
         <v>0.5499603610097749</v>
       </c>
       <c r="C870" t="n">
-        <v>0.5701861381530762</v>
+        <v>0.5488265156745911</v>
       </c>
     </row>
     <row r="871">
@@ -10017,7 +10017,7 @@
         <v>0.549945266942816</v>
       </c>
       <c r="C871" t="n">
-        <v>0.568076491355896</v>
+        <v>0.5467556715011597</v>
       </c>
     </row>
     <row r="872">
@@ -10028,7 +10028,7 @@
         <v>0.5407991675698005</v>
       </c>
       <c r="C872" t="n">
-        <v>0.56467205286026</v>
+        <v>0.54511559009552</v>
       </c>
     </row>
     <row r="873">
@@ -10039,7 +10039,7 @@
         <v>0.5407931593200846</v>
       </c>
       <c r="C873" t="n">
-        <v>0.5619442462921143</v>
+        <v>0.5413436889648438</v>
       </c>
     </row>
     <row r="874">
@@ -10050,7 +10050,7 @@
         <v>0.540775073205491</v>
       </c>
       <c r="C874" t="n">
-        <v>0.5597597360610962</v>
+        <v>0.5391193628311157</v>
       </c>
     </row>
     <row r="875">
@@ -10061,7 +10061,7 @@
         <v>0.5316825709771763</v>
       </c>
       <c r="C875" t="n">
-        <v>0.5560925602912903</v>
+        <v>0.5371108651161194</v>
       </c>
     </row>
     <row r="876">
@@ -10072,7 +10072,7 @@
         <v>0.5316676797707962</v>
       </c>
       <c r="C876" t="n">
-        <v>0.5529652833938599</v>
+        <v>0.5328457951545715</v>
       </c>
     </row>
     <row r="877">
@@ -10083,7 +10083,7 @@
         <v>0.5316797893596648</v>
       </c>
       <c r="C877" t="n">
-        <v>0.550469696521759</v>
+        <v>0.5302498936653137</v>
       </c>
     </row>
     <row r="878">
@@ -10094,7 +10094,7 @@
         <v>0.5316673327360515</v>
       </c>
       <c r="C878" t="n">
-        <v>0.5491967797279358</v>
+        <v>0.5287758111953735</v>
       </c>
     </row>
     <row r="879">
@@ -10105,7 +10105,7 @@
         <v>0.5316630689585642</v>
       </c>
       <c r="C879" t="n">
-        <v>0.5483471751213074</v>
+        <v>0.5278030037879944</v>
       </c>
     </row>
     <row r="880">
@@ -10116,7 +10116,7 @@
         <v>0.5316663586351772</v>
       </c>
       <c r="C880" t="n">
-        <v>0.5476962924003601</v>
+        <v>0.5269813537597656</v>
       </c>
     </row>
     <row r="881">
@@ -10127,7 +10127,7 @@
         <v>0.5316757696200463</v>
       </c>
       <c r="C881" t="n">
-        <v>0.5471870899200439</v>
+        <v>0.5264827609062195</v>
       </c>
     </row>
     <row r="882">
@@ -10138,7 +10138,7 @@
         <v>0.5224887616518979</v>
       </c>
       <c r="C882" t="n">
-        <v>0.5440940856933594</v>
+        <v>0.5251970291137695</v>
       </c>
     </row>
     <row r="883">
@@ -10149,7 +10149,7 @@
         <v>0.5224988355812885</v>
       </c>
       <c r="C883" t="n">
-        <v>0.5413590669631958</v>
+        <v>0.5215333700180054</v>
       </c>
     </row>
     <row r="884">
@@ -10160,7 +10160,7 @@
         <v>0.5225243687428021</v>
       </c>
       <c r="C884" t="n">
-        <v>0.5393252968788147</v>
+        <v>0.5196435451507568</v>
       </c>
     </row>
     <row r="885">
@@ -10171,7 +10171,7 @@
         <v>0.5133341531619933</v>
       </c>
       <c r="C885" t="n">
-        <v>0.5358274579048157</v>
+        <v>0.5178856253623962</v>
       </c>
     </row>
     <row r="886">
@@ -10182,7 +10182,7 @@
         <v>0.5133284248565411</v>
       </c>
       <c r="C886" t="n">
-        <v>0.5328033566474915</v>
+        <v>0.5137331485748291</v>
       </c>
     </row>
     <row r="887">
@@ -10193,7 +10193,7 @@
         <v>0.5133733041488073</v>
       </c>
       <c r="C887" t="n">
-        <v>0.5303968191146851</v>
+        <v>0.5112407207489014</v>
       </c>
     </row>
     <row r="888">
@@ -10204,7 +10204,7 @@
         <v>0.5133720776354358</v>
       </c>
       <c r="C888" t="n">
-        <v>0.529142439365387</v>
+        <v>0.5098130106925964</v>
       </c>
     </row>
     <row r="889">
@@ -10215,7 +10215,7 @@
         <v>0.5042091200367089</v>
       </c>
       <c r="C889" t="n">
-        <v>0.5255848169326782</v>
+        <v>0.5079967975616455</v>
       </c>
     </row>
     <row r="890">
@@ -10226,7 +10226,7 @@
         <v>0.5042617506385578</v>
       </c>
       <c r="C890" t="n">
-        <v>0.5224030017852783</v>
+        <v>0.5035408735275269</v>
       </c>
     </row>
     <row r="891">
@@ -10237,7 +10237,7 @@
         <v>0.5042497233779691</v>
       </c>
       <c r="C891" t="n">
-        <v>0.5200132131576538</v>
+        <v>0.5009322762489319</v>
       </c>
     </row>
     <row r="892">
@@ -10248,7 +10248,7 @@
         <v>0.5225878643240263</v>
       </c>
       <c r="C892" t="n">
-        <v>0.5249224901199341</v>
+        <v>0.5011119842529297</v>
       </c>
     </row>
     <row r="893">
@@ -10259,7 +10259,7 @@
         <v>0.5317518379259648</v>
       </c>
       <c r="C893" t="n">
-        <v>0.5326842665672302</v>
+        <v>0.5097395181655884</v>
       </c>
     </row>
     <row r="894">
@@ -10270,7 +10270,7 @@
         <v>0.5317614335626185</v>
       </c>
       <c r="C894" t="n">
-        <v>0.5389792919158936</v>
+        <v>0.5171653032302856</v>
       </c>
     </row>
     <row r="895">
@@ -10281,7 +10281,7 @@
         <v>0.5317584442783311</v>
       </c>
       <c r="C895" t="n">
-        <v>0.5421102046966553</v>
+        <v>0.5199395418167114</v>
       </c>
     </row>
     <row r="896">
@@ -10292,7 +10292,7 @@
         <v>0.5317615192133082</v>
       </c>
       <c r="C896" t="n">
-        <v>0.543266236782074</v>
+        <v>0.5212762355804443</v>
       </c>
     </row>
     <row r="897">
@@ -10303,7 +10303,7 @@
         <v>0.5316449368428283</v>
       </c>
       <c r="C897" t="n">
-        <v>0.5440847873687744</v>
+        <v>0.522590160369873</v>
       </c>
     </row>
     <row r="898">
@@ -10314,7 +10314,7 @@
         <v>0.5224673075996381</v>
       </c>
       <c r="C898" t="n">
-        <v>0.5421534776687622</v>
+        <v>0.5229601263999939</v>
       </c>
     </row>
     <row r="899">
@@ -10325,7 +10325,7 @@
         <v>0.5132921423475155</v>
       </c>
       <c r="C899" t="n">
-        <v>0.537621796131134</v>
+        <v>0.5196979641914368</v>
       </c>
     </row>
     <row r="900">
@@ -10336,7 +10336,7 @@
         <v>0.5041366767182919</v>
       </c>
       <c r="C900" t="n">
-        <v>0.53096604347229</v>
+        <v>0.5143936276435852</v>
       </c>
     </row>
     <row r="901">
@@ -10347,7 +10347,7 @@
         <v>0.4949560028670406</v>
       </c>
       <c r="C901" t="n">
-        <v>0.523581862449646</v>
+        <v>0.5077970623970032</v>
       </c>
     </row>
     <row r="902">
@@ -10358,7 +10358,7 @@
         <v>0.4858186886267151</v>
       </c>
       <c r="C902" t="n">
-        <v>0.5159829258918762</v>
+        <v>0.5001349449157715</v>
       </c>
     </row>
     <row r="903">
@@ -10369,7 +10369,7 @@
         <v>0.4858093956179252</v>
       </c>
       <c r="C903" t="n">
-        <v>0.5106806755065918</v>
+        <v>0.4928848147392273</v>
       </c>
     </row>
     <row r="904">
@@ -10380,7 +10380,7 @@
         <v>0.4858066277030722</v>
       </c>
       <c r="C904" t="n">
-        <v>0.5068141222000122</v>
+        <v>0.4880655705928802</v>
       </c>
     </row>
     <row r="905">
@@ -10391,7 +10391,7 @@
         <v>0.4766467619775114</v>
       </c>
       <c r="C905" t="n">
-        <v>0.501715362071991</v>
+        <v>0.4838541150093079</v>
       </c>
     </row>
     <row r="906">
@@ -10402,7 +10402,7 @@
         <v>0.4766346890929717</v>
       </c>
       <c r="C906" t="n">
-        <v>0.4971917867660522</v>
+        <v>0.4777924418449402</v>
       </c>
     </row>
     <row r="907">
@@ -10413,7 +10413,7 @@
         <v>0.4766483108166869</v>
       </c>
       <c r="C907" t="n">
-        <v>0.4935234189033508</v>
+        <v>0.47393399477005</v>
       </c>
     </row>
     <row r="908">
@@ -10424,7 +10424,7 @@
         <v>0.4766483644157081</v>
       </c>
       <c r="C908" t="n">
-        <v>0.4912801682949066</v>
+        <v>0.4718353152275085</v>
       </c>
     </row>
     <row r="909">
@@ -10435,7 +10435,7 @@
         <v>0.4766408097519609</v>
       </c>
       <c r="C909" t="n">
-        <v>0.4898337423801422</v>
+        <v>0.4705895185470581</v>
       </c>
     </row>
     <row r="910">
@@ -10446,7 +10446,7 @@
         <v>0.4766422414350858</v>
       </c>
       <c r="C910" t="n">
-        <v>0.4888598918914795</v>
+        <v>0.4697893559932709</v>
       </c>
     </row>
     <row r="911">
@@ -10457,7 +10457,7 @@
         <v>0.4766356263492323</v>
       </c>
       <c r="C911" t="n">
-        <v>0.4881121218204498</v>
+        <v>0.4693732261657715</v>
       </c>
     </row>
     <row r="912">
@@ -10468,7 +10468,7 @@
         <v>0.4674731728870366</v>
       </c>
       <c r="C912" t="n">
-        <v>0.4851639866828918</v>
+        <v>0.4684593677520752</v>
       </c>
     </row>
     <row r="913">
@@ -10479,7 +10479,7 @@
         <v>0.4582984700809819</v>
       </c>
       <c r="C913" t="n">
-        <v>0.4802321791648865</v>
+        <v>0.4641937613487244</v>
       </c>
     </row>
     <row r="914">
@@ -10490,7 +10490,7 @@
         <v>0.4583116608228829</v>
       </c>
       <c r="C914" t="n">
-        <v>0.476136326789856</v>
+        <v>0.4590480327606201</v>
       </c>
     </row>
     <row r="915">
@@ -10501,7 +10501,7 @@
         <v>0.4491595202436003</v>
       </c>
       <c r="C915" t="n">
-        <v>0.4714003503322601</v>
+        <v>0.4557594656944275</v>
       </c>
     </row>
     <row r="916">
@@ -10512,7 +10512,7 @@
         <v>0.4583044680260598</v>
       </c>
       <c r="C916" t="n">
-        <v>0.4702745974063873</v>
+        <v>0.4512230455875397</v>
       </c>
     </row>
     <row r="917">
@@ -10523,7 +10523,7 @@
         <v>0.45831621732103</v>
       </c>
       <c r="C917" t="n">
-        <v>0.4695563316345215</v>
+        <v>0.4518364667892456</v>
       </c>
     </row>
     <row r="918">
@@ -10534,7 +10534,7 @@
         <v>0.4582967804388136</v>
       </c>
       <c r="C918" t="n">
-        <v>0.4691415727138519</v>
+        <v>0.4517894387245178</v>
       </c>
     </row>
     <row r="919">
@@ -10545,7 +10545,7 @@
         <v>0.4583135333027426</v>
       </c>
       <c r="C919" t="n">
-        <v>0.4683594405651093</v>
+        <v>0.451308012008667</v>
       </c>
     </row>
     <row r="920">
@@ -10556,7 +10556,7 @@
         <v>0.4582919870590925</v>
       </c>
       <c r="C920" t="n">
-        <v>0.4678138196468353</v>
+        <v>0.4509077370166779</v>
       </c>
     </row>
     <row r="921">
@@ -10567,7 +10567,7 @@
         <v>0.4583015179226014</v>
       </c>
       <c r="C921" t="n">
-        <v>0.4676229059696198</v>
+        <v>0.4506701231002808</v>
       </c>
     </row>
     <row r="922">
@@ -10578,7 +10578,7 @@
         <v>0.4583241657359106</v>
       </c>
       <c r="C922" t="n">
-        <v>0.4676261842250824</v>
+        <v>0.4506764113903046</v>
       </c>
     </row>
     <row r="923">
@@ -10589,7 +10589,7 @@
         <v>0.4491386242768719</v>
       </c>
       <c r="C923" t="n">
-        <v>0.4651651978492737</v>
+        <v>0.4502735435962677</v>
       </c>
     </row>
     <row r="924">
@@ -10600,7 +10600,7 @@
         <v>0.449142275244437</v>
       </c>
       <c r="C924" t="n">
-        <v>0.4628044068813324</v>
+        <v>0.4466268122196198</v>
       </c>
     </row>
     <row r="925">
@@ -10611,7 +10611,7 @@
         <v>0.449146124490349</v>
       </c>
       <c r="C925" t="n">
-        <v>0.4610177278518677</v>
+        <v>0.4445486962795258</v>
       </c>
     </row>
     <row r="926">
@@ -10622,7 +10622,7 @@
         <v>0.4399802056090499</v>
       </c>
       <c r="C926" t="n">
-        <v>0.4579440951347351</v>
+        <v>0.4430898725986481</v>
       </c>
     </row>
     <row r="927">
@@ -10633,7 +10633,7 @@
         <v>0.4399817430951407</v>
       </c>
       <c r="C927" t="n">
-        <v>0.4552862644195557</v>
+        <v>0.4388329982757568</v>
       </c>
     </row>
     <row r="928">
@@ -10644,7 +10644,7 @@
         <v>0.4307941764037652</v>
       </c>
       <c r="C928" t="n">
-        <v>0.4508033394813538</v>
+        <v>0.4357488453388214</v>
       </c>
     </row>
     <row r="929">
@@ -10655,7 +10655,7 @@
         <v>0.4216378080597042</v>
       </c>
       <c r="C929" t="n">
-        <v>0.4453913271427155</v>
+        <v>0.4299287796020508</v>
       </c>
     </row>
     <row r="930">
@@ -10666,7 +10666,7 @@
         <v>0.4216438820801582</v>
       </c>
       <c r="C930" t="n">
-        <v>0.4408550560474396</v>
+        <v>0.4230793118476868</v>
       </c>
     </row>
     <row r="931">
@@ -10677,7 +10677,7 @@
         <v>0.4216375588752884</v>
       </c>
       <c r="C931" t="n">
-        <v>0.4375075399875641</v>
+        <v>0.4189985692501068</v>
       </c>
     </row>
     <row r="932">
@@ -10688,7 +10688,7 @@
         <v>0.4124733578169055</v>
       </c>
       <c r="C932" t="n">
-        <v>0.433256208896637</v>
+        <v>0.4160782992839813</v>
       </c>
     </row>
     <row r="933">
@@ -10699,7 +10699,7 @@
         <v>0.4124808626955641</v>
       </c>
       <c r="C933" t="n">
-        <v>0.4293404519557953</v>
+        <v>0.4117462635040283</v>
       </c>
     </row>
     <row r="934">
@@ -10710,7 +10710,7 @@
         <v>0.4124777098788104</v>
       </c>
       <c r="C934" t="n">
-        <v>0.4272595345973969</v>
+        <v>0.409145325422287</v>
       </c>
     </row>
     <row r="935">
@@ -10721,7 +10721,7 @@
         <v>0.4033315805455803</v>
       </c>
       <c r="C935" t="n">
-        <v>0.4253019988536835</v>
+        <v>0.4071940779685974</v>
       </c>
     </row>
     <row r="936">
@@ -10732,7 +10732,7 @@
         <v>0.4033360528632756</v>
       </c>
       <c r="C936" t="n">
-        <v>0.4237760305404663</v>
+        <v>0.4031300842761993</v>
       </c>
     </row>
     <row r="937">
@@ -10743,7 +10743,7 @@
         <v>0.4308534633306088</v>
       </c>
       <c r="C937" t="n">
-        <v>0.4279830455780029</v>
+        <v>0.4017305374145508</v>
       </c>
     </row>
     <row r="938">
@@ -10754,7 +10754,7 @@
         <v>0.4125118270578042</v>
       </c>
       <c r="C938" t="n">
-        <v>0.4281894862651825</v>
+        <v>0.4115443527698517</v>
       </c>
     </row>
     <row r="939">
@@ -10765,7 +10765,7 @@
         <v>0.4033391923847535</v>
       </c>
       <c r="C939" t="n">
-        <v>0.4248082339763641</v>
+        <v>0.4082210958003998</v>
       </c>
     </row>
     <row r="940">
@@ -10776,7 +10776,7 @@
         <v>0.4033496565911339</v>
       </c>
       <c r="C940" t="n">
-        <v>0.4230400621891022</v>
+        <v>0.4030318558216095</v>
       </c>
     </row>
     <row r="941">
@@ -10787,7 +10787,7 @@
         <v>0.3849892811556447</v>
       </c>
       <c r="C941" t="n">
-        <v>0.4201920330524445</v>
+        <v>0.3999460637569427</v>
       </c>
     </row>
     <row r="942">
@@ -10798,7 +10798,7 @@
         <v>0.3758324089978315</v>
       </c>
       <c r="C942" t="n">
-        <v>0.4172849059104919</v>
+        <v>0.3931533396244049</v>
       </c>
     </row>
     <row r="943">
@@ -10809,7 +10809,7 @@
         <v>0.3758293760217153</v>
       </c>
       <c r="C943" t="n">
-        <v>0.4156288504600525</v>
+        <v>0.3866592347621918</v>
       </c>
     </row>
     <row r="944">
@@ -10820,7 +10820,7 @@
         <v>0.3666631694272797</v>
       </c>
       <c r="C944" t="n">
-        <v>0.4074830412864685</v>
+        <v>0.3824445307254791</v>
       </c>
     </row>
     <row r="945">
@@ -10831,7 +10831,7 @@
         <v>0.3666559447676506</v>
       </c>
       <c r="C945" t="n">
-        <v>0.4000955522060394</v>
+        <v>0.3772121071815491</v>
       </c>
     </row>
     <row r="946">
@@ -10842,7 +10842,7 @@
         <v>0.3666649225719509</v>
       </c>
       <c r="C946" t="n">
-        <v>0.3959687352180481</v>
+        <v>0.3734308183193207</v>
       </c>
     </row>
     <row r="947">
@@ -10853,7 +10853,7 @@
         <v>0.3574951546299711</v>
       </c>
       <c r="C947" t="n">
-        <v>0.3896637558937073</v>
+        <v>0.3702611923217773</v>
       </c>
     </row>
     <row r="948">
@@ -10864,7 +10864,7 @@
         <v>0.3574795090044351</v>
       </c>
       <c r="C948" t="n">
-        <v>0.3856075704097748</v>
+        <v>0.3654463887214661</v>
       </c>
     </row>
     <row r="949">
@@ -10875,7 +10875,7 @@
         <v>0.3575005345723598</v>
       </c>
       <c r="C949" t="n">
-        <v>0.3830283880233765</v>
+        <v>0.3625275492668152</v>
       </c>
     </row>
     <row r="950">
@@ -10886,7 +10886,7 @@
         <v>0.3666499445873183</v>
       </c>
       <c r="C950" t="n">
-        <v>0.3855679929256439</v>
+        <v>0.3611739873886108</v>
       </c>
     </row>
     <row r="951">
@@ -10897,7 +10897,7 @@
         <v>0.3666649993946035</v>
       </c>
       <c r="C951" t="n">
-        <v>0.3871019780635834</v>
+        <v>0.3638812601566315</v>
       </c>
     </row>
     <row r="952">
@@ -10908,7 +10908,7 @@
         <v>0.3574745078913171</v>
       </c>
       <c r="C952" t="n">
-        <v>0.3831752240657806</v>
+        <v>0.3646959066390991</v>
       </c>
     </row>
     <row r="953">
@@ -10919,7 +10919,7 @@
         <v>0.357484011235371</v>
       </c>
       <c r="C953" t="n">
-        <v>0.3806926608085632</v>
+        <v>0.361545205116272</v>
       </c>
     </row>
     <row r="954">
@@ -10930,7 +10930,7 @@
         <v>0.3483224612768615</v>
       </c>
       <c r="C954" t="n">
-        <v>0.3762471675872803</v>
+        <v>0.359763503074646</v>
       </c>
     </row>
     <row r="955">
@@ -10941,7 +10941,7 @@
         <v>0.3483271692272512</v>
       </c>
       <c r="C955" t="n">
-        <v>0.3737172484397888</v>
+        <v>0.3559713363647461</v>
       </c>
     </row>
     <row r="956">
@@ -10952,7 +10952,7 @@
         <v>0.3391552225163699</v>
       </c>
       <c r="C956" t="n">
-        <v>0.3692176640033722</v>
+        <v>0.353804349899292</v>
       </c>
     </row>
     <row r="957">
@@ -10963,7 +10963,7 @@
         <v>0.3391552173405732</v>
       </c>
       <c r="C957" t="n">
-        <v>0.3660946488380432</v>
+        <v>0.3494870960712433</v>
       </c>
     </row>
     <row r="958">
@@ -10974,7 +10974,7 @@
         <v>0.3299892721419832</v>
       </c>
       <c r="C958" t="n">
-        <v>0.3608889281749725</v>
+        <v>0.3467722237110138</v>
       </c>
     </row>
     <row r="959">
@@ -10985,7 +10985,7 @@
         <v>0.3299758109286358</v>
       </c>
       <c r="C959" t="n">
-        <v>0.3573543727397919</v>
+        <v>0.3421638309955597</v>
       </c>
     </row>
     <row r="960">
@@ -10996,7 +10996,7 @@
         <v>0.3299923425468167</v>
       </c>
       <c r="C960" t="n">
-        <v>0.3553557395935059</v>
+        <v>0.3392679393291473</v>
       </c>
     </row>
     <row r="961">
@@ -11007,7 +11007,7 @@
         <v>0.329995289094346</v>
       </c>
       <c r="C961" t="n">
-        <v>0.3538768589496613</v>
+        <v>0.3374833464622498</v>
       </c>
     </row>
     <row r="962">
@@ -11018,7 +11018,7 @@
         <v>0.3208187668994396</v>
       </c>
       <c r="C962" t="n">
-        <v>0.3493598997592926</v>
+        <v>0.3361697494983673</v>
       </c>
     </row>
     <row r="963">
@@ -11029,7 +11029,7 @@
         <v>0.3208218610357516</v>
       </c>
       <c r="C963" t="n">
-        <v>0.3462783992290497</v>
+        <v>0.3319913446903229</v>
       </c>
     </row>
     <row r="964">
@@ -11040,7 +11040,7 @@
         <v>0.3208171684359697</v>
       </c>
       <c r="C964" t="n">
-        <v>0.3448255360126495</v>
+        <v>0.3296059668064117</v>
       </c>
     </row>
     <row r="965">
@@ -11051,7 +11051,7 @@
         <v>0.3299758382896056</v>
       </c>
       <c r="C965" t="n">
-        <v>0.34751296043396</v>
+        <v>0.3286926448345184</v>
       </c>
     </row>
     <row r="966">
@@ -11062,7 +11062,7 @@
         <v>0.3208168982372652</v>
       </c>
       <c r="C966" t="n">
-        <v>0.3454708158969879</v>
+        <v>0.3315972983837128</v>
       </c>
     </row>
     <row r="967">
@@ -11073,7 +11073,7 @@
         <v>0.3299953811027025</v>
       </c>
       <c r="C967" t="n">
-        <v>0.3471052944660187</v>
+        <v>0.3293367028236389</v>
       </c>
     </row>
     <row r="968">
@@ -11084,7 +11084,7 @@
         <v>0.3300059252393188</v>
       </c>
       <c r="C968" t="n">
-        <v>0.3486508727073669</v>
+        <v>0.3317165076732635</v>
       </c>
     </row>
     <row r="969">
@@ -11095,7 +11095,7 @@
         <v>0.3208678405441824</v>
       </c>
       <c r="C969" t="n">
-        <v>0.3456408381462097</v>
+        <v>0.3325290083885193</v>
       </c>
     </row>
     <row r="970">
@@ -11106,7 +11106,7 @@
         <v>0.3208685792248395</v>
       </c>
       <c r="C970" t="n">
-        <v>0.3437958061695099</v>
+        <v>0.3294973969459534</v>
       </c>
     </row>
     <row r="971">
@@ -11117,7 +11117,7 @@
         <v>0.3025397099294904</v>
       </c>
       <c r="C971" t="n">
-        <v>0.3371517360210419</v>
+        <v>0.3276251554489136</v>
       </c>
     </row>
     <row r="972">
@@ -11128,7 +11128,7 @@
         <v>0.3025336190414781</v>
       </c>
       <c r="C972" t="n">
-        <v>0.3330839276313782</v>
+        <v>0.3210512697696686</v>
       </c>
     </row>
     <row r="973">
@@ -11139,7 +11139,7 @@
         <v>0.3025412806333294</v>
       </c>
       <c r="C973" t="n">
-        <v>0.3311481177806854</v>
+        <v>0.3171425759792328</v>
       </c>
     </row>
     <row r="974">
@@ -11150,7 +11150,7 @@
         <v>0.302533590604709</v>
       </c>
       <c r="C974" t="n">
-        <v>0.3295909464359283</v>
+        <v>0.3149477541446686</v>
       </c>
     </row>
     <row r="975">
@@ -11161,7 +11161,7 @@
         <v>0.2933578426150861</v>
       </c>
       <c r="C975" t="n">
-        <v>0.3251300454139709</v>
+        <v>0.3129487037658691</v>
       </c>
     </row>
     <row r="976">
@@ -11172,7 +11172,7 @@
         <v>0.2933616708237365</v>
       </c>
       <c r="C976" t="n">
-        <v>0.3219287693500519</v>
+        <v>0.3071198165416718</v>
       </c>
     </row>
     <row r="977">
@@ -11183,7 +11183,7 @@
         <v>0.2933586836205315</v>
       </c>
       <c r="C977" t="n">
-        <v>0.3201407194137573</v>
+        <v>0.3029091656208038</v>
       </c>
     </row>
     <row r="978">
@@ -11194,7 +11194,7 @@
         <v>0.2841850212298394</v>
       </c>
       <c r="C978" t="n">
-        <v>0.3162468075752258</v>
+        <v>0.300162136554718</v>
       </c>
     </row>
     <row r="979">
@@ -11205,7 +11205,7 @@
         <v>0.2841955206190587</v>
       </c>
       <c r="C979" t="n">
-        <v>0.3135690987110138</v>
+        <v>0.2926838397979736</v>
       </c>
     </row>
     <row r="980">
@@ -11216,7 +11216,7 @@
         <v>0.2933508802798661</v>
       </c>
       <c r="C980" t="n">
-        <v>0.3152190446853638</v>
+        <v>0.2880121171474457</v>
       </c>
     </row>
     <row r="981">
@@ -11227,7 +11227,7 @@
         <v>0.2933689522335892</v>
       </c>
       <c r="C981" t="n">
-        <v>0.3160507380962372</v>
+        <v>0.2931814789772034</v>
       </c>
     </row>
     <row r="982">
@@ -11238,7 +11238,7 @@
         <v>0.2933647699946347</v>
       </c>
       <c r="C982" t="n">
-        <v>0.315900057554245</v>
+        <v>0.2949573993682861</v>
       </c>
     </row>
     <row r="983">
@@ -11249,7 +11249,7 @@
         <v>0.2841988267729658</v>
       </c>
       <c r="C983" t="n">
-        <v>0.3127905428409576</v>
+        <v>0.2950031459331512</v>
       </c>
     </row>
     <row r="984">
@@ -11260,7 +11260,7 @@
         <v>0.2933647331405014</v>
       </c>
       <c r="C984" t="n">
-        <v>0.3142211735248566</v>
+        <v>0.2882842421531677</v>
       </c>
     </row>
     <row r="985">
@@ -11271,7 +11271,7 @@
         <v>0.2841951108145513</v>
       </c>
       <c r="C985" t="n">
-        <v>0.3125345706939697</v>
+        <v>0.2921998202800751</v>
       </c>
     </row>
     <row r="986">
@@ -11282,7 +11282,7 @@
         <v>0.4125118270578042</v>
       </c>
       <c r="C986" t="n">
-        <v>0.3946389555931091</v>
+        <v>0.2914453744888306</v>
       </c>
     </row>
     <row r="987">
@@ -11293,7 +11293,7 @@
         <v>0.4033391923847535</v>
       </c>
       <c r="C987" t="n">
-        <v>0.4226482510566711</v>
+        <v>0.3779566884040833</v>
       </c>
     </row>
     <row r="988">
@@ -11304,7 +11304,7 @@
         <v>0.4033496565911339</v>
       </c>
       <c r="C988" t="n">
-        <v>0.4200471341609955</v>
+        <v>0.3830473721027374</v>
       </c>
     </row>
     <row r="989">
@@ -11315,7 +11315,7 @@
         <v>0.3849892811556447</v>
       </c>
       <c r="C989" t="n">
-        <v>0.4173928201198578</v>
+        <v>0.3845353722572327</v>
       </c>
     </row>
     <row r="990">
@@ -11326,7 +11326,7 @@
         <v>0.3758324089978315</v>
       </c>
       <c r="C990" t="n">
-        <v>0.4121599197387695</v>
+        <v>0.3803759217262268</v>
       </c>
     </row>
     <row r="991">
@@ -11337,7 +11337,7 @@
         <v>0.3758293760217153</v>
       </c>
       <c r="C991" t="n">
-        <v>0.4063397645950317</v>
+        <v>0.376778244972229</v>
       </c>
     </row>
     <row r="992">
@@ -11348,7 +11348,7 @@
         <v>0.3666631694272797</v>
       </c>
       <c r="C992" t="n">
-        <v>0.4013087749481201</v>
+        <v>0.3759865164756775</v>
       </c>
     </row>
     <row r="993">
@@ -11359,7 +11359,7 @@
         <v>0.3666559447676506</v>
       </c>
       <c r="C993" t="n">
-        <v>0.3975674211978912</v>
+        <v>0.3736478984355927</v>
       </c>
     </row>
     <row r="994">
@@ -11370,7 +11370,7 @@
         <v>0.3666649225719509</v>
       </c>
       <c r="C994" t="n">
-        <v>0.3947409689426422</v>
+        <v>0.3720597326755524</v>
       </c>
     </row>
     <row r="995">
@@ -11381,7 +11381,7 @@
         <v>0.3574951546299711</v>
       </c>
       <c r="C995" t="n">
-        <v>0.3886590898036957</v>
+        <v>0.3702611923217773</v>
       </c>
     </row>
     <row r="996">
@@ -11392,7 +11392,7 @@
         <v>0.3574795090044351</v>
       </c>
       <c r="C996" t="n">
-        <v>0.3847169280052185</v>
+        <v>0.3654463887214661</v>
       </c>
     </row>
     <row r="997">
@@ -11403,7 +11403,7 @@
         <v>0.3575005345723598</v>
       </c>
       <c r="C997" t="n">
-        <v>0.3829501271247864</v>
+        <v>0.3625275492668152</v>
       </c>
     </row>
   </sheetData>
